--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Serie</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK439"/>
+  <dimension ref="A1:AK440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2235,7 +2238,7 @@
         <v>211</v>
       </c>
       <c r="I17">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J17">
         <v>413</v>
@@ -2447,7 +2450,7 @@
         <v>91</v>
       </c>
       <c r="C21">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>83</v>
@@ -2783,7 +2786,7 @@
         <v>112</v>
       </c>
       <c r="C27">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27">
         <v>76</v>
@@ -3007,7 +3010,7 @@
         <v>109</v>
       </c>
       <c r="C31">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31">
         <v>61</v>
@@ -3175,7 +3178,7 @@
         <v>107</v>
       </c>
       <c r="C34">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34">
         <v>105</v>
@@ -3243,7 +3246,7 @@
         <v>270</v>
       </c>
       <c r="I35">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J35">
         <v>696</v>
@@ -3455,7 +3458,7 @@
         <v>135</v>
       </c>
       <c r="C39">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39">
         <v>119</v>
@@ -3579,7 +3582,7 @@
         <v>349</v>
       </c>
       <c r="I41">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J41">
         <v>781</v>
@@ -3694,7 +3697,7 @@
         <v>343</v>
       </c>
       <c r="I43">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J43">
         <v>769</v>
@@ -3741,7 +3744,7 @@
         <v>151</v>
       </c>
       <c r="C44">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44">
         <v>127</v>
@@ -3800,7 +3803,7 @@
         <v>141</v>
       </c>
       <c r="C45">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>151</v>
@@ -3859,7 +3862,7 @@
         <v>161</v>
       </c>
       <c r="C46">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D46">
         <v>115</v>
@@ -3918,7 +3921,7 @@
         <v>154</v>
       </c>
       <c r="C47">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47">
         <v>162</v>
@@ -4178,7 +4181,7 @@
         <v>469</v>
       </c>
       <c r="I51">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J51">
         <v>996</v>
@@ -4228,7 +4231,7 @@
         <v>186</v>
       </c>
       <c r="C52">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D52">
         <v>184</v>
@@ -4290,7 +4293,7 @@
         <v>191</v>
       </c>
       <c r="C53">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53">
         <v>168</v>
@@ -4476,7 +4479,7 @@
         <v>172</v>
       </c>
       <c r="C56">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D56">
         <v>167</v>
@@ -4538,7 +4541,7 @@
         <v>170</v>
       </c>
       <c r="C57">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57">
         <v>170</v>
@@ -4600,7 +4603,7 @@
         <v>186</v>
       </c>
       <c r="C58">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>149</v>
@@ -4662,7 +4665,7 @@
         <v>179</v>
       </c>
       <c r="C59">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59">
         <v>182</v>
@@ -4972,7 +4975,7 @@
         <v>232</v>
       </c>
       <c r="C64">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D64">
         <v>199</v>
@@ -4984,7 +4987,7 @@
         <v>573</v>
       </c>
       <c r="I64">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J64">
         <v>1366</v>
@@ -5046,7 +5049,7 @@
         <v>586</v>
       </c>
       <c r="I65">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J65">
         <v>1431</v>
@@ -5096,7 +5099,7 @@
         <v>204</v>
       </c>
       <c r="C66">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66">
         <v>204</v>
@@ -5158,7 +5161,7 @@
         <v>224</v>
       </c>
       <c r="C67">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67">
         <v>166</v>
@@ -5220,7 +5223,7 @@
         <v>200</v>
       </c>
       <c r="C68">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D68">
         <v>152</v>
@@ -5344,7 +5347,7 @@
         <v>224</v>
       </c>
       <c r="C70">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D70">
         <v>178</v>
@@ -5530,7 +5533,7 @@
         <v>284</v>
       </c>
       <c r="C73">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D73">
         <v>200</v>
@@ -5604,7 +5607,7 @@
         <v>731</v>
       </c>
       <c r="I74">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J74">
         <v>1723</v>
@@ -5716,7 +5719,7 @@
         <v>313</v>
       </c>
       <c r="C76">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D76">
         <v>363</v>
@@ -5961,7 +5964,7 @@
         <v>274</v>
       </c>
       <c r="C80">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D80">
         <v>206</v>
@@ -6079,7 +6082,7 @@
         <v>291</v>
       </c>
       <c r="C82">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82">
         <v>220</v>
@@ -6138,7 +6141,7 @@
         <v>314</v>
       </c>
       <c r="C83">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D83">
         <v>256</v>
@@ -6256,7 +6259,7 @@
         <v>368</v>
       </c>
       <c r="C85">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D85">
         <v>379</v>
@@ -6315,7 +6318,7 @@
         <v>375</v>
       </c>
       <c r="C86">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D86">
         <v>337</v>
@@ -6386,7 +6389,7 @@
         <v>1014</v>
       </c>
       <c r="I87">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J87">
         <v>2569</v>
@@ -6433,7 +6436,7 @@
         <v>376</v>
       </c>
       <c r="C88">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D88">
         <v>694</v>
@@ -6492,7 +6495,7 @@
         <v>406</v>
       </c>
       <c r="C89">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D89">
         <v>461</v>
@@ -6551,7 +6554,7 @@
         <v>397</v>
       </c>
       <c r="C90">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D90">
         <v>401</v>
@@ -6610,7 +6613,7 @@
         <v>377</v>
       </c>
       <c r="C91">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D91">
         <v>297</v>
@@ -6669,7 +6672,7 @@
         <v>388</v>
       </c>
       <c r="C92">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D92">
         <v>456</v>
@@ -6681,7 +6684,7 @@
         <v>1103</v>
       </c>
       <c r="I92">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="J92">
         <v>2812</v>
@@ -6846,7 +6849,7 @@
         <v>404</v>
       </c>
       <c r="C95">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D95">
         <v>251</v>
@@ -6905,7 +6908,7 @@
         <v>396</v>
       </c>
       <c r="C96">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D96">
         <v>262</v>
@@ -6964,7 +6967,7 @@
         <v>480</v>
       </c>
       <c r="C97">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D97">
         <v>898</v>
@@ -7023,7 +7026,7 @@
         <v>491</v>
       </c>
       <c r="C98">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D98">
         <v>913</v>
@@ -7082,7 +7085,7 @@
         <v>494</v>
       </c>
       <c r="C99">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D99">
         <v>925</v>
@@ -7141,7 +7144,7 @@
         <v>457</v>
       </c>
       <c r="C100">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D100">
         <v>929</v>
@@ -7200,7 +7203,7 @@
         <v>496</v>
       </c>
       <c r="C101">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D101">
         <v>970</v>
@@ -7212,7 +7215,7 @@
         <v>1553</v>
       </c>
       <c r="I101">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J101">
         <v>3374</v>
@@ -7259,7 +7262,7 @@
         <v>458</v>
       </c>
       <c r="C102">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D102">
         <v>907</v>
@@ -7271,7 +7274,7 @@
         <v>1455</v>
       </c>
       <c r="I102">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J102">
         <v>3550</v>
@@ -7318,7 +7321,7 @@
         <v>453</v>
       </c>
       <c r="C103">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D103">
         <v>878</v>
@@ -7377,7 +7380,7 @@
         <v>495</v>
       </c>
       <c r="C104">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D104">
         <v>857</v>
@@ -7495,7 +7498,7 @@
         <v>451</v>
       </c>
       <c r="C106">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D106">
         <v>865</v>
@@ -7554,7 +7557,7 @@
         <v>500</v>
       </c>
       <c r="C107">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D107">
         <v>860</v>
@@ -7613,7 +7616,7 @@
         <v>466</v>
       </c>
       <c r="C108">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D108">
         <v>914</v>
@@ -7672,7 +7675,7 @@
         <v>581</v>
       </c>
       <c r="C109">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D109">
         <v>1086</v>
@@ -7731,7 +7734,7 @@
         <v>547</v>
       </c>
       <c r="C110">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D110">
         <v>1090</v>
@@ -7790,7 +7793,7 @@
         <v>547</v>
       </c>
       <c r="C111">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D111">
         <v>1037</v>
@@ -7849,7 +7852,7 @@
         <v>581</v>
       </c>
       <c r="C112">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D112">
         <v>1028</v>
@@ -7908,7 +7911,7 @@
         <v>572</v>
       </c>
       <c r="C113">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D113">
         <v>1059</v>
@@ -8026,7 +8029,7 @@
         <v>523</v>
       </c>
       <c r="C115">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D115">
         <v>1037</v>
@@ -8085,7 +8088,7 @@
         <v>549</v>
       </c>
       <c r="C116">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D116">
         <v>1021</v>
@@ -8203,7 +8206,7 @@
         <v>557</v>
       </c>
       <c r="C118">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D118">
         <v>1043</v>
@@ -8262,7 +8265,7 @@
         <v>545</v>
       </c>
       <c r="C119">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D119">
         <v>1082</v>
@@ -8333,7 +8336,7 @@
         <v>1890</v>
       </c>
       <c r="I120">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="J120">
         <v>4763</v>
@@ -8451,7 +8454,7 @@
         <v>2078</v>
       </c>
       <c r="I122">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="J122">
         <v>4914</v>
@@ -8498,7 +8501,7 @@
         <v>625</v>
       </c>
       <c r="C123">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D123">
         <v>1264</v>
@@ -8557,7 +8560,7 @@
         <v>652</v>
       </c>
       <c r="C124">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D124">
         <v>1168</v>
@@ -8616,7 +8619,7 @@
         <v>669</v>
       </c>
       <c r="C125">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D125">
         <v>1215</v>
@@ -8675,7 +8678,7 @@
         <v>609</v>
       </c>
       <c r="C126">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D126">
         <v>1206</v>
@@ -8734,7 +8737,7 @@
         <v>656</v>
       </c>
       <c r="C127">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D127">
         <v>1183</v>
@@ -8793,7 +8796,7 @@
         <v>610</v>
       </c>
       <c r="C128">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D128">
         <v>1222</v>
@@ -8852,7 +8855,7 @@
         <v>598</v>
       </c>
       <c r="C129">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D129">
         <v>1215</v>
@@ -8970,7 +8973,7 @@
         <v>641</v>
       </c>
       <c r="C131">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D131">
         <v>1311</v>
@@ -8982,7 +8985,7 @@
         <v>2112</v>
       </c>
       <c r="I131">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="J131">
         <v>6015</v>
@@ -9029,7 +9032,7 @@
         <v>646</v>
       </c>
       <c r="C132">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D132">
         <v>1308</v>
@@ -9088,7 +9091,7 @@
         <v>783</v>
       </c>
       <c r="C133">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D133">
         <v>1439</v>
@@ -9147,7 +9150,7 @@
         <v>708</v>
       </c>
       <c r="C134">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D134">
         <v>1441</v>
@@ -9218,7 +9221,7 @@
         <v>2443</v>
       </c>
       <c r="I135">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="J135">
         <v>6719</v>
@@ -9336,7 +9339,7 @@
         <v>2527</v>
       </c>
       <c r="I137">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="J137">
         <v>7024</v>
@@ -9383,7 +9386,7 @@
         <v>760</v>
       </c>
       <c r="C138">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D138">
         <v>1425</v>
@@ -9442,7 +9445,7 @@
         <v>755</v>
       </c>
       <c r="C139">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D139">
         <v>1442</v>
@@ -9454,7 +9457,7 @@
         <v>2492</v>
       </c>
       <c r="I139">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="J139">
         <v>7455</v>
@@ -9501,7 +9504,7 @@
         <v>685</v>
       </c>
       <c r="C140">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D140">
         <v>1365</v>
@@ -9560,7 +9563,7 @@
         <v>737</v>
       </c>
       <c r="C141">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D141">
         <v>1375</v>
@@ -9619,7 +9622,7 @@
         <v>711</v>
       </c>
       <c r="C142">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D142">
         <v>1469</v>
@@ -9631,7 +9634,7 @@
         <v>2470</v>
       </c>
       <c r="I142">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="J142">
         <v>7610</v>
@@ -9678,7 +9681,7 @@
         <v>768</v>
       </c>
       <c r="C143">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D143">
         <v>1403</v>
@@ -9737,7 +9740,7 @@
         <v>780</v>
       </c>
       <c r="C144">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D144">
         <v>1475</v>
@@ -9749,7 +9752,7 @@
         <v>2499</v>
       </c>
       <c r="I144">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="J144">
         <v>7868</v>
@@ -9796,7 +9799,7 @@
         <v>857</v>
       </c>
       <c r="C145">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D145">
         <v>1687</v>
@@ -9855,7 +9858,7 @@
         <v>851</v>
       </c>
       <c r="C146">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D146">
         <v>1626</v>
@@ -9973,7 +9976,7 @@
         <v>809</v>
       </c>
       <c r="C148">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D148">
         <v>1781</v>
@@ -10032,7 +10035,7 @@
         <v>824</v>
       </c>
       <c r="C149">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D149">
         <v>1760</v>
@@ -10044,7 +10047,7 @@
         <v>2942</v>
       </c>
       <c r="I149">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="J149">
         <v>8474</v>
@@ -10091,7 +10094,7 @@
         <v>847</v>
       </c>
       <c r="C150">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D150">
         <v>1824</v>
@@ -10150,7 +10153,7 @@
         <v>834</v>
       </c>
       <c r="C151">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D151">
         <v>1816</v>
@@ -10162,7 +10165,7 @@
         <v>2991</v>
       </c>
       <c r="I151">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="J151">
         <v>8756</v>
@@ -10209,7 +10212,7 @@
         <v>798</v>
       </c>
       <c r="C152">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="D152">
         <v>1767</v>
@@ -10268,7 +10271,7 @@
         <v>847</v>
       </c>
       <c r="C153">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D153">
         <v>1759</v>
@@ -10327,7 +10330,7 @@
         <v>812</v>
       </c>
       <c r="C154">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D154">
         <v>1879</v>
@@ -10339,7 +10342,7 @@
         <v>3001</v>
       </c>
       <c r="I154">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="J154">
         <v>9322</v>
@@ -10386,7 +10389,7 @@
         <v>870</v>
       </c>
       <c r="C155">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D155">
         <v>1736</v>
@@ -10445,7 +10448,7 @@
         <v>892</v>
       </c>
       <c r="C156">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D156">
         <v>1778</v>
@@ -10504,7 +10507,7 @@
         <v>982</v>
       </c>
       <c r="C157">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D157">
         <v>1980</v>
@@ -10516,7 +10519,7 @@
         <v>3334</v>
       </c>
       <c r="I157">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="J157">
         <v>9814</v>
@@ -10563,7 +10566,7 @@
         <v>961</v>
       </c>
       <c r="C158">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D158">
         <v>1938</v>
@@ -10634,7 +10637,7 @@
         <v>3120</v>
       </c>
       <c r="I159">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="J159">
         <v>10447</v>
@@ -10681,7 +10684,7 @@
         <v>896</v>
       </c>
       <c r="C160">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D160">
         <v>1861</v>
@@ -10740,7 +10743,7 @@
         <v>958</v>
       </c>
       <c r="C161">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D161">
         <v>1875</v>
@@ -10752,7 +10755,7 @@
         <v>3299</v>
       </c>
       <c r="I161">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="J161">
         <v>10610</v>
@@ -10799,7 +10802,7 @@
         <v>941</v>
       </c>
       <c r="C162">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D162">
         <v>1921</v>
@@ -10811,7 +10814,7 @@
         <v>3203</v>
       </c>
       <c r="I162">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="J162">
         <v>10910</v>
@@ -10858,7 +10861,7 @@
         <v>900</v>
       </c>
       <c r="C163">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D163">
         <v>1879</v>
@@ -10870,7 +10873,7 @@
         <v>3171</v>
       </c>
       <c r="I163">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="J163">
         <v>10968</v>
@@ -10917,7 +10920,7 @@
         <v>898</v>
       </c>
       <c r="C164">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="D164">
         <v>1671</v>
@@ -10976,7 +10979,7 @@
         <v>840</v>
       </c>
       <c r="C165">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D165">
         <v>1705</v>
@@ -10988,7 +10991,7 @@
         <v>2932</v>
       </c>
       <c r="I165">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="J165">
         <v>11589</v>
@@ -11035,7 +11038,7 @@
         <v>825</v>
       </c>
       <c r="C166">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D166">
         <v>1578</v>
@@ -11094,7 +11097,7 @@
         <v>865</v>
       </c>
       <c r="C167">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D167">
         <v>1565</v>
@@ -11153,7 +11156,7 @@
         <v>831</v>
       </c>
       <c r="C168">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D168">
         <v>1616</v>
@@ -11212,7 +11215,7 @@
         <v>973</v>
       </c>
       <c r="C169">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D169">
         <v>1820</v>
@@ -11271,7 +11274,7 @@
         <v>931</v>
       </c>
       <c r="C170">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D170">
         <v>1773</v>
@@ -11283,7 +11286,7 @@
         <v>3081</v>
       </c>
       <c r="I170">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="J170">
         <v>11540</v>
@@ -11342,7 +11345,7 @@
         <v>3163</v>
       </c>
       <c r="I171">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="J171">
         <v>11578</v>
@@ -11389,7 +11392,7 @@
         <v>896</v>
       </c>
       <c r="C172">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D172">
         <v>1778</v>
@@ -11448,7 +11451,7 @@
         <v>924</v>
       </c>
       <c r="C173">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D173">
         <v>1793</v>
@@ -11460,7 +11463,7 @@
         <v>3172</v>
       </c>
       <c r="I173">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="J173">
         <v>11931</v>
@@ -11507,7 +11510,7 @@
         <v>894</v>
       </c>
       <c r="C174">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D174">
         <v>1881</v>
@@ -11566,7 +11569,7 @@
         <v>884</v>
       </c>
       <c r="C175">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D175">
         <v>1990</v>
@@ -11578,7 +11581,7 @@
         <v>3343</v>
       </c>
       <c r="I175">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="J175">
         <v>12368</v>
@@ -11625,7 +11628,7 @@
         <v>908</v>
       </c>
       <c r="C176">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="D176">
         <v>1708</v>
@@ -11637,7 +11640,7 @@
         <v>3084</v>
       </c>
       <c r="I176">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="J176">
         <v>12546</v>
@@ -11684,7 +11687,7 @@
         <v>868</v>
       </c>
       <c r="C177">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D177">
         <v>1873</v>
@@ -11743,7 +11746,7 @@
         <v>886</v>
       </c>
       <c r="C178">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D178">
         <v>1806</v>
@@ -11802,7 +11805,7 @@
         <v>956</v>
       </c>
       <c r="C179">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D179">
         <v>1751</v>
@@ -11988,7 +11991,7 @@
         <v>1028</v>
       </c>
       <c r="C182">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D182">
         <v>2156</v>
@@ -12062,7 +12065,7 @@
         <v>991</v>
       </c>
       <c r="C183">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D183">
         <v>2064</v>
@@ -12074,7 +12077,7 @@
         <v>3533</v>
       </c>
       <c r="I183">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="J183">
         <v>12535</v>
@@ -12136,7 +12139,7 @@
         <v>1018</v>
       </c>
       <c r="C184">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="D184">
         <v>1929</v>
@@ -12148,7 +12151,7 @@
         <v>3449</v>
       </c>
       <c r="I184">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="J184">
         <v>12863</v>
@@ -12210,7 +12213,7 @@
         <v>1022</v>
       </c>
       <c r="C185">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D185">
         <v>1975</v>
@@ -12222,7 +12225,7 @@
         <v>3548</v>
       </c>
       <c r="I185">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="J185">
         <v>13028</v>
@@ -12284,7 +12287,7 @@
         <v>965</v>
       </c>
       <c r="C186">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D186">
         <v>1987</v>
@@ -12358,7 +12361,7 @@
         <v>1005</v>
       </c>
       <c r="C187">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D187">
         <v>1947</v>
@@ -12370,7 +12373,7 @@
         <v>3412</v>
       </c>
       <c r="I187">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="J187">
         <v>13357</v>
@@ -12432,7 +12435,7 @@
         <v>948</v>
       </c>
       <c r="C188">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D188">
         <v>1930</v>
@@ -12506,7 +12509,7 @@
         <v>930</v>
       </c>
       <c r="C189">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D189">
         <v>1878</v>
@@ -12518,7 +12521,7 @@
         <v>3323</v>
       </c>
       <c r="I189">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="J189">
         <v>13173</v>
@@ -12654,7 +12657,7 @@
         <v>964</v>
       </c>
       <c r="C191">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D191">
         <v>1967</v>
@@ -12728,7 +12731,7 @@
         <v>969</v>
       </c>
       <c r="C192">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D192">
         <v>1940</v>
@@ -12802,7 +12805,7 @@
         <v>1127</v>
       </c>
       <c r="C193">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D193">
         <v>2371</v>
@@ -12814,7 +12817,7 @@
         <v>4145</v>
       </c>
       <c r="I193">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="J193">
         <v>13861</v>
@@ -12876,7 +12879,7 @@
         <v>1014</v>
       </c>
       <c r="C194">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D194">
         <v>2145</v>
@@ -12962,7 +12965,7 @@
         <v>3706</v>
       </c>
       <c r="I195">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="J195">
         <v>13830</v>
@@ -13024,7 +13027,7 @@
         <v>1075</v>
       </c>
       <c r="C196">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="D196">
         <v>2335</v>
@@ -13098,7 +13101,7 @@
         <v>1047</v>
       </c>
       <c r="C197">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D197">
         <v>2354</v>
@@ -13172,7 +13175,7 @@
         <v>1037</v>
       </c>
       <c r="C198">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D198">
         <v>2249</v>
@@ -13246,7 +13249,7 @@
         <v>1084</v>
       </c>
       <c r="C199">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D199">
         <v>2471</v>
@@ -13258,7 +13261,7 @@
         <v>4179</v>
       </c>
       <c r="I199">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="J199">
         <v>14085</v>
@@ -13394,7 +13397,7 @@
         <v>1069</v>
       </c>
       <c r="C201">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D201">
         <v>2125</v>
@@ -13468,7 +13471,7 @@
         <v>1070</v>
       </c>
       <c r="C202">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D202">
         <v>2280</v>
@@ -13480,7 +13483,7 @@
         <v>3813</v>
       </c>
       <c r="I202">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="J202">
         <v>14053</v>
@@ -13554,7 +13557,7 @@
         <v>3885</v>
       </c>
       <c r="I203">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="J203">
         <v>14092</v>
@@ -13690,7 +13693,7 @@
         <v>1231</v>
       </c>
       <c r="C205">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D205">
         <v>2666</v>
@@ -13764,7 +13767,7 @@
         <v>1116</v>
       </c>
       <c r="C206">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D206">
         <v>2472</v>
@@ -13912,7 +13915,7 @@
         <v>1187</v>
       </c>
       <c r="C208">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D208">
         <v>2458</v>
@@ -13924,7 +13927,7 @@
         <v>4287</v>
       </c>
       <c r="I208">
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="J208">
         <v>14624</v>
@@ -13986,7 +13989,7 @@
         <v>1117</v>
       </c>
       <c r="C209">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D209">
         <v>2405</v>
@@ -13998,7 +14001,7 @@
         <v>4399</v>
       </c>
       <c r="I209">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="J209">
         <v>14565</v>
@@ -14060,7 +14063,7 @@
         <v>1183</v>
       </c>
       <c r="C210">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D210">
         <v>2577</v>
@@ -14072,7 +14075,7 @@
         <v>4405</v>
       </c>
       <c r="I210">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="J210">
         <v>14566</v>
@@ -14134,7 +14137,7 @@
         <v>1177</v>
       </c>
       <c r="C211">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D211">
         <v>2549</v>
@@ -14146,7 +14149,7 @@
         <v>4456</v>
       </c>
       <c r="I211">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="J211">
         <v>14611</v>
@@ -14208,7 +14211,7 @@
         <v>1117</v>
       </c>
       <c r="C212">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D212">
         <v>2557</v>
@@ -14282,7 +14285,7 @@
         <v>1188</v>
       </c>
       <c r="C213">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D213">
         <v>2538</v>
@@ -14356,7 +14359,7 @@
         <v>1163</v>
       </c>
       <c r="C214">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="D214">
         <v>2669</v>
@@ -14430,7 +14433,7 @@
         <v>1219</v>
       </c>
       <c r="C215">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D215">
         <v>2524</v>
@@ -14442,7 +14445,7 @@
         <v>4533</v>
       </c>
       <c r="I215">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="J215">
         <v>14838</v>
@@ -14504,7 +14507,7 @@
         <v>1230</v>
       </c>
       <c r="C216">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D216">
         <v>2538</v>
@@ -14516,7 +14519,7 @@
         <v>4661</v>
       </c>
       <c r="I216">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="J216">
         <v>14631</v>
@@ -14581,7 +14584,7 @@
         <v>1320</v>
       </c>
       <c r="C217">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D217">
         <v>2944</v>
@@ -14658,7 +14661,7 @@
         <v>1278</v>
       </c>
       <c r="C218">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="D218">
         <v>2892</v>
@@ -14670,7 +14673,7 @@
         <v>5129</v>
       </c>
       <c r="I218">
-        <v>4985</v>
+        <v>4984</v>
       </c>
       <c r="J218">
         <v>14501</v>
@@ -14735,7 +14738,7 @@
         <v>1286</v>
       </c>
       <c r="C219">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D219">
         <v>2872</v>
@@ -14812,7 +14815,7 @@
         <v>1253</v>
       </c>
       <c r="C220">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D220">
         <v>3203</v>
@@ -14966,7 +14969,7 @@
         <v>1289</v>
       </c>
       <c r="C222">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D222">
         <v>3063</v>
@@ -15043,7 +15046,7 @@
         <v>1246</v>
       </c>
       <c r="C223">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="D223">
         <v>3154</v>
@@ -15120,7 +15123,7 @@
         <v>1203</v>
       </c>
       <c r="C224">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="D224">
         <v>2867</v>
@@ -15132,7 +15135,7 @@
         <v>5074</v>
       </c>
       <c r="I224">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="J224">
         <v>13782</v>
@@ -15197,7 +15200,7 @@
         <v>1236</v>
       </c>
       <c r="C225">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D225">
         <v>2810</v>
@@ -15286,7 +15289,7 @@
         <v>5222</v>
       </c>
       <c r="I226">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="J226">
         <v>13861</v>
@@ -15351,7 +15354,7 @@
         <v>1274</v>
       </c>
       <c r="C227">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="D227">
         <v>2867</v>
@@ -15363,7 +15366,7 @@
         <v>5178</v>
       </c>
       <c r="I227">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="J227">
         <v>13905</v>
@@ -15428,7 +15431,7 @@
         <v>1292</v>
       </c>
       <c r="C228">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D228">
         <v>2907</v>
@@ -15440,7 +15443,7 @@
         <v>5373</v>
       </c>
       <c r="I228">
-        <v>5515</v>
+        <v>5516</v>
       </c>
       <c r="J228">
         <v>13649</v>
@@ -15505,7 +15508,7 @@
         <v>1407</v>
       </c>
       <c r="C229">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D229">
         <v>3291</v>
@@ -15517,7 +15520,7 @@
         <v>5792</v>
       </c>
       <c r="I229">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="J229">
         <v>14008</v>
@@ -15659,7 +15662,7 @@
         <v>1370</v>
       </c>
       <c r="C231">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D231">
         <v>3262</v>
@@ -15671,7 +15674,7 @@
         <v>5875</v>
       </c>
       <c r="I231">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="J231">
         <v>14443</v>
@@ -15736,7 +15739,7 @@
         <v>1327</v>
       </c>
       <c r="C232">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="D232">
         <v>3335</v>
@@ -15748,7 +15751,7 @@
         <v>5970</v>
       </c>
       <c r="I232">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="J232">
         <v>14728</v>
@@ -15813,7 +15816,7 @@
         <v>1396</v>
       </c>
       <c r="C233">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D233">
         <v>3502</v>
@@ -15890,7 +15893,7 @@
         <v>1390</v>
       </c>
       <c r="C234">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D234">
         <v>3639</v>
@@ -15967,7 +15970,7 @@
         <v>1354</v>
       </c>
       <c r="C235">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D235">
         <v>3783</v>
@@ -15979,7 +15982,7 @@
         <v>6480</v>
       </c>
       <c r="I235">
-        <v>6433</v>
+        <v>6435</v>
       </c>
       <c r="J235">
         <v>14978</v>
@@ -16044,7 +16047,7 @@
         <v>1397</v>
       </c>
       <c r="C236">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D236">
         <v>3464</v>
@@ -16056,7 +16059,7 @@
         <v>6497</v>
       </c>
       <c r="I236">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="J236">
         <v>15673</v>
@@ -16121,7 +16124,7 @@
         <v>1348</v>
       </c>
       <c r="C237">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D237">
         <v>3431</v>
@@ -16198,7 +16201,7 @@
         <v>1373</v>
       </c>
       <c r="C238">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="D238">
         <v>3417</v>
@@ -16275,7 +16278,7 @@
         <v>1463</v>
       </c>
       <c r="C239">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D239">
         <v>3616</v>
@@ -16287,7 +16290,7 @@
         <v>6794</v>
       </c>
       <c r="I239">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="J239">
         <v>16713</v>
@@ -16352,7 +16355,7 @@
         <v>1433</v>
       </c>
       <c r="C240">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D240">
         <v>3536</v>
@@ -16429,7 +16432,7 @@
         <v>1627</v>
       </c>
       <c r="C241">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="D241">
         <v>3886</v>
@@ -16441,7 +16444,7 @@
         <v>7149</v>
       </c>
       <c r="I241">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="J241">
         <v>17229</v>
@@ -16506,7 +16509,7 @@
         <v>1551</v>
       </c>
       <c r="C242">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D242">
         <v>4019</v>
@@ -16583,7 +16586,7 @@
         <v>1541</v>
       </c>
       <c r="C243">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D243">
         <v>3936</v>
@@ -16660,7 +16663,7 @@
         <v>1534</v>
       </c>
       <c r="C244">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="D244">
         <v>4088</v>
@@ -16737,7 +16740,7 @@
         <v>1592</v>
       </c>
       <c r="C245">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D245">
         <v>4153</v>
@@ -16749,7 +16752,7 @@
         <v>7752</v>
       </c>
       <c r="I245">
-        <v>7352</v>
+        <v>7351</v>
       </c>
       <c r="J245">
         <v>18857</v>
@@ -16814,7 +16817,7 @@
         <v>1598</v>
       </c>
       <c r="C246">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="D246">
         <v>4135</v>
@@ -16826,7 +16829,7 @@
         <v>7294</v>
       </c>
       <c r="I246">
-        <v>7232</v>
+        <v>7234</v>
       </c>
       <c r="J246">
         <v>19516</v>
@@ -16891,7 +16894,7 @@
         <v>1572</v>
       </c>
       <c r="C247">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D247">
         <v>4032</v>
@@ -16968,7 +16971,7 @@
         <v>1613</v>
       </c>
       <c r="C248">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="D248">
         <v>3911</v>
@@ -16980,7 +16983,7 @@
         <v>7236</v>
       </c>
       <c r="I248">
-        <v>7341</v>
+        <v>7342</v>
       </c>
       <c r="J248">
         <v>20274</v>
@@ -17045,7 +17048,7 @@
         <v>1560</v>
       </c>
       <c r="C249">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D249">
         <v>3898</v>
@@ -17057,7 +17060,7 @@
         <v>7056</v>
       </c>
       <c r="I249">
-        <v>7325</v>
+        <v>7326</v>
       </c>
       <c r="J249">
         <v>20036</v>
@@ -17122,7 +17125,7 @@
         <v>1659</v>
       </c>
       <c r="C250">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="D250">
         <v>3865</v>
@@ -17199,7 +17202,7 @@
         <v>1667</v>
       </c>
       <c r="C251">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="D251">
         <v>3774</v>
@@ -17211,7 +17214,7 @@
         <v>7272</v>
       </c>
       <c r="I251">
-        <v>7499</v>
+        <v>7497</v>
       </c>
       <c r="J251">
         <v>21163</v>
@@ -17288,7 +17291,7 @@
         <v>7349</v>
       </c>
       <c r="I252">
-        <v>7570</v>
+        <v>7571</v>
       </c>
       <c r="J252">
         <v>21571</v>
@@ -17365,7 +17368,7 @@
         <v>7914</v>
       </c>
       <c r="I253">
-        <v>7647</v>
+        <v>7648</v>
       </c>
       <c r="J253">
         <v>23040</v>
@@ -17430,7 +17433,7 @@
         <v>1748</v>
       </c>
       <c r="C254">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D254">
         <v>4547</v>
@@ -17522,7 +17525,7 @@
         <v>1742</v>
       </c>
       <c r="C255">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D255">
         <v>4522</v>
@@ -17614,7 +17617,7 @@
         <v>1814</v>
       </c>
       <c r="C256">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="D256">
         <v>4539</v>
@@ -17706,7 +17709,7 @@
         <v>1819</v>
       </c>
       <c r="C257">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="D257">
         <v>4797</v>
@@ -17718,7 +17721,7 @@
         <v>8377</v>
       </c>
       <c r="I257">
-        <v>7933</v>
+        <v>7932</v>
       </c>
       <c r="J257">
         <v>24462</v>
@@ -17798,7 +17801,7 @@
         <v>1788</v>
       </c>
       <c r="C258">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="D258">
         <v>4759</v>
@@ -17810,7 +17813,7 @@
         <v>8071</v>
       </c>
       <c r="I258">
-        <v>8033</v>
+        <v>8034</v>
       </c>
       <c r="J258">
         <v>24982</v>
@@ -17982,7 +17985,7 @@
         <v>1807</v>
       </c>
       <c r="C260">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="D260">
         <v>4591</v>
@@ -17994,7 +17997,7 @@
         <v>8193</v>
       </c>
       <c r="I260">
-        <v>8299</v>
+        <v>8298</v>
       </c>
       <c r="J260">
         <v>25290</v>
@@ -18074,7 +18077,7 @@
         <v>1769</v>
       </c>
       <c r="C261">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="D261">
         <v>4564</v>
@@ -18086,7 +18089,7 @@
         <v>8070</v>
       </c>
       <c r="I261">
-        <v>8331</v>
+        <v>8330</v>
       </c>
       <c r="J261">
         <v>25841</v>
@@ -18166,7 +18169,7 @@
         <v>1864</v>
       </c>
       <c r="C262">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="D262">
         <v>4647</v>
@@ -18258,7 +18261,7 @@
         <v>1856</v>
       </c>
       <c r="C263">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D263">
         <v>4498</v>
@@ -18270,7 +18273,7 @@
         <v>7965</v>
       </c>
       <c r="I263">
-        <v>8260</v>
+        <v>8259</v>
       </c>
       <c r="J263">
         <v>26507</v>
@@ -18350,7 +18353,7 @@
         <v>1870</v>
       </c>
       <c r="C264">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="D264">
         <v>4665</v>
@@ -18362,7 +18365,7 @@
         <v>8425</v>
       </c>
       <c r="I264">
-        <v>8640</v>
+        <v>8639</v>
       </c>
       <c r="J264">
         <v>27015</v>
@@ -18442,7 +18445,7 @@
         <v>2149</v>
       </c>
       <c r="C265">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D265">
         <v>5161</v>
@@ -18454,7 +18457,7 @@
         <v>9221</v>
       </c>
       <c r="I265">
-        <v>8910</v>
+        <v>8912</v>
       </c>
       <c r="J265">
         <v>27764</v>
@@ -18534,7 +18537,7 @@
         <v>1989</v>
       </c>
       <c r="C266">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="D266">
         <v>5189</v>
@@ -18718,7 +18721,7 @@
         <v>2068</v>
       </c>
       <c r="C268">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="D268">
         <v>5413</v>
@@ -18730,7 +18733,7 @@
         <v>9359</v>
       </c>
       <c r="I268">
-        <v>9321</v>
+        <v>9320</v>
       </c>
       <c r="J268">
         <v>29351</v>
@@ -18810,7 +18813,7 @@
         <v>2057</v>
       </c>
       <c r="C269">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="D269">
         <v>5512</v>
@@ -18902,7 +18905,7 @@
         <v>2047</v>
       </c>
       <c r="C270">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="D270">
         <v>5463</v>
@@ -18994,7 +18997,7 @@
         <v>2115</v>
       </c>
       <c r="C271">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="D271">
         <v>5350</v>
@@ -19006,7 +19009,7 @@
         <v>9548</v>
       </c>
       <c r="I271">
-        <v>9453</v>
+        <v>9452</v>
       </c>
       <c r="J271">
         <v>30928</v>
@@ -19086,7 +19089,7 @@
         <v>2025</v>
       </c>
       <c r="C272">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D272">
         <v>5444</v>
@@ -19098,7 +19101,7 @@
         <v>9486</v>
       </c>
       <c r="I272">
-        <v>9656</v>
+        <v>9657</v>
       </c>
       <c r="J272">
         <v>31217</v>
@@ -19178,7 +19181,7 @@
         <v>2091</v>
       </c>
       <c r="C273">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="D273">
         <v>5372</v>
@@ -19270,7 +19273,7 @@
         <v>2104</v>
       </c>
       <c r="C274">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="D274">
         <v>5423</v>
@@ -19282,7 +19285,7 @@
         <v>9744</v>
       </c>
       <c r="I274">
-        <v>9845</v>
+        <v>9844</v>
       </c>
       <c r="J274">
         <v>31750</v>
@@ -19362,7 +19365,7 @@
         <v>2099</v>
       </c>
       <c r="C275">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="D275">
         <v>5280</v>
@@ -19374,7 +19377,7 @@
         <v>9590</v>
       </c>
       <c r="I275">
-        <v>9980</v>
+        <v>9979</v>
       </c>
       <c r="J275">
         <v>32634</v>
@@ -19466,7 +19469,7 @@
         <v>9985</v>
       </c>
       <c r="I276">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="J276">
         <v>33809</v>
@@ -19546,7 +19549,7 @@
         <v>2429</v>
       </c>
       <c r="C277">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="D277">
         <v>6101</v>
@@ -19558,7 +19561,7 @@
         <v>10797</v>
       </c>
       <c r="I277">
-        <v>10381</v>
+        <v>10383</v>
       </c>
       <c r="J277">
         <v>34802</v>
@@ -19638,7 +19641,7 @@
         <v>2254</v>
       </c>
       <c r="C278">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="D278">
         <v>6128</v>
@@ -19656,7 +19659,7 @@
         <v>10613</v>
       </c>
       <c r="I278">
-        <v>10459</v>
+        <v>10457</v>
       </c>
       <c r="J278">
         <v>35412</v>
@@ -19751,7 +19754,7 @@
         <v>2340</v>
       </c>
       <c r="C279">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="D279">
         <v>5935</v>
@@ -19769,7 +19772,7 @@
         <v>10387</v>
       </c>
       <c r="I279">
-        <v>10657</v>
+        <v>10659</v>
       </c>
       <c r="J279">
         <v>35658</v>
@@ -19864,7 +19867,7 @@
         <v>2309</v>
       </c>
       <c r="C280">
-        <v>2309</v>
+        <v>2298</v>
       </c>
       <c r="D280">
         <v>6080</v>
@@ -19977,7 +19980,7 @@
         <v>2302</v>
       </c>
       <c r="C281">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="D281">
         <v>6020</v>
@@ -20090,7 +20093,7 @@
         <v>2392</v>
       </c>
       <c r="C282">
-        <v>2347</v>
+        <v>2353</v>
       </c>
       <c r="D282">
         <v>6297</v>
@@ -20108,7 +20111,7 @@
         <v>10975</v>
       </c>
       <c r="I282">
-        <v>10637</v>
+        <v>10636</v>
       </c>
       <c r="J282">
         <v>36944</v>
@@ -20203,7 +20206,7 @@
         <v>2350</v>
       </c>
       <c r="C283">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="D283">
         <v>6411</v>
@@ -20316,7 +20319,7 @@
         <v>2277</v>
       </c>
       <c r="C284">
-        <v>2351</v>
+        <v>2358</v>
       </c>
       <c r="D284">
         <v>5940</v>
@@ -20334,7 +20337,7 @@
         <v>10525</v>
       </c>
       <c r="I284">
-        <v>11083</v>
+        <v>11081</v>
       </c>
       <c r="J284">
         <v>37326</v>
@@ -20429,7 +20432,7 @@
         <v>2326</v>
       </c>
       <c r="C285">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="D285">
         <v>5969</v>
@@ -20542,7 +20545,7 @@
         <v>2316</v>
       </c>
       <c r="C286">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="D286">
         <v>6328</v>
@@ -20655,7 +20658,7 @@
         <v>2441</v>
       </c>
       <c r="C287">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="D287">
         <v>6101</v>
@@ -20673,7 +20676,7 @@
         <v>10669</v>
       </c>
       <c r="I287">
-        <v>11054</v>
+        <v>11053</v>
       </c>
       <c r="J287">
         <v>40117</v>
@@ -20768,7 +20771,7 @@
         <v>2452</v>
       </c>
       <c r="C288">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="D288">
         <v>6219</v>
@@ -20786,7 +20789,7 @@
         <v>10765</v>
       </c>
       <c r="I288">
-        <v>10988</v>
+        <v>10989</v>
       </c>
       <c r="J288">
         <v>40776</v>
@@ -20881,7 +20884,7 @@
         <v>2676</v>
       </c>
       <c r="C289">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D289">
         <v>6463</v>
@@ -20899,7 +20902,7 @@
         <v>11093</v>
       </c>
       <c r="I289">
-        <v>10862</v>
+        <v>10866</v>
       </c>
       <c r="J289">
         <v>41172</v>
@@ -21012,7 +21015,7 @@
         <v>10979</v>
       </c>
       <c r="I290">
-        <v>10765</v>
+        <v>10764</v>
       </c>
       <c r="J290">
         <v>41091</v>
@@ -21107,7 +21110,7 @@
         <v>2547</v>
       </c>
       <c r="C291">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D291">
         <v>6489</v>
@@ -21125,7 +21128,7 @@
         <v>10940</v>
       </c>
       <c r="I291">
-        <v>10992</v>
+        <v>10991</v>
       </c>
       <c r="J291">
         <v>40409</v>
@@ -21220,7 +21223,7 @@
         <v>2515</v>
       </c>
       <c r="C292">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="D292">
         <v>6739</v>
@@ -21333,7 +21336,7 @@
         <v>2600</v>
       </c>
       <c r="C293">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="D293">
         <v>6801</v>
@@ -21351,7 +21354,7 @@
         <v>11917</v>
       </c>
       <c r="I293">
-        <v>11521</v>
+        <v>11519</v>
       </c>
       <c r="J293">
         <v>39760</v>
@@ -21446,7 +21449,7 @@
         <v>2607</v>
       </c>
       <c r="C294">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D294">
         <v>7129</v>
@@ -21464,7 +21467,7 @@
         <v>12249</v>
       </c>
       <c r="I294">
-        <v>11839</v>
+        <v>11840</v>
       </c>
       <c r="J294">
         <v>38966</v>
@@ -21559,7 +21562,7 @@
         <v>2574</v>
       </c>
       <c r="C295">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="D295">
         <v>7277</v>
@@ -21577,7 +21580,7 @@
         <v>12150</v>
       </c>
       <c r="I295">
-        <v>12041</v>
+        <v>12042</v>
       </c>
       <c r="J295">
         <v>38937</v>
@@ -21672,7 +21675,7 @@
         <v>2582</v>
       </c>
       <c r="C296">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="D296">
         <v>7027</v>
@@ -21690,7 +21693,7 @@
         <v>11955</v>
       </c>
       <c r="I296">
-        <v>12214</v>
+        <v>12217</v>
       </c>
       <c r="J296">
         <v>39124</v>
@@ -21785,7 +21788,7 @@
         <v>2621</v>
       </c>
       <c r="C297">
-        <v>2702</v>
+        <v>2698</v>
       </c>
       <c r="D297">
         <v>7454</v>
@@ -21803,7 +21806,7 @@
         <v>12442</v>
       </c>
       <c r="I297">
-        <v>12688</v>
+        <v>12689</v>
       </c>
       <c r="J297">
         <v>38720</v>
@@ -21898,7 +21901,7 @@
         <v>2591</v>
       </c>
       <c r="C298">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="D298">
         <v>7480</v>
@@ -21916,7 +21919,7 @@
         <v>12740</v>
       </c>
       <c r="I298">
-        <v>13127</v>
+        <v>13128</v>
       </c>
       <c r="J298">
         <v>37833</v>
@@ -22011,7 +22014,7 @@
         <v>2700</v>
       </c>
       <c r="C299">
-        <v>2695</v>
+        <v>2701</v>
       </c>
       <c r="D299">
         <v>7504</v>
@@ -22029,7 +22032,7 @@
         <v>12802</v>
       </c>
       <c r="I299">
-        <v>13196</v>
+        <v>13195</v>
       </c>
       <c r="J299">
         <v>37599</v>
@@ -22124,7 +22127,7 @@
         <v>2690</v>
       </c>
       <c r="C300">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="D300">
         <v>7720</v>
@@ -22142,7 +22145,7 @@
         <v>13023</v>
       </c>
       <c r="I300">
-        <v>13311</v>
+        <v>13312</v>
       </c>
       <c r="J300">
         <v>36888</v>
@@ -22237,7 +22240,7 @@
         <v>2935</v>
       </c>
       <c r="C301">
-        <v>2755</v>
+        <v>2760</v>
       </c>
       <c r="D301">
         <v>8392</v>
@@ -22255,7 +22258,7 @@
         <v>14205</v>
       </c>
       <c r="I301">
-        <v>13876</v>
+        <v>13875</v>
       </c>
       <c r="J301">
         <v>37759</v>
@@ -22350,7 +22353,7 @@
         <v>2854</v>
       </c>
       <c r="C302">
-        <v>2812</v>
+        <v>2805</v>
       </c>
       <c r="D302">
         <v>8640</v>
@@ -22368,7 +22371,7 @@
         <v>14549</v>
       </c>
       <c r="I302">
-        <v>14282</v>
+        <v>14280</v>
       </c>
       <c r="J302">
         <v>37961</v>
@@ -22481,7 +22484,7 @@
         <v>14557</v>
       </c>
       <c r="I303">
-        <v>14621</v>
+        <v>14620</v>
       </c>
       <c r="J303">
         <v>38553</v>
@@ -22576,7 +22579,7 @@
         <v>2929</v>
       </c>
       <c r="C304">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="D304">
         <v>8713</v>
@@ -22689,7 +22692,7 @@
         <v>3068</v>
       </c>
       <c r="C305">
-        <v>3011</v>
+        <v>3016</v>
       </c>
       <c r="D305">
         <v>9312</v>
@@ -22707,7 +22710,7 @@
         <v>15711</v>
       </c>
       <c r="I305">
-        <v>15198</v>
+        <v>15191</v>
       </c>
       <c r="J305">
         <v>38583</v>
@@ -22802,7 +22805,7 @@
         <v>3096</v>
       </c>
       <c r="C306">
-        <v>3103</v>
+        <v>3111</v>
       </c>
       <c r="D306">
         <v>10011</v>
@@ -22820,7 +22823,7 @@
         <v>16220</v>
       </c>
       <c r="I306">
-        <v>15678</v>
+        <v>15677</v>
       </c>
       <c r="J306">
         <v>38917</v>
@@ -22915,7 +22918,7 @@
         <v>3043</v>
       </c>
       <c r="C307">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="D307">
         <v>9694</v>
@@ -22933,7 +22936,7 @@
         <v>15955</v>
       </c>
       <c r="I307">
-        <v>15821</v>
+        <v>15834</v>
       </c>
       <c r="J307">
         <v>38219</v>
@@ -23028,7 +23031,7 @@
         <v>3083</v>
       </c>
       <c r="C308">
-        <v>3158</v>
+        <v>3163</v>
       </c>
       <c r="D308">
         <v>9334</v>
@@ -23046,7 +23049,7 @@
         <v>15584</v>
       </c>
       <c r="I308">
-        <v>15921</v>
+        <v>15917</v>
       </c>
       <c r="J308">
         <v>38162</v>
@@ -23141,7 +23144,7 @@
         <v>3005</v>
       </c>
       <c r="C309">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="D309">
         <v>9363</v>
@@ -23254,7 +23257,7 @@
         <v>3052</v>
       </c>
       <c r="C310">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="D310">
         <v>9212</v>
@@ -23272,7 +23275,7 @@
         <v>15774</v>
       </c>
       <c r="I310">
-        <v>16151</v>
+        <v>16152</v>
       </c>
       <c r="J310">
         <v>38242</v>
@@ -23367,7 +23370,7 @@
         <v>3127</v>
       </c>
       <c r="C311">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="D311">
         <v>9338</v>
@@ -23385,7 +23388,7 @@
         <v>15868</v>
       </c>
       <c r="I311">
-        <v>16348</v>
+        <v>16350</v>
       </c>
       <c r="J311">
         <v>39254</v>
@@ -23480,7 +23483,7 @@
         <v>3092</v>
       </c>
       <c r="C312">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="D312">
         <v>9465</v>
@@ -23593,7 +23596,7 @@
         <v>3423</v>
       </c>
       <c r="C313">
-        <v>3171</v>
+        <v>3180</v>
       </c>
       <c r="D313">
         <v>10026</v>
@@ -23611,7 +23614,7 @@
         <v>16888</v>
       </c>
       <c r="I313">
-        <v>16380</v>
+        <v>16381</v>
       </c>
       <c r="J313">
         <v>40248</v>
@@ -23706,7 +23709,7 @@
         <v>3296</v>
       </c>
       <c r="C314">
-        <v>3271</v>
+        <v>3264</v>
       </c>
       <c r="D314">
         <v>10288</v>
@@ -23724,7 +23727,7 @@
         <v>16969</v>
       </c>
       <c r="I314">
-        <v>16667</v>
+        <v>16665</v>
       </c>
       <c r="J314">
         <v>40969</v>
@@ -23819,7 +23822,7 @@
         <v>3277</v>
       </c>
       <c r="C315">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="D315">
         <v>10281</v>
@@ -23837,7 +23840,7 @@
         <v>16665</v>
       </c>
       <c r="I315">
-        <v>16721</v>
+        <v>16719</v>
       </c>
       <c r="J315">
         <v>41035</v>
@@ -23932,7 +23935,7 @@
         <v>3205</v>
       </c>
       <c r="C316">
-        <v>3226</v>
+        <v>3237</v>
       </c>
       <c r="D316">
         <v>10226</v>
@@ -23950,7 +23953,7 @@
         <v>16806</v>
       </c>
       <c r="I316">
-        <v>16900</v>
+        <v>16898</v>
       </c>
       <c r="J316">
         <v>42109</v>
@@ -24045,7 +24048,7 @@
         <v>3335</v>
       </c>
       <c r="C317">
-        <v>3280</v>
+        <v>3276</v>
       </c>
       <c r="D317">
         <v>10439</v>
@@ -24063,7 +24066,7 @@
         <v>17499</v>
       </c>
       <c r="I317">
-        <v>16995</v>
+        <v>16981</v>
       </c>
       <c r="J317">
         <v>42930</v>
@@ -24158,7 +24161,7 @@
         <v>3330</v>
       </c>
       <c r="C318">
-        <v>3350</v>
+        <v>3366</v>
       </c>
       <c r="D318">
         <v>10620</v>
@@ -24176,7 +24179,7 @@
         <v>17341</v>
       </c>
       <c r="I318">
-        <v>16884</v>
+        <v>16883</v>
       </c>
       <c r="J318">
         <v>44374</v>
@@ -24271,7 +24274,7 @@
         <v>3307</v>
       </c>
       <c r="C319">
-        <v>3304</v>
+        <v>3312</v>
       </c>
       <c r="D319">
         <v>10489</v>
@@ -24289,7 +24292,7 @@
         <v>17425</v>
       </c>
       <c r="I319">
-        <v>17163</v>
+        <v>17190</v>
       </c>
       <c r="J319">
         <v>44742</v>
@@ -24384,7 +24387,7 @@
         <v>3355</v>
       </c>
       <c r="C320">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="D320">
         <v>10176</v>
@@ -24402,7 +24405,7 @@
         <v>16882</v>
       </c>
       <c r="I320">
-        <v>17188</v>
+        <v>17189</v>
       </c>
       <c r="J320">
         <v>46218</v>
@@ -24497,7 +24500,7 @@
         <v>3316</v>
       </c>
       <c r="C321">
-        <v>3420</v>
+        <v>3424</v>
       </c>
       <c r="D321">
         <v>10230</v>
@@ -24515,7 +24518,7 @@
         <v>16960</v>
       </c>
       <c r="I321">
-        <v>17513</v>
+        <v>17514</v>
       </c>
       <c r="J321">
         <v>47947</v>
@@ -24610,7 +24613,7 @@
         <v>3494</v>
       </c>
       <c r="C322">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="D322">
         <v>10406</v>
@@ -24628,7 +24631,7 @@
         <v>17410</v>
       </c>
       <c r="I322">
-        <v>17802</v>
+        <v>17801</v>
       </c>
       <c r="J322">
         <v>48852</v>
@@ -24723,7 +24726,7 @@
         <v>3562</v>
       </c>
       <c r="C323">
-        <v>3565</v>
+        <v>3556</v>
       </c>
       <c r="D323">
         <v>10422</v>
@@ -24741,7 +24744,7 @@
         <v>17278</v>
       </c>
       <c r="I323">
-        <v>17813</v>
+        <v>17812</v>
       </c>
       <c r="J323">
         <v>49957</v>
@@ -24836,7 +24839,7 @@
         <v>3505</v>
       </c>
       <c r="C324">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="D324">
         <v>10578</v>
@@ -24854,7 +24857,7 @@
         <v>17516</v>
       </c>
       <c r="I324">
-        <v>17989</v>
+        <v>17990</v>
       </c>
       <c r="J324">
         <v>50908</v>
@@ -24949,7 +24952,7 @@
         <v>3892</v>
       </c>
       <c r="C325">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="D325">
         <v>11166</v>
@@ -24967,7 +24970,7 @@
         <v>18839</v>
       </c>
       <c r="I325">
-        <v>18177</v>
+        <v>18175</v>
       </c>
       <c r="J325">
         <v>51828</v>
@@ -25062,7 +25065,7 @@
         <v>3677</v>
       </c>
       <c r="C326">
-        <v>3683</v>
+        <v>3679</v>
       </c>
       <c r="D326">
         <v>11006</v>
@@ -25080,7 +25083,7 @@
         <v>18496</v>
       </c>
       <c r="I326">
-        <v>18319</v>
+        <v>18317</v>
       </c>
       <c r="J326">
         <v>51654</v>
@@ -25175,7 +25178,7 @@
         <v>3657</v>
       </c>
       <c r="C327">
-        <v>3673</v>
+        <v>3668</v>
       </c>
       <c r="D327">
         <v>11005</v>
@@ -25193,7 +25196,7 @@
         <v>18314</v>
       </c>
       <c r="I327">
-        <v>18419</v>
+        <v>18418</v>
       </c>
       <c r="J327">
         <v>52248</v>
@@ -25288,7 +25291,7 @@
         <v>3747</v>
       </c>
       <c r="C328">
-        <v>3719</v>
+        <v>3725</v>
       </c>
       <c r="D328">
         <v>11507</v>
@@ -25306,7 +25309,7 @@
         <v>18902</v>
       </c>
       <c r="I328">
-        <v>18741</v>
+        <v>18736</v>
       </c>
       <c r="J328">
         <v>53128</v>
@@ -25401,7 +25404,7 @@
         <v>3840</v>
       </c>
       <c r="C329">
-        <v>3833</v>
+        <v>3823</v>
       </c>
       <c r="D329">
         <v>11439</v>
@@ -25419,7 +25422,7 @@
         <v>19522</v>
       </c>
       <c r="I329">
-        <v>19064</v>
+        <v>19043</v>
       </c>
       <c r="J329">
         <v>54813</v>
@@ -25514,7 +25517,7 @@
         <v>3797</v>
       </c>
       <c r="C330">
-        <v>3751</v>
+        <v>3777</v>
       </c>
       <c r="D330">
         <v>11511</v>
@@ -25532,7 +25535,7 @@
         <v>19682</v>
       </c>
       <c r="I330">
-        <v>19191</v>
+        <v>19187</v>
       </c>
       <c r="J330">
         <v>56261</v>
@@ -25627,7 +25630,7 @@
         <v>3926</v>
       </c>
       <c r="C331">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="D331">
         <v>11550</v>
@@ -25645,7 +25648,7 @@
         <v>18593</v>
       </c>
       <c r="I331">
-        <v>18206</v>
+        <v>18249</v>
       </c>
       <c r="J331">
         <v>57509</v>
@@ -25740,7 +25743,7 @@
         <v>3857</v>
       </c>
       <c r="C332">
-        <v>3932</v>
+        <v>3928</v>
       </c>
       <c r="D332">
         <v>11290</v>
@@ -25758,7 +25761,7 @@
         <v>18299</v>
       </c>
       <c r="I332">
-        <v>18711</v>
+        <v>18710</v>
       </c>
       <c r="J332">
         <v>57808</v>
@@ -25853,7 +25856,7 @@
         <v>3974</v>
       </c>
       <c r="C333">
-        <v>4028</v>
+        <v>4039</v>
       </c>
       <c r="D333">
         <v>11146</v>
@@ -25871,7 +25874,7 @@
         <v>18436</v>
       </c>
       <c r="I333">
-        <v>18861</v>
+        <v>18858</v>
       </c>
       <c r="J333">
         <v>58188</v>
@@ -25966,7 +25969,7 @@
         <v>4007</v>
       </c>
       <c r="C334">
-        <v>3987</v>
+        <v>3960</v>
       </c>
       <c r="D334">
         <v>11121</v>
@@ -25984,7 +25987,7 @@
         <v>18606</v>
       </c>
       <c r="I334">
-        <v>18737</v>
+        <v>18735</v>
       </c>
       <c r="J334">
         <v>58568</v>
@@ -26079,7 +26082,7 @@
         <v>4119</v>
       </c>
       <c r="C335">
-        <v>4182</v>
+        <v>4184</v>
       </c>
       <c r="D335">
         <v>10968</v>
@@ -26097,7 +26100,7 @@
         <v>18285</v>
       </c>
       <c r="I335">
-        <v>19030</v>
+        <v>19027</v>
       </c>
       <c r="J335">
         <v>58897</v>
@@ -26192,7 +26195,7 @@
         <v>4151</v>
       </c>
       <c r="C336">
-        <v>4164</v>
+        <v>4167</v>
       </c>
       <c r="D336">
         <v>11386</v>
@@ -26305,7 +26308,7 @@
         <v>4480</v>
       </c>
       <c r="C337">
-        <v>4197</v>
+        <v>4186</v>
       </c>
       <c r="D337">
         <v>12831</v>
@@ -26323,7 +26326,7 @@
         <v>20560</v>
       </c>
       <c r="I337">
-        <v>19565</v>
+        <v>19563</v>
       </c>
       <c r="J337">
         <v>58201</v>
@@ -26418,7 +26421,7 @@
         <v>4238</v>
       </c>
       <c r="C338">
-        <v>4191</v>
+        <v>4200</v>
       </c>
       <c r="D338">
         <v>12071</v>
@@ -26436,7 +26439,7 @@
         <v>19745</v>
       </c>
       <c r="I338">
-        <v>19541</v>
+        <v>19538</v>
       </c>
       <c r="J338">
         <v>59056</v>
@@ -26531,7 +26534,7 @@
         <v>4227</v>
       </c>
       <c r="C339">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="D339">
         <v>12067</v>
@@ -26549,7 +26552,7 @@
         <v>19859</v>
       </c>
       <c r="I339">
-        <v>19852</v>
+        <v>19849</v>
       </c>
       <c r="J339">
         <v>59315</v>
@@ -26644,7 +26647,7 @@
         <v>4339</v>
       </c>
       <c r="C340">
-        <v>4319</v>
+        <v>4308</v>
       </c>
       <c r="D340">
         <v>12181</v>
@@ -26757,7 +26760,7 @@
         <v>4302</v>
       </c>
       <c r="C341">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="D341">
         <v>12262</v>
@@ -26775,7 +26778,7 @@
         <v>20023</v>
       </c>
       <c r="I341">
-        <v>19869</v>
+        <v>19841</v>
       </c>
       <c r="J341">
         <v>60557</v>
@@ -26870,7 +26873,7 @@
         <v>4433</v>
       </c>
       <c r="C342">
-        <v>4354</v>
+        <v>4375</v>
       </c>
       <c r="D342">
         <v>12775</v>
@@ -26888,7 +26891,7 @@
         <v>21102</v>
       </c>
       <c r="I342">
-        <v>20392</v>
+        <v>20382</v>
       </c>
       <c r="J342">
         <v>62068</v>
@@ -26983,7 +26986,7 @@
         <v>4451</v>
       </c>
       <c r="C343">
-        <v>4455</v>
+        <v>4446</v>
       </c>
       <c r="D343">
         <v>12715</v>
@@ -27001,7 +27004,7 @@
         <v>21266</v>
       </c>
       <c r="I343">
-        <v>20827</v>
+        <v>20892</v>
       </c>
       <c r="J343">
         <v>62591</v>
@@ -27114,7 +27117,7 @@
         <v>20679</v>
       </c>
       <c r="I344">
-        <v>21069</v>
+        <v>21063</v>
       </c>
       <c r="J344">
         <v>63068</v>
@@ -27209,7 +27212,7 @@
         <v>4450</v>
       </c>
       <c r="C345">
-        <v>4514</v>
+        <v>4511</v>
       </c>
       <c r="D345">
         <v>12359</v>
@@ -27227,7 +27230,7 @@
         <v>20624</v>
       </c>
       <c r="I345">
-        <v>21024</v>
+        <v>21019</v>
       </c>
       <c r="J345">
         <v>63931</v>
@@ -27322,7 +27325,7 @@
         <v>4557</v>
       </c>
       <c r="C346">
-        <v>4664</v>
+        <v>4627</v>
       </c>
       <c r="D346">
         <v>12671</v>
@@ -27340,7 +27343,7 @@
         <v>21250</v>
       </c>
       <c r="I346">
-        <v>21526</v>
+        <v>21523</v>
       </c>
       <c r="J346">
         <v>63718</v>
@@ -27435,7 +27438,7 @@
         <v>4604</v>
       </c>
       <c r="C347">
-        <v>4673</v>
+        <v>4683</v>
       </c>
       <c r="D347">
         <v>12347</v>
@@ -27453,7 +27456,7 @@
         <v>20705</v>
       </c>
       <c r="I347">
-        <v>21666</v>
+        <v>21667</v>
       </c>
       <c r="J347">
         <v>64348</v>
@@ -27548,7 +27551,7 @@
         <v>4642</v>
       </c>
       <c r="C348">
-        <v>4684</v>
+        <v>4681</v>
       </c>
       <c r="D348">
         <v>12725</v>
@@ -27566,7 +27569,7 @@
         <v>21224</v>
       </c>
       <c r="I348">
-        <v>21642</v>
+        <v>21636</v>
       </c>
       <c r="J348">
         <v>64481</v>
@@ -27661,7 +27664,7 @@
         <v>4985</v>
       </c>
       <c r="C349">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="D349">
         <v>14185</v>
@@ -27679,7 +27682,7 @@
         <v>22784</v>
       </c>
       <c r="I349">
-        <v>21822</v>
+        <v>21816</v>
       </c>
       <c r="J349">
         <v>64533</v>
@@ -27774,7 +27777,7 @@
         <v>4820</v>
       </c>
       <c r="C350">
-        <v>4731</v>
+        <v>4741</v>
       </c>
       <c r="D350">
         <v>13490</v>
@@ -27792,7 +27795,7 @@
         <v>22293</v>
       </c>
       <c r="I350">
-        <v>21955</v>
+        <v>21952</v>
       </c>
       <c r="J350">
         <v>65829</v>
@@ -27887,7 +27890,7 @@
         <v>4819</v>
       </c>
       <c r="C351">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="D351">
         <v>13253</v>
@@ -27905,7 +27908,7 @@
         <v>22238</v>
       </c>
       <c r="I351">
-        <v>22197</v>
+        <v>22195</v>
       </c>
       <c r="J351">
         <v>65737</v>
@@ -28000,7 +28003,7 @@
         <v>4794</v>
       </c>
       <c r="C352">
-        <v>4822</v>
+        <v>4810</v>
       </c>
       <c r="D352">
         <v>13702</v>
@@ -28018,7 +28021,7 @@
         <v>22955</v>
       </c>
       <c r="I352">
-        <v>22644</v>
+        <v>22640</v>
       </c>
       <c r="J352">
         <v>65849</v>
@@ -28113,7 +28116,7 @@
         <v>4788</v>
       </c>
       <c r="C353">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="D353">
         <v>13671</v>
@@ -28131,7 +28134,7 @@
         <v>22575</v>
       </c>
       <c r="I353">
-        <v>22571</v>
+        <v>22545</v>
       </c>
       <c r="J353">
         <v>64531</v>
@@ -28226,7 +28229,7 @@
         <v>4848</v>
       </c>
       <c r="C354">
-        <v>4800</v>
+        <v>4805</v>
       </c>
       <c r="D354">
         <v>14037</v>
@@ -28244,7 +28247,7 @@
         <v>23713</v>
       </c>
       <c r="I354">
-        <v>22986</v>
+        <v>22972</v>
       </c>
       <c r="J354">
         <v>64303</v>
@@ -28339,7 +28342,7 @@
         <v>4861</v>
       </c>
       <c r="C355">
-        <v>4905</v>
+        <v>4896</v>
       </c>
       <c r="D355">
         <v>13958</v>
@@ -28357,7 +28360,7 @@
         <v>23164</v>
       </c>
       <c r="I355">
-        <v>22760</v>
+        <v>22827</v>
       </c>
       <c r="J355">
         <v>64741</v>
@@ -28452,7 +28455,7 @@
         <v>4753</v>
       </c>
       <c r="C356">
-        <v>4892</v>
+        <v>4903</v>
       </c>
       <c r="D356">
         <v>13824</v>
@@ -28470,7 +28473,7 @@
         <v>23025</v>
       </c>
       <c r="I356">
-        <v>23524</v>
+        <v>23514</v>
       </c>
       <c r="J356">
         <v>66329</v>
@@ -28565,7 +28568,7 @@
         <v>4815</v>
       </c>
       <c r="C357">
-        <v>4906</v>
+        <v>4894</v>
       </c>
       <c r="D357">
         <v>14005</v>
@@ -28583,7 +28586,7 @@
         <v>23395</v>
       </c>
       <c r="I357">
-        <v>23781</v>
+        <v>23775</v>
       </c>
       <c r="J357">
         <v>66170</v>
@@ -28678,7 +28681,7 @@
         <v>4827</v>
       </c>
       <c r="C358">
-        <v>4992</v>
+        <v>4974</v>
       </c>
       <c r="D358">
         <v>13989</v>
@@ -28696,7 +28699,7 @@
         <v>23309</v>
       </c>
       <c r="I358">
-        <v>23939</v>
+        <v>23936</v>
       </c>
       <c r="J358">
         <v>66362</v>
@@ -28791,7 +28794,7 @@
         <v>4925</v>
       </c>
       <c r="C359">
-        <v>4971</v>
+        <v>4986</v>
       </c>
       <c r="D359">
         <v>13602</v>
@@ -28809,7 +28812,7 @@
         <v>23063</v>
       </c>
       <c r="I359">
-        <v>24060</v>
+        <v>24054</v>
       </c>
       <c r="J359">
         <v>67314</v>
@@ -28904,7 +28907,7 @@
         <v>5011</v>
       </c>
       <c r="C360">
-        <v>5035</v>
+        <v>5031</v>
       </c>
       <c r="D360">
         <v>14438</v>
@@ -28922,7 +28925,7 @@
         <v>24120</v>
       </c>
       <c r="I360">
-        <v>24501</v>
+        <v>24498</v>
       </c>
       <c r="J360">
         <v>69135</v>
@@ -29017,7 +29020,7 @@
         <v>5371</v>
       </c>
       <c r="C361">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="D361">
         <v>15640</v>
@@ -29035,7 +29038,7 @@
         <v>25824</v>
       </c>
       <c r="I361">
-        <v>24853</v>
+        <v>24856</v>
       </c>
       <c r="J361">
         <v>69350</v>
@@ -29130,7 +29133,7 @@
         <v>5235</v>
       </c>
       <c r="C362">
-        <v>5145</v>
+        <v>5140</v>
       </c>
       <c r="D362">
         <v>15454</v>
@@ -29148,7 +29151,7 @@
         <v>25570</v>
       </c>
       <c r="I362">
-        <v>25100</v>
+        <v>25099</v>
       </c>
       <c r="J362">
         <v>69487</v>
@@ -29261,7 +29264,7 @@
         <v>25484</v>
       </c>
       <c r="I363">
-        <v>25443</v>
+        <v>25441</v>
       </c>
       <c r="J363">
         <v>68787</v>
@@ -29356,7 +29359,7 @@
         <v>5230</v>
       </c>
       <c r="C364">
-        <v>5291</v>
+        <v>5286</v>
       </c>
       <c r="D364">
         <v>15646</v>
@@ -29374,7 +29377,7 @@
         <v>25703</v>
       </c>
       <c r="I364">
-        <v>25547</v>
+        <v>25546</v>
       </c>
       <c r="J364">
         <v>70310</v>
@@ -29469,7 +29472,7 @@
         <v>5334</v>
       </c>
       <c r="C365">
-        <v>5317</v>
+        <v>5328</v>
       </c>
       <c r="D365">
         <v>15567</v>
@@ -29487,7 +29490,7 @@
         <v>25506</v>
       </c>
       <c r="I365">
-        <v>25492</v>
+        <v>25467</v>
       </c>
       <c r="J365">
         <v>70597</v>
@@ -29582,7 +29585,7 @@
         <v>5462</v>
       </c>
       <c r="C366">
-        <v>5454</v>
+        <v>5433</v>
       </c>
       <c r="D366">
         <v>16184</v>
@@ -29600,7 +29603,7 @@
         <v>26968</v>
       </c>
       <c r="I366">
-        <v>26205</v>
+        <v>26191</v>
       </c>
       <c r="J366">
         <v>71006</v>
@@ -29695,7 +29698,7 @@
         <v>5444</v>
       </c>
       <c r="C367">
-        <v>5495</v>
+        <v>5496</v>
       </c>
       <c r="D367">
         <v>16196</v>
@@ -29713,7 +29716,7 @@
         <v>26774</v>
       </c>
       <c r="I367">
-        <v>26539</v>
+        <v>26606</v>
       </c>
       <c r="J367">
         <v>71588</v>
@@ -29808,7 +29811,7 @@
         <v>5378</v>
       </c>
       <c r="C368">
-        <v>5458</v>
+        <v>5459</v>
       </c>
       <c r="D368">
         <v>16030</v>
@@ -29826,7 +29829,7 @@
         <v>26644</v>
       </c>
       <c r="I368">
-        <v>27053</v>
+        <v>27051</v>
       </c>
       <c r="J368">
         <v>74166</v>
@@ -29921,7 +29924,7 @@
         <v>5451</v>
       </c>
       <c r="C369">
-        <v>5583</v>
+        <v>5572</v>
       </c>
       <c r="D369">
         <v>15910</v>
@@ -29939,7 +29942,7 @@
         <v>26411</v>
       </c>
       <c r="I369">
-        <v>26752</v>
+        <v>26748</v>
       </c>
       <c r="J369">
         <v>74891</v>
@@ -30034,7 +30037,7 @@
         <v>5402</v>
       </c>
       <c r="C370">
-        <v>5549</v>
+        <v>5557</v>
       </c>
       <c r="D370">
         <v>16084</v>
@@ -30147,7 +30150,7 @@
         <v>5493</v>
       </c>
       <c r="C371">
-        <v>5453</v>
+        <v>5469</v>
       </c>
       <c r="D371">
         <v>15990</v>
@@ -30165,7 +30168,7 @@
         <v>26713</v>
       </c>
       <c r="I371">
-        <v>27676</v>
+        <v>27672</v>
       </c>
       <c r="J371">
         <v>76943</v>
@@ -30260,7 +30263,7 @@
         <v>5606</v>
       </c>
       <c r="C372">
-        <v>5674</v>
+        <v>5671</v>
       </c>
       <c r="D372">
         <v>16483</v>
@@ -30278,7 +30281,7 @@
         <v>27422</v>
       </c>
       <c r="I372">
-        <v>27779</v>
+        <v>27774</v>
       </c>
       <c r="J372">
         <v>77117</v>
@@ -30373,7 +30376,7 @@
         <v>5858</v>
       </c>
       <c r="C373">
-        <v>5601</v>
+        <v>5618</v>
       </c>
       <c r="D373">
         <v>17818</v>
@@ -30391,7 +30394,7 @@
         <v>29419</v>
       </c>
       <c r="I373">
-        <v>28303</v>
+        <v>28297</v>
       </c>
       <c r="J373">
         <v>77498</v>
@@ -30486,7 +30489,7 @@
         <v>5716</v>
       </c>
       <c r="C374">
-        <v>5644</v>
+        <v>5628</v>
       </c>
       <c r="D374">
         <v>17793</v>
@@ -30599,7 +30602,7 @@
         <v>5793</v>
       </c>
       <c r="C375">
-        <v>5844</v>
+        <v>5831</v>
       </c>
       <c r="D375">
         <v>17417</v>
@@ -30712,7 +30715,7 @@
         <v>5659</v>
       </c>
       <c r="C376">
-        <v>5716</v>
+        <v>5731</v>
       </c>
       <c r="D376">
         <v>17006</v>
@@ -30730,7 +30733,7 @@
         <v>28259</v>
       </c>
       <c r="I376">
-        <v>28286</v>
+        <v>28287</v>
       </c>
       <c r="J376">
         <v>80175</v>
@@ -30825,7 +30828,7 @@
         <v>5708</v>
       </c>
       <c r="C377">
-        <v>5621</v>
+        <v>5619</v>
       </c>
       <c r="D377">
         <v>17535</v>
@@ -30843,7 +30846,7 @@
         <v>28189</v>
       </c>
       <c r="I377">
-        <v>28101</v>
+        <v>28078</v>
       </c>
       <c r="J377">
         <v>79261</v>
@@ -30938,7 +30941,7 @@
         <v>5784</v>
       </c>
       <c r="C378">
-        <v>5855</v>
+        <v>5860</v>
       </c>
       <c r="D378">
         <v>17484</v>
@@ -30956,7 +30959,7 @@
         <v>28274</v>
       </c>
       <c r="I378">
-        <v>27766</v>
+        <v>27755</v>
       </c>
       <c r="J378">
         <v>80550</v>
@@ -31051,7 +31054,7 @@
         <v>5743</v>
       </c>
       <c r="C379">
-        <v>5722</v>
+        <v>5734</v>
       </c>
       <c r="D379">
         <v>17030</v>
@@ -31069,7 +31072,7 @@
         <v>28201</v>
       </c>
       <c r="I379">
-        <v>27972</v>
+        <v>28018</v>
       </c>
       <c r="J379">
         <v>80916</v>
@@ -31164,7 +31167,7 @@
         <v>5771</v>
       </c>
       <c r="C380">
-        <v>5827</v>
+        <v>5817</v>
       </c>
       <c r="D380">
         <v>16784</v>
@@ -31182,7 +31185,7 @@
         <v>27812</v>
       </c>
       <c r="I380">
-        <v>28062</v>
+        <v>28061</v>
       </c>
       <c r="J380">
         <v>81173</v>
@@ -31277,7 +31280,7 @@
         <v>5714</v>
       </c>
       <c r="C381">
-        <v>5862</v>
+        <v>5867</v>
       </c>
       <c r="D381">
         <v>16753</v>
@@ -31295,7 +31298,7 @@
         <v>27588</v>
       </c>
       <c r="I381">
-        <v>28193</v>
+        <v>28192</v>
       </c>
       <c r="J381">
         <v>81743</v>
@@ -31390,7 +31393,7 @@
         <v>5885</v>
       </c>
       <c r="C382">
-        <v>5878</v>
+        <v>5904</v>
       </c>
       <c r="D382">
         <v>16696</v>
@@ -31408,7 +31411,7 @@
         <v>27602</v>
       </c>
       <c r="I382">
-        <v>28344</v>
+        <v>28342</v>
       </c>
       <c r="J382">
         <v>83417</v>
@@ -31503,7 +31506,7 @@
         <v>5946</v>
       </c>
       <c r="C383">
-        <v>5950</v>
+        <v>5938</v>
       </c>
       <c r="D383">
         <v>16665</v>
@@ -31521,7 +31524,7 @@
         <v>27583</v>
       </c>
       <c r="I383">
-        <v>28424</v>
+        <v>28423</v>
       </c>
       <c r="J383">
         <v>84346</v>
@@ -31616,7 +31619,7 @@
         <v>5875</v>
       </c>
       <c r="C384">
-        <v>5899</v>
+        <v>5906</v>
       </c>
       <c r="D384">
         <v>17594</v>
@@ -31634,7 +31637,7 @@
         <v>28965</v>
       </c>
       <c r="I384">
-        <v>29348</v>
+        <v>29344</v>
       </c>
       <c r="J384">
         <v>83442</v>
@@ -31729,7 +31732,7 @@
         <v>6275</v>
       </c>
       <c r="C385">
-        <v>5949</v>
+        <v>5953</v>
       </c>
       <c r="D385">
         <v>18457</v>
@@ -31842,7 +31845,7 @@
         <v>6050</v>
       </c>
       <c r="C386">
-        <v>6062</v>
+        <v>6057</v>
       </c>
       <c r="D386">
         <v>18233</v>
@@ -31860,7 +31863,7 @@
         <v>29536</v>
       </c>
       <c r="I386">
-        <v>29201</v>
+        <v>29204</v>
       </c>
       <c r="J386">
         <v>82224</v>
@@ -31973,7 +31976,7 @@
         <v>29361</v>
       </c>
       <c r="I387">
-        <v>29467</v>
+        <v>29471</v>
       </c>
       <c r="J387">
         <v>81816</v>
@@ -32068,7 +32071,7 @@
         <v>6050</v>
       </c>
       <c r="C388">
-        <v>6004</v>
+        <v>6020</v>
       </c>
       <c r="D388">
         <v>18505</v>
@@ -32086,7 +32089,7 @@
         <v>29789</v>
       </c>
       <c r="I388">
-        <v>29729</v>
+        <v>29737</v>
       </c>
       <c r="J388">
         <v>82627</v>
@@ -32181,7 +32184,7 @@
         <v>6115</v>
       </c>
       <c r="C389">
-        <v>6068</v>
+        <v>6050</v>
       </c>
       <c r="D389">
         <v>19255</v>
@@ -32199,7 +32202,7 @@
         <v>30230</v>
       </c>
       <c r="I389">
-        <v>30075</v>
+        <v>30058</v>
       </c>
       <c r="J389">
         <v>81448</v>
@@ -32294,7 +32297,7 @@
         <v>6071</v>
       </c>
       <c r="C390">
-        <v>6122</v>
+        <v>6133</v>
       </c>
       <c r="D390">
         <v>19381</v>
@@ -32312,7 +32315,7 @@
         <v>30764</v>
       </c>
       <c r="I390">
-        <v>30351</v>
+        <v>30343</v>
       </c>
       <c r="J390">
         <v>83364</v>
@@ -32407,7 +32410,7 @@
         <v>6119</v>
       </c>
       <c r="C391">
-        <v>6045</v>
+        <v>6058</v>
       </c>
       <c r="D391">
         <v>19194</v>
@@ -32425,7 +32428,7 @@
         <v>31099</v>
       </c>
       <c r="I391">
-        <v>30669</v>
+        <v>30694</v>
       </c>
       <c r="J391">
         <v>83373</v>
@@ -32520,7 +32523,7 @@
         <v>6143</v>
       </c>
       <c r="C392">
-        <v>6287</v>
+        <v>6267</v>
       </c>
       <c r="D392">
         <v>18836</v>
@@ -32538,7 +32541,7 @@
         <v>30671</v>
       </c>
       <c r="I392">
-        <v>30914</v>
+        <v>30903</v>
       </c>
       <c r="J392">
         <v>84037</v>
@@ -32633,7 +32636,7 @@
         <v>5989</v>
       </c>
       <c r="C393">
-        <v>6095</v>
+        <v>6109</v>
       </c>
       <c r="D393">
         <v>18659</v>
@@ -32651,7 +32654,7 @@
         <v>30865</v>
       </c>
       <c r="I393">
-        <v>31292</v>
+        <v>31287</v>
       </c>
       <c r="J393">
         <v>86945</v>
@@ -32746,7 +32749,7 @@
         <v>6125</v>
       </c>
       <c r="C394">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="D394">
         <v>18779</v>
@@ -32764,7 +32767,7 @@
         <v>30890</v>
       </c>
       <c r="I394">
-        <v>31390</v>
+        <v>31391</v>
       </c>
       <c r="J394">
         <v>87209</v>
@@ -32859,7 +32862,7 @@
         <v>6050</v>
       </c>
       <c r="C395">
-        <v>6100</v>
+        <v>6095</v>
       </c>
       <c r="D395">
         <v>18562</v>
@@ -32877,7 +32880,7 @@
         <v>30753</v>
       </c>
       <c r="I395">
-        <v>31590</v>
+        <v>31591</v>
       </c>
       <c r="J395">
         <v>85099</v>
@@ -32972,7 +32975,7 @@
         <v>6323</v>
       </c>
       <c r="C396">
-        <v>6330</v>
+        <v>6348</v>
       </c>
       <c r="D396">
         <v>19041</v>
@@ -32990,7 +32993,7 @@
         <v>32076</v>
       </c>
       <c r="I396">
-        <v>32344</v>
+        <v>32328</v>
       </c>
       <c r="J396">
         <v>85838</v>
@@ -33085,7 +33088,7 @@
         <v>6528</v>
       </c>
       <c r="C397">
-        <v>6195</v>
+        <v>6186</v>
       </c>
       <c r="D397">
         <v>20424</v>
@@ -33103,7 +33106,7 @@
         <v>33566</v>
       </c>
       <c r="I397">
-        <v>32385</v>
+        <v>32389</v>
       </c>
       <c r="J397">
         <v>85719</v>
@@ -33216,7 +33219,7 @@
         <v>33339</v>
       </c>
       <c r="I398">
-        <v>33179</v>
+        <v>33189</v>
       </c>
       <c r="J398">
         <v>88660</v>
@@ -33311,7 +33314,7 @@
         <v>6277</v>
       </c>
       <c r="C399">
-        <v>6256</v>
+        <v>6258</v>
       </c>
       <c r="D399">
         <v>19951</v>
@@ -33329,7 +33332,7 @@
         <v>32865</v>
       </c>
       <c r="I399">
-        <v>33123</v>
+        <v>33134</v>
       </c>
       <c r="J399">
         <v>88182</v>
@@ -33424,7 +33427,7 @@
         <v>6353</v>
       </c>
       <c r="C400">
-        <v>6329</v>
+        <v>6333</v>
       </c>
       <c r="D400">
         <v>20688</v>
@@ -33442,7 +33445,7 @@
         <v>33747</v>
       </c>
       <c r="I400">
-        <v>33576</v>
+        <v>33589</v>
       </c>
       <c r="J400">
         <v>91499</v>
@@ -33537,7 +33540,7 @@
         <v>6391</v>
       </c>
       <c r="C401">
-        <v>6354</v>
+        <v>6344</v>
       </c>
       <c r="D401">
         <v>20798</v>
@@ -33555,7 +33558,7 @@
         <v>33832</v>
       </c>
       <c r="I401">
-        <v>33725</v>
+        <v>33710</v>
       </c>
       <c r="J401">
         <v>90165</v>
@@ -33650,7 +33653,7 @@
         <v>6294</v>
       </c>
       <c r="C402">
-        <v>6243</v>
+        <v>6261</v>
       </c>
       <c r="D402">
         <v>21771</v>
@@ -33668,7 +33671,7 @@
         <v>35200</v>
       </c>
       <c r="I402">
-        <v>34495</v>
+        <v>34499</v>
       </c>
       <c r="J402">
         <v>92220</v>
@@ -33763,7 +33766,7 @@
         <v>6345</v>
       </c>
       <c r="C403">
-        <v>6327</v>
+        <v>6322</v>
       </c>
       <c r="D403">
         <v>21425</v>
@@ -33781,7 +33784,7 @@
         <v>34887</v>
       </c>
       <c r="I403">
-        <v>34233</v>
+        <v>34230</v>
       </c>
       <c r="J403">
         <v>89908</v>
@@ -33876,7 +33879,7 @@
         <v>6288</v>
       </c>
       <c r="C404">
-        <v>6343</v>
+        <v>6323</v>
       </c>
       <c r="D404">
         <v>20668</v>
@@ -33894,7 +33897,7 @@
         <v>33665</v>
       </c>
       <c r="I404">
-        <v>33964</v>
+        <v>33950</v>
       </c>
       <c r="J404">
         <v>91666</v>
@@ -33989,7 +33992,7 @@
         <v>6357</v>
       </c>
       <c r="C405">
-        <v>6423</v>
+        <v>6441</v>
       </c>
       <c r="D405">
         <v>21213</v>
@@ -34007,7 +34010,7 @@
         <v>34626</v>
       </c>
       <c r="I405">
-        <v>34873</v>
+        <v>34866</v>
       </c>
       <c r="J405">
         <v>93918</v>
@@ -34102,7 +34105,7 @@
         <v>6412</v>
       </c>
       <c r="C406">
-        <v>6385</v>
+        <v>6370</v>
       </c>
       <c r="D406">
         <v>21125</v>
@@ -34120,7 +34123,7 @@
         <v>34554</v>
       </c>
       <c r="I406">
-        <v>34846</v>
+        <v>34842</v>
       </c>
       <c r="J406">
         <v>93121</v>
@@ -34215,7 +34218,7 @@
         <v>6458</v>
       </c>
       <c r="C407">
-        <v>6580</v>
+        <v>6589</v>
       </c>
       <c r="D407">
         <v>21107</v>
@@ -34233,7 +34236,7 @@
         <v>34565</v>
       </c>
       <c r="I407">
-        <v>35682</v>
+        <v>35679</v>
       </c>
       <c r="J407">
         <v>93368</v>
@@ -34328,7 +34331,7 @@
         <v>6454</v>
       </c>
       <c r="C408">
-        <v>6413</v>
+        <v>6418</v>
       </c>
       <c r="D408">
         <v>21522</v>
@@ -34346,7 +34349,7 @@
         <v>35215</v>
       </c>
       <c r="I408">
-        <v>35390</v>
+        <v>35379</v>
       </c>
       <c r="J408">
         <v>94636</v>
@@ -34441,7 +34444,7 @@
         <v>6740</v>
       </c>
       <c r="C409">
-        <v>6459</v>
+        <v>6451</v>
       </c>
       <c r="D409">
         <v>22634</v>
@@ -34459,7 +34462,7 @@
         <v>36856</v>
       </c>
       <c r="I409">
-        <v>35492</v>
+        <v>35499</v>
       </c>
       <c r="J409">
         <v>96004</v>
@@ -34554,7 +34557,7 @@
         <v>6503</v>
       </c>
       <c r="C410">
-        <v>6421</v>
+        <v>6425</v>
       </c>
       <c r="D410">
         <v>21875</v>
@@ -34572,7 +34575,7 @@
         <v>36169</v>
       </c>
       <c r="I410">
-        <v>35961</v>
+        <v>35970</v>
       </c>
       <c r="J410">
         <v>94519</v>
@@ -34667,7 +34670,7 @@
         <v>6509</v>
       </c>
       <c r="C411">
-        <v>6479</v>
+        <v>6484</v>
       </c>
       <c r="D411">
         <v>21721</v>
@@ -34685,7 +34688,7 @@
         <v>35902</v>
       </c>
       <c r="I411">
-        <v>36359</v>
+        <v>36376</v>
       </c>
       <c r="J411">
         <v>94252</v>
@@ -34780,7 +34783,7 @@
         <v>6531</v>
       </c>
       <c r="C412">
-        <v>6477</v>
+        <v>6462</v>
       </c>
       <c r="D412">
         <v>22552</v>
@@ -34798,7 +34801,7 @@
         <v>36803</v>
       </c>
       <c r="I412">
-        <v>36707</v>
+        <v>36737</v>
       </c>
       <c r="J412">
         <v>95405</v>
@@ -34911,7 +34914,7 @@
         <v>37392</v>
       </c>
       <c r="I413">
-        <v>37501</v>
+        <v>37495</v>
       </c>
       <c r="J413">
         <v>95245</v>
@@ -35006,7 +35009,7 @@
         <v>6628</v>
       </c>
       <c r="C414">
-        <v>6524</v>
+        <v>6539</v>
       </c>
       <c r="D414">
         <v>23560</v>
@@ -35024,7 +35027,7 @@
         <v>38075</v>
       </c>
       <c r="I414">
-        <v>36785</v>
+        <v>36800</v>
       </c>
       <c r="J414">
         <v>96786</v>
@@ -35119,7 +35122,7 @@
         <v>6614</v>
       </c>
       <c r="C415">
-        <v>6609</v>
+        <v>6597</v>
       </c>
       <c r="D415">
         <v>23301</v>
@@ -35137,7 +35140,7 @@
         <v>38159</v>
       </c>
       <c r="I415">
-        <v>37203</v>
+        <v>37196</v>
       </c>
       <c r="J415">
         <v>96166</v>
@@ -35232,7 +35235,7 @@
         <v>6557</v>
       </c>
       <c r="C416">
-        <v>6674</v>
+        <v>6652</v>
       </c>
       <c r="D416">
         <v>23476</v>
@@ -35250,7 +35253,7 @@
         <v>37901</v>
       </c>
       <c r="I416">
-        <v>38030</v>
+        <v>37988</v>
       </c>
       <c r="J416">
         <v>96547</v>
@@ -35363,7 +35366,7 @@
         <v>38583</v>
       </c>
       <c r="I417">
-        <v>38704</v>
+        <v>38690</v>
       </c>
       <c r="J417">
         <v>99054</v>
@@ -35458,7 +35461,7 @@
         <v>6776</v>
       </c>
       <c r="C418">
-        <v>6944</v>
+        <v>6918</v>
       </c>
       <c r="D418">
         <v>24490</v>
@@ -35476,7 +35479,7 @@
         <v>39372</v>
       </c>
       <c r="I418">
-        <v>39788</v>
+        <v>39780</v>
       </c>
       <c r="J418">
         <v>99435</v>
@@ -35571,7 +35574,7 @@
         <v>6974</v>
       </c>
       <c r="C419">
-        <v>7123</v>
+        <v>7144</v>
       </c>
       <c r="D419">
         <v>25327</v>
@@ -35589,7 +35592,7 @@
         <v>41034</v>
       </c>
       <c r="I419">
-        <v>42456</v>
+        <v>42458</v>
       </c>
       <c r="J419">
         <v>99214</v>
@@ -35684,7 +35687,7 @@
         <v>7241</v>
       </c>
       <c r="C420">
-        <v>7254</v>
+        <v>7243</v>
       </c>
       <c r="D420">
         <v>26029</v>
@@ -35702,7 +35705,7 @@
         <v>42245</v>
       </c>
       <c r="I420">
-        <v>42538</v>
+        <v>42515</v>
       </c>
       <c r="J420">
         <v>102085</v>
@@ -35797,7 +35800,7 @@
         <v>7575</v>
       </c>
       <c r="C421">
-        <v>7385</v>
+        <v>7392</v>
       </c>
       <c r="D421">
         <v>26853</v>
@@ -35815,7 +35818,7 @@
         <v>43633</v>
       </c>
       <c r="I421">
-        <v>42613</v>
+        <v>42616</v>
       </c>
       <c r="J421">
         <v>102259</v>
@@ -35928,7 +35931,7 @@
         <v>42621</v>
       </c>
       <c r="I422">
-        <v>42370</v>
+        <v>42383</v>
       </c>
       <c r="J422">
         <v>101396</v>
@@ -36023,7 +36026,7 @@
         <v>7457</v>
       </c>
       <c r="C423">
-        <v>7441</v>
+        <v>7426</v>
       </c>
       <c r="D423">
         <v>26307</v>
@@ -36041,7 +36044,7 @@
         <v>43378</v>
       </c>
       <c r="I423">
-        <v>44078</v>
+        <v>44101</v>
       </c>
       <c r="J423">
         <v>101055</v>
@@ -36136,7 +36139,7 @@
         <v>7734</v>
       </c>
       <c r="C424">
-        <v>7837</v>
+        <v>7828</v>
       </c>
       <c r="D424">
         <v>29536</v>
@@ -36154,7 +36157,7 @@
         <v>46653</v>
       </c>
       <c r="I424">
-        <v>46989</v>
+        <v>47036</v>
       </c>
       <c r="J424">
         <v>101671</v>
@@ -36249,7 +36252,7 @@
         <v>8131</v>
       </c>
       <c r="C425">
-        <v>8085</v>
+        <v>8104</v>
       </c>
       <c r="D425">
         <v>30453</v>
@@ -36267,7 +36270,7 @@
         <v>48600</v>
       </c>
       <c r="I425">
-        <v>48775</v>
+        <v>48783</v>
       </c>
       <c r="J425">
         <v>98436</v>
@@ -36362,7 +36365,7 @@
         <v>8421</v>
       </c>
       <c r="C426">
-        <v>8411</v>
+        <v>8379</v>
       </c>
       <c r="D426">
         <v>33141</v>
@@ -36380,7 +36383,7 @@
         <v>51630</v>
       </c>
       <c r="I426">
-        <v>49844</v>
+        <v>49893</v>
       </c>
       <c r="J426">
         <v>96389</v>
@@ -36475,7 +36478,7 @@
         <v>8708</v>
       </c>
       <c r="C427">
-        <v>8767</v>
+        <v>8774</v>
       </c>
       <c r="D427">
         <v>34629</v>
@@ -36493,7 +36496,7 @@
         <v>52956</v>
       </c>
       <c r="I427">
-        <v>51804</v>
+        <v>51785</v>
       </c>
       <c r="J427">
         <v>92682</v>
@@ -36588,7 +36591,7 @@
         <v>9055</v>
       </c>
       <c r="C428">
-        <v>9065</v>
+        <v>9030</v>
       </c>
       <c r="D428">
         <v>34458</v>
@@ -36606,7 +36609,7 @@
         <v>53272</v>
       </c>
       <c r="I428">
-        <v>53236</v>
+        <v>53154</v>
       </c>
       <c r="J428">
         <v>87779</v>
@@ -36701,7 +36704,7 @@
         <v>10708</v>
       </c>
       <c r="C429">
-        <v>10992</v>
+        <v>10981</v>
       </c>
       <c r="D429">
         <v>37205</v>
@@ -36719,7 +36722,7 @@
         <v>62300</v>
       </c>
       <c r="I429">
-        <v>62405</v>
+        <v>62370</v>
       </c>
       <c r="J429">
         <v>82380</v>
@@ -36814,7 +36817,7 @@
         <v>11257</v>
       </c>
       <c r="C430">
-        <v>11570</v>
+        <v>11613</v>
       </c>
       <c r="D430">
         <v>37542</v>
@@ -36832,7 +36835,7 @@
         <v>63423</v>
       </c>
       <c r="I430">
-        <v>65194</v>
+        <v>65179</v>
       </c>
       <c r="J430">
         <v>80015</v>
@@ -36927,7 +36930,7 @@
         <v>11356</v>
       </c>
       <c r="C431">
-        <v>11342</v>
+        <v>11381</v>
       </c>
       <c r="D431">
         <v>37603</v>
@@ -36945,7 +36948,7 @@
         <v>62478</v>
       </c>
       <c r="I431">
-        <v>64001</v>
+        <v>63985</v>
       </c>
       <c r="J431">
         <v>79174</v>
@@ -37040,7 +37043,7 @@
         <v>11368</v>
       </c>
       <c r="C432">
-        <v>11471</v>
+        <v>11440</v>
       </c>
       <c r="D432">
         <v>37774</v>
@@ -37058,7 +37061,7 @@
         <v>62397</v>
       </c>
       <c r="I432">
-        <v>63032</v>
+        <v>63005</v>
       </c>
       <c r="J432">
         <v>78345</v>
@@ -37153,7 +37156,7 @@
         <v>12180</v>
       </c>
       <c r="C433">
-        <v>11822</v>
+        <v>11880</v>
       </c>
       <c r="D433">
         <v>39185</v>
@@ -37171,7 +37174,7 @@
         <v>68573</v>
       </c>
       <c r="I433">
-        <v>67334</v>
+        <v>67340</v>
       </c>
       <c r="J433">
         <v>77447</v>
@@ -37266,7 +37269,7 @@
         <v>12586</v>
       </c>
       <c r="C434">
-        <v>12424</v>
+        <v>12367</v>
       </c>
       <c r="D434">
         <v>39406</v>
@@ -37284,7 +37287,7 @@
         <v>68803</v>
       </c>
       <c r="I434">
-        <v>68466</v>
+        <v>68492</v>
       </c>
       <c r="J434">
         <v>76229</v>
@@ -37379,7 +37382,7 @@
         <v>12618</v>
       </c>
       <c r="C435">
-        <v>12516</v>
+        <v>12536</v>
       </c>
       <c r="D435">
         <v>39843</v>
@@ -37397,7 +37400,7 @@
         <v>68709</v>
       </c>
       <c r="I435">
-        <v>70022</v>
+        <v>70073</v>
       </c>
       <c r="J435">
         <v>75169</v>
@@ -37492,7 +37495,7 @@
         <v>12555</v>
       </c>
       <c r="C436">
-        <v>12756</v>
+        <v>12765</v>
       </c>
       <c r="D436">
         <v>41127</v>
@@ -37510,7 +37513,7 @@
         <v>70044</v>
       </c>
       <c r="I436">
-        <v>71015</v>
+        <v>71096</v>
       </c>
       <c r="J436">
         <v>75403</v>
@@ -37605,7 +37608,7 @@
         <v>12636</v>
       </c>
       <c r="C437">
-        <v>12483</v>
+        <v>12510</v>
       </c>
       <c r="D437">
         <v>41461</v>
@@ -37623,7 +37626,7 @@
         <v>70433</v>
       </c>
       <c r="I437">
-        <v>70454</v>
+        <v>70497</v>
       </c>
       <c r="J437">
         <v>75780</v>
@@ -37718,7 +37721,7 @@
         <v>14224</v>
       </c>
       <c r="C438">
-        <v>14377</v>
+        <v>14372</v>
       </c>
       <c r="D438">
         <v>46153</v>
@@ -37736,7 +37739,7 @@
         <v>81242</v>
       </c>
       <c r="I438">
-        <v>78403</v>
+        <v>78477</v>
       </c>
       <c r="J438">
         <v>70546</v>
@@ -37811,16 +37814,16 @@
         <v>25742</v>
       </c>
       <c r="AH438">
-        <v>3277</v>
+        <v>3658</v>
       </c>
       <c r="AI438">
         <v>17861</v>
       </c>
       <c r="AJ438">
-        <v>1290</v>
+        <v>1370</v>
       </c>
       <c r="AK438">
-        <v>280700</v>
+        <v>281002</v>
       </c>
     </row>
     <row r="439" spans="1:37">
@@ -37831,7 +37834,7 @@
         <v>14547</v>
       </c>
       <c r="C439">
-        <v>14555</v>
+        <v>14575</v>
       </c>
       <c r="D439">
         <v>45981</v>
@@ -37849,7 +37852,7 @@
         <v>80610</v>
       </c>
       <c r="I439">
-        <v>78974</v>
+        <v>78973</v>
       </c>
       <c r="J439">
         <v>70843</v>
@@ -37873,19 +37876,19 @@
         <v>10489</v>
       </c>
       <c r="Q439">
-        <v>21821</v>
+        <v>20477</v>
       </c>
       <c r="R439">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="S439">
-        <v>15585</v>
+        <v>13643</v>
       </c>
       <c r="T439">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U439">
-        <v>169481</v>
+        <v>170050</v>
       </c>
       <c r="V439">
         <v>25127</v>
@@ -37915,25 +37918,138 @@
         <v>219</v>
       </c>
       <c r="AE439">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="AF439">
-        <v>32006</v>
+        <v>30972</v>
       </c>
       <c r="AG439">
-        <v>26153</v>
+        <v>25228</v>
       </c>
       <c r="AH439">
-        <v>3293</v>
+        <v>3421</v>
       </c>
       <c r="AI439">
-        <v>19017</v>
+        <v>17611</v>
       </c>
       <c r="AJ439">
-        <v>1292</v>
+        <v>1318</v>
       </c>
       <c r="AK439">
-        <v>282066</v>
+        <v>282263</v>
+      </c>
+    </row>
+    <row r="440" spans="1:37">
+      <c r="A440" t="s">
+        <v>475</v>
+      </c>
+      <c r="B440">
+        <v>14804</v>
+      </c>
+      <c r="C440">
+        <v>14813</v>
+      </c>
+      <c r="D440">
+        <v>46517</v>
+      </c>
+      <c r="E440">
+        <v>27115</v>
+      </c>
+      <c r="F440">
+        <v>19402</v>
+      </c>
+      <c r="G440">
+        <v>20010</v>
+      </c>
+      <c r="H440">
+        <v>81330</v>
+      </c>
+      <c r="I440">
+        <v>80721</v>
+      </c>
+      <c r="J440">
+        <v>71852</v>
+      </c>
+      <c r="K440">
+        <v>44870</v>
+      </c>
+      <c r="L440">
+        <v>39719</v>
+      </c>
+      <c r="M440">
+        <v>5151</v>
+      </c>
+      <c r="N440">
+        <v>26418</v>
+      </c>
+      <c r="O440">
+        <v>564</v>
+      </c>
+      <c r="P440">
+        <v>10768</v>
+      </c>
+      <c r="Q440">
+        <v>22201</v>
+      </c>
+      <c r="R440">
+        <v>1379</v>
+      </c>
+      <c r="S440">
+        <v>15503</v>
+      </c>
+      <c r="T440">
+        <v>85</v>
+      </c>
+      <c r="U440">
+        <v>171942</v>
+      </c>
+      <c r="V440">
+        <v>26878</v>
+      </c>
+      <c r="W440">
+        <v>12671</v>
+      </c>
+      <c r="X440">
+        <v>12402</v>
+      </c>
+      <c r="Y440">
+        <v>269</v>
+      </c>
+      <c r="Z440">
+        <v>0</v>
+      </c>
+      <c r="AA440">
+        <v>35239</v>
+      </c>
+      <c r="AB440">
+        <v>17004</v>
+      </c>
+      <c r="AC440">
+        <v>18236</v>
+      </c>
+      <c r="AD440">
+        <v>213</v>
+      </c>
+      <c r="AE440">
+        <v>271</v>
+      </c>
+      <c r="AF440">
+        <v>31306</v>
+      </c>
+      <c r="AG440">
+        <v>25694</v>
+      </c>
+      <c r="AH440">
+        <v>3459</v>
+      </c>
+      <c r="AI440">
+        <v>18312</v>
+      </c>
+      <c r="AJ440">
+        <v>1326</v>
+      </c>
+      <c r="AK440">
+        <v>288035</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
   <si>
     <t>Serie</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK440"/>
+  <dimension ref="A1:AK441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2562,7 +2565,7 @@
         <v>93</v>
       </c>
       <c r="C23">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>73</v>
@@ -2786,7 +2789,7 @@
         <v>112</v>
       </c>
       <c r="C27">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>76</v>
@@ -3066,7 +3069,7 @@
         <v>112</v>
       </c>
       <c r="C32">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>83</v>
@@ -3290,7 +3293,7 @@
         <v>113</v>
       </c>
       <c r="C36">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>65</v>
@@ -3458,7 +3461,7 @@
         <v>135</v>
       </c>
       <c r="C39">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D39">
         <v>119</v>
@@ -3744,7 +3747,7 @@
         <v>151</v>
       </c>
       <c r="C44">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44">
         <v>127</v>
@@ -3803,7 +3806,7 @@
         <v>141</v>
       </c>
       <c r="C45">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D45">
         <v>151</v>
@@ -3862,7 +3865,7 @@
         <v>161</v>
       </c>
       <c r="C46">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46">
         <v>115</v>
@@ -3983,7 +3986,7 @@
         <v>152</v>
       </c>
       <c r="C48">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48">
         <v>147</v>
@@ -4045,7 +4048,7 @@
         <v>182</v>
       </c>
       <c r="C49">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49">
         <v>182</v>
@@ -4293,7 +4296,7 @@
         <v>191</v>
       </c>
       <c r="C53">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D53">
         <v>168</v>
@@ -4479,7 +4482,7 @@
         <v>172</v>
       </c>
       <c r="C56">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56">
         <v>167</v>
@@ -4541,7 +4544,7 @@
         <v>170</v>
       </c>
       <c r="C57">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D57">
         <v>170</v>
@@ -4603,7 +4606,7 @@
         <v>186</v>
       </c>
       <c r="C58">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D58">
         <v>149</v>
@@ -4727,7 +4730,7 @@
         <v>182</v>
       </c>
       <c r="C60">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D60">
         <v>201</v>
@@ -4789,7 +4792,7 @@
         <v>222</v>
       </c>
       <c r="C61">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61">
         <v>191</v>
@@ -4851,7 +4854,7 @@
         <v>200</v>
       </c>
       <c r="C62">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62">
         <v>216</v>
@@ -5099,7 +5102,7 @@
         <v>204</v>
       </c>
       <c r="C66">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D66">
         <v>204</v>
@@ -5223,7 +5226,7 @@
         <v>200</v>
       </c>
       <c r="C68">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D68">
         <v>152</v>
@@ -5235,7 +5238,7 @@
         <v>508</v>
       </c>
       <c r="I68">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J68">
         <v>1581</v>
@@ -5285,7 +5288,7 @@
         <v>221</v>
       </c>
       <c r="C69">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D69">
         <v>145</v>
@@ -5347,7 +5350,7 @@
         <v>224</v>
       </c>
       <c r="C70">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D70">
         <v>178</v>
@@ -5471,7 +5474,7 @@
         <v>236</v>
       </c>
       <c r="C72">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D72">
         <v>115</v>
@@ -5595,7 +5598,7 @@
         <v>265</v>
       </c>
       <c r="C74">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D74">
         <v>304</v>
@@ -5781,7 +5784,7 @@
         <v>293</v>
       </c>
       <c r="C77">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D77">
         <v>297</v>
@@ -5843,7 +5846,7 @@
         <v>295</v>
       </c>
       <c r="C78">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D78">
         <v>308</v>
@@ -5905,7 +5908,7 @@
         <v>302</v>
       </c>
       <c r="C79">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D79">
         <v>203</v>
@@ -5964,7 +5967,7 @@
         <v>274</v>
       </c>
       <c r="C80">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D80">
         <v>206</v>
@@ -6023,7 +6026,7 @@
         <v>301</v>
       </c>
       <c r="C81">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D81">
         <v>217</v>
@@ -6082,7 +6085,7 @@
         <v>291</v>
       </c>
       <c r="C82">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D82">
         <v>220</v>
@@ -6141,7 +6144,7 @@
         <v>314</v>
       </c>
       <c r="C83">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D83">
         <v>256</v>
@@ -6200,7 +6203,7 @@
         <v>322</v>
       </c>
       <c r="C84">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D84">
         <v>264</v>
@@ -6259,7 +6262,7 @@
         <v>368</v>
       </c>
       <c r="C85">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D85">
         <v>379</v>
@@ -6495,7 +6498,7 @@
         <v>406</v>
       </c>
       <c r="C89">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D89">
         <v>461</v>
@@ -6554,7 +6557,7 @@
         <v>397</v>
       </c>
       <c r="C90">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D90">
         <v>401</v>
@@ -6672,7 +6675,7 @@
         <v>388</v>
       </c>
       <c r="C92">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D92">
         <v>456</v>
@@ -6731,7 +6734,7 @@
         <v>372</v>
       </c>
       <c r="C93">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D93">
         <v>346</v>
@@ -6790,7 +6793,7 @@
         <v>373</v>
       </c>
       <c r="C94">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D94">
         <v>292</v>
@@ -6802,7 +6805,7 @@
         <v>1021</v>
       </c>
       <c r="I94">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J94">
         <v>3023</v>
@@ -6849,7 +6852,7 @@
         <v>404</v>
       </c>
       <c r="C95">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D95">
         <v>251</v>
@@ -6908,7 +6911,7 @@
         <v>396</v>
       </c>
       <c r="C96">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D96">
         <v>262</v>
@@ -7085,7 +7088,7 @@
         <v>494</v>
       </c>
       <c r="C99">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D99">
         <v>925</v>
@@ -7203,7 +7206,7 @@
         <v>496</v>
       </c>
       <c r="C101">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D101">
         <v>970</v>
@@ -7262,7 +7265,7 @@
         <v>458</v>
       </c>
       <c r="C102">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D102">
         <v>907</v>
@@ -7321,7 +7324,7 @@
         <v>453</v>
       </c>
       <c r="C103">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D103">
         <v>878</v>
@@ -7380,7 +7383,7 @@
         <v>495</v>
       </c>
       <c r="C104">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D104">
         <v>857</v>
@@ -7439,7 +7442,7 @@
         <v>447</v>
       </c>
       <c r="C105">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D105">
         <v>900</v>
@@ -7498,7 +7501,7 @@
         <v>451</v>
       </c>
       <c r="C106">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D106">
         <v>865</v>
@@ -7510,7 +7513,7 @@
         <v>1411</v>
       </c>
       <c r="I106">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J106">
         <v>3952</v>
@@ -7557,7 +7560,7 @@
         <v>500</v>
       </c>
       <c r="C107">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D107">
         <v>860</v>
@@ -7569,7 +7572,7 @@
         <v>1405</v>
       </c>
       <c r="I107">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="J107">
         <v>4061</v>
@@ -7616,7 +7619,7 @@
         <v>466</v>
       </c>
       <c r="C108">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D108">
         <v>914</v>
@@ -7793,7 +7796,7 @@
         <v>547</v>
       </c>
       <c r="C111">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D111">
         <v>1037</v>
@@ -7911,7 +7914,7 @@
         <v>572</v>
       </c>
       <c r="C113">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D113">
         <v>1059</v>
@@ -7970,7 +7973,7 @@
         <v>527</v>
       </c>
       <c r="C114">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D114">
         <v>1080</v>
@@ -8029,7 +8032,7 @@
         <v>523</v>
       </c>
       <c r="C115">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D115">
         <v>1037</v>
@@ -8088,7 +8091,7 @@
         <v>549</v>
       </c>
       <c r="C116">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D116">
         <v>1021</v>
@@ -8147,7 +8150,7 @@
         <v>507</v>
       </c>
       <c r="C117">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D117">
         <v>1008</v>
@@ -8206,7 +8209,7 @@
         <v>557</v>
       </c>
       <c r="C118">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D118">
         <v>1043</v>
@@ -8395,7 +8398,7 @@
         <v>2096</v>
       </c>
       <c r="I121">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J121">
         <v>4786</v>
@@ -8442,7 +8445,7 @@
         <v>614</v>
       </c>
       <c r="C122">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D122">
         <v>1275</v>
@@ -8501,7 +8504,7 @@
         <v>625</v>
       </c>
       <c r="C123">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D123">
         <v>1264</v>
@@ -8737,7 +8740,7 @@
         <v>656</v>
       </c>
       <c r="C127">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D127">
         <v>1183</v>
@@ -8796,7 +8799,7 @@
         <v>610</v>
       </c>
       <c r="C128">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D128">
         <v>1222</v>
@@ -8855,7 +8858,7 @@
         <v>598</v>
       </c>
       <c r="C129">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D129">
         <v>1215</v>
@@ -8914,7 +8917,7 @@
         <v>659</v>
       </c>
       <c r="C130">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D130">
         <v>1152</v>
@@ -8973,7 +8976,7 @@
         <v>641</v>
       </c>
       <c r="C131">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D131">
         <v>1311</v>
@@ -9032,7 +9035,7 @@
         <v>646</v>
       </c>
       <c r="C132">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D132">
         <v>1308</v>
@@ -9091,7 +9094,7 @@
         <v>783</v>
       </c>
       <c r="C133">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D133">
         <v>1439</v>
@@ -9209,7 +9212,7 @@
         <v>714</v>
       </c>
       <c r="C135">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D135">
         <v>1396</v>
@@ -9268,7 +9271,7 @@
         <v>755</v>
       </c>
       <c r="C136">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D136">
         <v>1400</v>
@@ -9327,7 +9330,7 @@
         <v>723</v>
       </c>
       <c r="C137">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D137">
         <v>1448</v>
@@ -9386,7 +9389,7 @@
         <v>760</v>
       </c>
       <c r="C138">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D138">
         <v>1425</v>
@@ -9445,7 +9448,7 @@
         <v>755</v>
       </c>
       <c r="C139">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D139">
         <v>1442</v>
@@ -9504,7 +9507,7 @@
         <v>685</v>
       </c>
       <c r="C140">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D140">
         <v>1365</v>
@@ -9622,7 +9625,7 @@
         <v>711</v>
       </c>
       <c r="C142">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D142">
         <v>1469</v>
@@ -9740,7 +9743,7 @@
         <v>780</v>
       </c>
       <c r="C144">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D144">
         <v>1475</v>
@@ -9799,7 +9802,7 @@
         <v>857</v>
       </c>
       <c r="C145">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D145">
         <v>1687</v>
@@ -9858,7 +9861,7 @@
         <v>851</v>
       </c>
       <c r="C146">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D146">
         <v>1626</v>
@@ -9917,7 +9920,7 @@
         <v>858</v>
       </c>
       <c r="C147">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D147">
         <v>1587</v>
@@ -9976,7 +9979,7 @@
         <v>809</v>
       </c>
       <c r="C148">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D148">
         <v>1781</v>
@@ -10094,7 +10097,7 @@
         <v>847</v>
       </c>
       <c r="C150">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D150">
         <v>1824</v>
@@ -10212,7 +10215,7 @@
         <v>798</v>
       </c>
       <c r="C152">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D152">
         <v>1767</v>
@@ -10271,7 +10274,7 @@
         <v>847</v>
       </c>
       <c r="C153">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D153">
         <v>1759</v>
@@ -10330,7 +10333,7 @@
         <v>812</v>
       </c>
       <c r="C154">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D154">
         <v>1879</v>
@@ -10389,7 +10392,7 @@
         <v>870</v>
       </c>
       <c r="C155">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D155">
         <v>1736</v>
@@ -10448,7 +10451,7 @@
         <v>892</v>
       </c>
       <c r="C156">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D156">
         <v>1778</v>
@@ -10507,7 +10510,7 @@
         <v>982</v>
       </c>
       <c r="C157">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D157">
         <v>1980</v>
@@ -10625,7 +10628,7 @@
         <v>952</v>
       </c>
       <c r="C159">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D159">
         <v>1833</v>
@@ -10684,7 +10687,7 @@
         <v>896</v>
       </c>
       <c r="C160">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D160">
         <v>1861</v>
@@ -10802,7 +10805,7 @@
         <v>941</v>
       </c>
       <c r="C162">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D162">
         <v>1921</v>
@@ -10861,7 +10864,7 @@
         <v>900</v>
       </c>
       <c r="C163">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D163">
         <v>1879</v>
@@ -10920,7 +10923,7 @@
         <v>898</v>
       </c>
       <c r="C164">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="D164">
         <v>1671</v>
@@ -10991,7 +10994,7 @@
         <v>2932</v>
       </c>
       <c r="I165">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="J165">
         <v>11589</v>
@@ -11038,7 +11041,7 @@
         <v>825</v>
       </c>
       <c r="C166">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D166">
         <v>1578</v>
@@ -11156,7 +11159,7 @@
         <v>831</v>
       </c>
       <c r="C168">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D168">
         <v>1616</v>
@@ -11215,7 +11218,7 @@
         <v>973</v>
       </c>
       <c r="C169">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D169">
         <v>1820</v>
@@ -11333,7 +11336,7 @@
         <v>928</v>
       </c>
       <c r="C171">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D171">
         <v>1790</v>
@@ -11392,7 +11395,7 @@
         <v>896</v>
       </c>
       <c r="C172">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D172">
         <v>1778</v>
@@ -11451,7 +11454,7 @@
         <v>924</v>
       </c>
       <c r="C173">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D173">
         <v>1793</v>
@@ -11510,7 +11513,7 @@
         <v>894</v>
       </c>
       <c r="C174">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D174">
         <v>1881</v>
@@ -11628,7 +11631,7 @@
         <v>908</v>
       </c>
       <c r="C176">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D176">
         <v>1708</v>
@@ -11687,7 +11690,7 @@
         <v>868</v>
       </c>
       <c r="C177">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D177">
         <v>1873</v>
@@ -11746,7 +11749,7 @@
         <v>886</v>
       </c>
       <c r="C178">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D178">
         <v>1806</v>
@@ -11923,7 +11926,7 @@
         <v>1184</v>
       </c>
       <c r="C181">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D181">
         <v>2062</v>
@@ -12065,7 +12068,7 @@
         <v>991</v>
       </c>
       <c r="C183">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D183">
         <v>2064</v>
@@ -12139,7 +12142,7 @@
         <v>1018</v>
       </c>
       <c r="C184">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D184">
         <v>1929</v>
@@ -12213,7 +12216,7 @@
         <v>1022</v>
       </c>
       <c r="C185">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D185">
         <v>1975</v>
@@ -12287,7 +12290,7 @@
         <v>965</v>
       </c>
       <c r="C186">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D186">
         <v>1987</v>
@@ -12299,7 +12302,7 @@
         <v>3396</v>
       </c>
       <c r="I186">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="J186">
         <v>13228</v>
@@ -12361,7 +12364,7 @@
         <v>1005</v>
       </c>
       <c r="C187">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D187">
         <v>1947</v>
@@ -12435,7 +12438,7 @@
         <v>948</v>
       </c>
       <c r="C188">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D188">
         <v>1930</v>
@@ -12509,7 +12512,7 @@
         <v>930</v>
       </c>
       <c r="C189">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D189">
         <v>1878</v>
@@ -12583,7 +12586,7 @@
         <v>991</v>
       </c>
       <c r="C190">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D190">
         <v>1946</v>
@@ -12657,7 +12660,7 @@
         <v>964</v>
       </c>
       <c r="C191">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D191">
         <v>1967</v>
@@ -12731,7 +12734,7 @@
         <v>969</v>
       </c>
       <c r="C192">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D192">
         <v>1940</v>
@@ -12805,7 +12808,7 @@
         <v>1127</v>
       </c>
       <c r="C193">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D193">
         <v>2371</v>
@@ -12953,7 +12956,7 @@
         <v>1017</v>
       </c>
       <c r="C195">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D195">
         <v>2142</v>
@@ -13027,7 +13030,7 @@
         <v>1075</v>
       </c>
       <c r="C196">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D196">
         <v>2335</v>
@@ -13101,7 +13104,7 @@
         <v>1047</v>
       </c>
       <c r="C197">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D197">
         <v>2354</v>
@@ -13175,7 +13178,7 @@
         <v>1037</v>
       </c>
       <c r="C198">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D198">
         <v>2249</v>
@@ -13323,7 +13326,7 @@
         <v>1019</v>
       </c>
       <c r="C200">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D200">
         <v>2250</v>
@@ -13397,7 +13400,7 @@
         <v>1069</v>
       </c>
       <c r="C201">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D201">
         <v>2125</v>
@@ -13545,7 +13548,7 @@
         <v>1072</v>
       </c>
       <c r="C203">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D203">
         <v>2253</v>
@@ -13619,7 +13622,7 @@
         <v>1129</v>
       </c>
       <c r="C204">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D204">
         <v>2319</v>
@@ -13693,7 +13696,7 @@
         <v>1231</v>
       </c>
       <c r="C205">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D205">
         <v>2666</v>
@@ -13767,7 +13770,7 @@
         <v>1116</v>
       </c>
       <c r="C206">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D206">
         <v>2472</v>
@@ -13841,7 +13844,7 @@
         <v>1117</v>
       </c>
       <c r="C207">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D207">
         <v>2424</v>
@@ -13989,7 +13992,7 @@
         <v>1117</v>
       </c>
       <c r="C209">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D209">
         <v>2405</v>
@@ -14063,7 +14066,7 @@
         <v>1183</v>
       </c>
       <c r="C210">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D210">
         <v>2577</v>
@@ -14211,7 +14214,7 @@
         <v>1117</v>
       </c>
       <c r="C212">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D212">
         <v>2557</v>
@@ -14359,7 +14362,7 @@
         <v>1163</v>
       </c>
       <c r="C214">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D214">
         <v>2669</v>
@@ -14433,7 +14436,7 @@
         <v>1219</v>
       </c>
       <c r="C215">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D215">
         <v>2524</v>
@@ -14584,7 +14587,7 @@
         <v>1320</v>
       </c>
       <c r="C217">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D217">
         <v>2944</v>
@@ -14661,7 +14664,7 @@
         <v>1278</v>
       </c>
       <c r="C218">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D218">
         <v>2892</v>
@@ -14738,7 +14741,7 @@
         <v>1286</v>
       </c>
       <c r="C219">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D219">
         <v>2872</v>
@@ -14815,7 +14818,7 @@
         <v>1253</v>
       </c>
       <c r="C220">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D220">
         <v>3203</v>
@@ -14892,7 +14895,7 @@
         <v>1255</v>
       </c>
       <c r="C221">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D221">
         <v>3031</v>
@@ -14904,7 +14907,7 @@
         <v>5464</v>
       </c>
       <c r="I221">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="J221">
         <v>14089</v>
@@ -14969,7 +14972,7 @@
         <v>1289</v>
       </c>
       <c r="C222">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D222">
         <v>3063</v>
@@ -14981,7 +14984,7 @@
         <v>5362</v>
       </c>
       <c r="I222">
-        <v>5275</v>
+        <v>5274</v>
       </c>
       <c r="J222">
         <v>13655</v>
@@ -15123,7 +15126,7 @@
         <v>1203</v>
       </c>
       <c r="C224">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D224">
         <v>2867</v>
@@ -15277,7 +15280,7 @@
         <v>1204</v>
       </c>
       <c r="C226">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D226">
         <v>2853</v>
@@ -15354,7 +15357,7 @@
         <v>1274</v>
       </c>
       <c r="C227">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D227">
         <v>2867</v>
@@ -15508,7 +15511,7 @@
         <v>1407</v>
       </c>
       <c r="C229">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D229">
         <v>3291</v>
@@ -15662,7 +15665,7 @@
         <v>1370</v>
       </c>
       <c r="C231">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="D231">
         <v>3262</v>
@@ -15816,7 +15819,7 @@
         <v>1396</v>
       </c>
       <c r="C233">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D233">
         <v>3502</v>
@@ -15893,7 +15896,7 @@
         <v>1390</v>
       </c>
       <c r="C234">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D234">
         <v>3639</v>
@@ -15970,7 +15973,7 @@
         <v>1354</v>
       </c>
       <c r="C235">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D235">
         <v>3783</v>
@@ -15982,7 +15985,7 @@
         <v>6480</v>
       </c>
       <c r="I235">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="J235">
         <v>14978</v>
@@ -16047,7 +16050,7 @@
         <v>1397</v>
       </c>
       <c r="C236">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D236">
         <v>3464</v>
@@ -16059,7 +16062,7 @@
         <v>6497</v>
       </c>
       <c r="I236">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="J236">
         <v>15673</v>
@@ -16124,7 +16127,7 @@
         <v>1348</v>
       </c>
       <c r="C237">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D237">
         <v>3431</v>
@@ -16201,7 +16204,7 @@
         <v>1373</v>
       </c>
       <c r="C238">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D238">
         <v>3417</v>
@@ -16278,7 +16281,7 @@
         <v>1463</v>
       </c>
       <c r="C239">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D239">
         <v>3616</v>
@@ -16355,7 +16358,7 @@
         <v>1433</v>
       </c>
       <c r="C240">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D240">
         <v>3536</v>
@@ -16432,7 +16435,7 @@
         <v>1627</v>
       </c>
       <c r="C241">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D241">
         <v>3886</v>
@@ -16740,7 +16743,7 @@
         <v>1592</v>
       </c>
       <c r="C245">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D245">
         <v>4153</v>
@@ -16894,7 +16897,7 @@
         <v>1572</v>
       </c>
       <c r="C247">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D247">
         <v>4032</v>
@@ -17125,7 +17128,7 @@
         <v>1659</v>
       </c>
       <c r="C250">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D250">
         <v>3865</v>
@@ -17202,7 +17205,7 @@
         <v>1667</v>
       </c>
       <c r="C251">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D251">
         <v>3774</v>
@@ -17433,7 +17436,7 @@
         <v>1748</v>
       </c>
       <c r="C254">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D254">
         <v>4547</v>
@@ -17525,7 +17528,7 @@
         <v>1742</v>
       </c>
       <c r="C255">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D255">
         <v>4522</v>
@@ -17617,7 +17620,7 @@
         <v>1814</v>
       </c>
       <c r="C256">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="D256">
         <v>4539</v>
@@ -17629,7 +17632,7 @@
         <v>7862</v>
       </c>
       <c r="I256">
-        <v>7848</v>
+        <v>7849</v>
       </c>
       <c r="J256">
         <v>24239</v>
@@ -17709,7 +17712,7 @@
         <v>1819</v>
       </c>
       <c r="C257">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="D257">
         <v>4797</v>
@@ -17801,7 +17804,7 @@
         <v>1788</v>
       </c>
       <c r="C258">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="D258">
         <v>4759</v>
@@ -17985,7 +17988,7 @@
         <v>1807</v>
       </c>
       <c r="C260">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D260">
         <v>4591</v>
@@ -18077,7 +18080,7 @@
         <v>1769</v>
       </c>
       <c r="C261">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="D261">
         <v>4564</v>
@@ -18169,7 +18172,7 @@
         <v>1864</v>
       </c>
       <c r="C262">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D262">
         <v>4647</v>
@@ -18261,7 +18264,7 @@
         <v>1856</v>
       </c>
       <c r="C263">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D263">
         <v>4498</v>
@@ -18273,7 +18276,7 @@
         <v>7965</v>
       </c>
       <c r="I263">
-        <v>8259</v>
+        <v>8260</v>
       </c>
       <c r="J263">
         <v>26507</v>
@@ -18353,7 +18356,7 @@
         <v>1870</v>
       </c>
       <c r="C264">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="D264">
         <v>4665</v>
@@ -18365,7 +18368,7 @@
         <v>8425</v>
       </c>
       <c r="I264">
-        <v>8639</v>
+        <v>8638</v>
       </c>
       <c r="J264">
         <v>27015</v>
@@ -18445,7 +18448,7 @@
         <v>2149</v>
       </c>
       <c r="C265">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D265">
         <v>5161</v>
@@ -18537,7 +18540,7 @@
         <v>1989</v>
       </c>
       <c r="C266">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D266">
         <v>5189</v>
@@ -18629,7 +18632,7 @@
         <v>1993</v>
       </c>
       <c r="C267">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D267">
         <v>5301</v>
@@ -18721,7 +18724,7 @@
         <v>2068</v>
       </c>
       <c r="C268">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D268">
         <v>5413</v>
@@ -18813,7 +18816,7 @@
         <v>2057</v>
       </c>
       <c r="C269">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D269">
         <v>5512</v>
@@ -18905,7 +18908,7 @@
         <v>2047</v>
       </c>
       <c r="C270">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="D270">
         <v>5463</v>
@@ -18997,7 +19000,7 @@
         <v>2115</v>
       </c>
       <c r="C271">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D271">
         <v>5350</v>
@@ -19089,7 +19092,7 @@
         <v>2025</v>
       </c>
       <c r="C272">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D272">
         <v>5444</v>
@@ -19181,7 +19184,7 @@
         <v>2091</v>
       </c>
       <c r="C273">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="D273">
         <v>5372</v>
@@ -19273,7 +19276,7 @@
         <v>2104</v>
       </c>
       <c r="C274">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D274">
         <v>5423</v>
@@ -19365,7 +19368,7 @@
         <v>2099</v>
       </c>
       <c r="C275">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D275">
         <v>5280</v>
@@ -19377,7 +19380,7 @@
         <v>9590</v>
       </c>
       <c r="I275">
-        <v>9979</v>
+        <v>9980</v>
       </c>
       <c r="J275">
         <v>32634</v>
@@ -19561,7 +19564,7 @@
         <v>10797</v>
       </c>
       <c r="I277">
-        <v>10383</v>
+        <v>10384</v>
       </c>
       <c r="J277">
         <v>34802</v>
@@ -19641,7 +19644,7 @@
         <v>2254</v>
       </c>
       <c r="C278">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="D278">
         <v>6128</v>
@@ -19659,7 +19662,7 @@
         <v>10613</v>
       </c>
       <c r="I278">
-        <v>10457</v>
+        <v>10456</v>
       </c>
       <c r="J278">
         <v>35412</v>
@@ -19754,7 +19757,7 @@
         <v>2340</v>
       </c>
       <c r="C279">
-        <v>2318</v>
+        <v>2328</v>
       </c>
       <c r="D279">
         <v>5935</v>
@@ -19867,7 +19870,7 @@
         <v>2309</v>
       </c>
       <c r="C280">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D280">
         <v>6080</v>
@@ -19980,7 +19983,7 @@
         <v>2302</v>
       </c>
       <c r="C281">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D281">
         <v>6020</v>
@@ -20111,7 +20114,7 @@
         <v>10975</v>
       </c>
       <c r="I282">
-        <v>10636</v>
+        <v>10635</v>
       </c>
       <c r="J282">
         <v>36944</v>
@@ -20206,7 +20209,7 @@
         <v>2350</v>
       </c>
       <c r="C283">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D283">
         <v>6411</v>
@@ -20319,7 +20322,7 @@
         <v>2277</v>
       </c>
       <c r="C284">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D284">
         <v>5940</v>
@@ -20337,7 +20340,7 @@
         <v>10525</v>
       </c>
       <c r="I284">
-        <v>11081</v>
+        <v>11080</v>
       </c>
       <c r="J284">
         <v>37326</v>
@@ -20432,7 +20435,7 @@
         <v>2326</v>
       </c>
       <c r="C285">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="D285">
         <v>5969</v>
@@ -20545,7 +20548,7 @@
         <v>2316</v>
       </c>
       <c r="C286">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="D286">
         <v>6328</v>
@@ -20563,7 +20566,7 @@
         <v>10733</v>
       </c>
       <c r="I286">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="J286">
         <v>38169</v>
@@ -20658,7 +20661,7 @@
         <v>2441</v>
       </c>
       <c r="C287">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D287">
         <v>6101</v>
@@ -20771,7 +20774,7 @@
         <v>2452</v>
       </c>
       <c r="C288">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D288">
         <v>6219</v>
@@ -20789,7 +20792,7 @@
         <v>10765</v>
       </c>
       <c r="I288">
-        <v>10989</v>
+        <v>10990</v>
       </c>
       <c r="J288">
         <v>40776</v>
@@ -20884,7 +20887,7 @@
         <v>2676</v>
       </c>
       <c r="C289">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="D289">
         <v>6463</v>
@@ -20997,7 +21000,7 @@
         <v>2564</v>
       </c>
       <c r="C290">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="D290">
         <v>6482</v>
@@ -21015,7 +21018,7 @@
         <v>10979</v>
       </c>
       <c r="I290">
-        <v>10764</v>
+        <v>10763</v>
       </c>
       <c r="J290">
         <v>41091</v>
@@ -21110,7 +21113,7 @@
         <v>2547</v>
       </c>
       <c r="C291">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D291">
         <v>6489</v>
@@ -21223,7 +21226,7 @@
         <v>2515</v>
       </c>
       <c r="C292">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="D292">
         <v>6739</v>
@@ -21241,7 +21244,7 @@
         <v>11203</v>
       </c>
       <c r="I292">
-        <v>11216</v>
+        <v>11217</v>
       </c>
       <c r="J292">
         <v>39427</v>
@@ -21336,7 +21339,7 @@
         <v>2600</v>
       </c>
       <c r="C293">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="D293">
         <v>6801</v>
@@ -21449,7 +21452,7 @@
         <v>2607</v>
       </c>
       <c r="C294">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="D294">
         <v>7129</v>
@@ -21467,7 +21470,7 @@
         <v>12249</v>
       </c>
       <c r="I294">
-        <v>11840</v>
+        <v>11841</v>
       </c>
       <c r="J294">
         <v>38966</v>
@@ -21562,7 +21565,7 @@
         <v>2574</v>
       </c>
       <c r="C295">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="D295">
         <v>7277</v>
@@ -21580,7 +21583,7 @@
         <v>12150</v>
       </c>
       <c r="I295">
-        <v>12042</v>
+        <v>12043</v>
       </c>
       <c r="J295">
         <v>38937</v>
@@ -21675,7 +21678,7 @@
         <v>2582</v>
       </c>
       <c r="C296">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D296">
         <v>7027</v>
@@ -21788,7 +21791,7 @@
         <v>2621</v>
       </c>
       <c r="C297">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="D297">
         <v>7454</v>
@@ -21901,7 +21904,7 @@
         <v>2591</v>
       </c>
       <c r="C298">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D298">
         <v>7480</v>
@@ -22014,7 +22017,7 @@
         <v>2700</v>
       </c>
       <c r="C299">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="D299">
         <v>7504</v>
@@ -22032,7 +22035,7 @@
         <v>12802</v>
       </c>
       <c r="I299">
-        <v>13195</v>
+        <v>13196</v>
       </c>
       <c r="J299">
         <v>37599</v>
@@ -22240,7 +22243,7 @@
         <v>2935</v>
       </c>
       <c r="C301">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="D301">
         <v>8392</v>
@@ -22258,7 +22261,7 @@
         <v>14205</v>
       </c>
       <c r="I301">
-        <v>13875</v>
+        <v>13874</v>
       </c>
       <c r="J301">
         <v>37759</v>
@@ -22353,7 +22356,7 @@
         <v>2854</v>
       </c>
       <c r="C302">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="D302">
         <v>8640</v>
@@ -22371,7 +22374,7 @@
         <v>14549</v>
       </c>
       <c r="I302">
-        <v>14280</v>
+        <v>14278</v>
       </c>
       <c r="J302">
         <v>37961</v>
@@ -22466,7 +22469,7 @@
         <v>2877</v>
       </c>
       <c r="C303">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="D303">
         <v>8706</v>
@@ -22692,7 +22695,7 @@
         <v>3068</v>
       </c>
       <c r="C305">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="D305">
         <v>9312</v>
@@ -22710,7 +22713,7 @@
         <v>15711</v>
       </c>
       <c r="I305">
-        <v>15191</v>
+        <v>15190</v>
       </c>
       <c r="J305">
         <v>38583</v>
@@ -22805,7 +22808,7 @@
         <v>3096</v>
       </c>
       <c r="C306">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D306">
         <v>10011</v>
@@ -22823,7 +22826,7 @@
         <v>16220</v>
       </c>
       <c r="I306">
-        <v>15677</v>
+        <v>15678</v>
       </c>
       <c r="J306">
         <v>38917</v>
@@ -22918,7 +22921,7 @@
         <v>3043</v>
       </c>
       <c r="C307">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D307">
         <v>9694</v>
@@ -23031,7 +23034,7 @@
         <v>3083</v>
       </c>
       <c r="C308">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="D308">
         <v>9334</v>
@@ -23049,7 +23052,7 @@
         <v>15584</v>
       </c>
       <c r="I308">
-        <v>15917</v>
+        <v>15915</v>
       </c>
       <c r="J308">
         <v>38162</v>
@@ -23144,7 +23147,7 @@
         <v>3005</v>
       </c>
       <c r="C309">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D309">
         <v>9363</v>
@@ -23162,7 +23165,7 @@
         <v>15506</v>
       </c>
       <c r="I309">
-        <v>15940</v>
+        <v>15941</v>
       </c>
       <c r="J309">
         <v>38099</v>
@@ -23257,7 +23260,7 @@
         <v>3052</v>
       </c>
       <c r="C310">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="D310">
         <v>9212</v>
@@ -23275,7 +23278,7 @@
         <v>15774</v>
       </c>
       <c r="I310">
-        <v>16152</v>
+        <v>16151</v>
       </c>
       <c r="J310">
         <v>38242</v>
@@ -23370,7 +23373,7 @@
         <v>3127</v>
       </c>
       <c r="C311">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D311">
         <v>9338</v>
@@ -23388,7 +23391,7 @@
         <v>15868</v>
       </c>
       <c r="I311">
-        <v>16350</v>
+        <v>16351</v>
       </c>
       <c r="J311">
         <v>39254</v>
@@ -23483,7 +23486,7 @@
         <v>3092</v>
       </c>
       <c r="C312">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="D312">
         <v>9465</v>
@@ -23596,7 +23599,7 @@
         <v>3423</v>
       </c>
       <c r="C313">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="D313">
         <v>10026</v>
@@ -23614,7 +23617,7 @@
         <v>16888</v>
       </c>
       <c r="I313">
-        <v>16381</v>
+        <v>16382</v>
       </c>
       <c r="J313">
         <v>40248</v>
@@ -23709,7 +23712,7 @@
         <v>3296</v>
       </c>
       <c r="C314">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="D314">
         <v>10288</v>
@@ -23935,7 +23938,7 @@
         <v>3205</v>
       </c>
       <c r="C316">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="D316">
         <v>10226</v>
@@ -24048,7 +24051,7 @@
         <v>3335</v>
       </c>
       <c r="C317">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="D317">
         <v>10439</v>
@@ -24066,7 +24069,7 @@
         <v>17499</v>
       </c>
       <c r="I317">
-        <v>16981</v>
+        <v>16978</v>
       </c>
       <c r="J317">
         <v>42930</v>
@@ -24161,7 +24164,7 @@
         <v>3330</v>
       </c>
       <c r="C318">
-        <v>3366</v>
+        <v>3362</v>
       </c>
       <c r="D318">
         <v>10620</v>
@@ -24179,7 +24182,7 @@
         <v>17341</v>
       </c>
       <c r="I318">
-        <v>16883</v>
+        <v>16887</v>
       </c>
       <c r="J318">
         <v>44374</v>
@@ -24274,7 +24277,7 @@
         <v>3307</v>
       </c>
       <c r="C319">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="D319">
         <v>10489</v>
@@ -24292,7 +24295,7 @@
         <v>17425</v>
       </c>
       <c r="I319">
-        <v>17190</v>
+        <v>17189</v>
       </c>
       <c r="J319">
         <v>44742</v>
@@ -24387,7 +24390,7 @@
         <v>3355</v>
       </c>
       <c r="C320">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="D320">
         <v>10176</v>
@@ -24405,7 +24408,7 @@
         <v>16882</v>
       </c>
       <c r="I320">
-        <v>17189</v>
+        <v>17190</v>
       </c>
       <c r="J320">
         <v>46218</v>
@@ -24613,7 +24616,7 @@
         <v>3494</v>
       </c>
       <c r="C322">
-        <v>3506</v>
+        <v>3511</v>
       </c>
       <c r="D322">
         <v>10406</v>
@@ -24631,7 +24634,7 @@
         <v>17410</v>
       </c>
       <c r="I322">
-        <v>17801</v>
+        <v>17800</v>
       </c>
       <c r="J322">
         <v>48852</v>
@@ -24726,7 +24729,7 @@
         <v>3562</v>
       </c>
       <c r="C323">
-        <v>3556</v>
+        <v>3552</v>
       </c>
       <c r="D323">
         <v>10422</v>
@@ -24839,7 +24842,7 @@
         <v>3505</v>
       </c>
       <c r="C324">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="D324">
         <v>10578</v>
@@ -25065,7 +25068,7 @@
         <v>3677</v>
       </c>
       <c r="C326">
-        <v>3679</v>
+        <v>3675</v>
       </c>
       <c r="D326">
         <v>11006</v>
@@ -25178,7 +25181,7 @@
         <v>3657</v>
       </c>
       <c r="C327">
-        <v>3668</v>
+        <v>3678</v>
       </c>
       <c r="D327">
         <v>11005</v>
@@ -25196,7 +25199,7 @@
         <v>18314</v>
       </c>
       <c r="I327">
-        <v>18418</v>
+        <v>18419</v>
       </c>
       <c r="J327">
         <v>52248</v>
@@ -25291,7 +25294,7 @@
         <v>3747</v>
       </c>
       <c r="C328">
-        <v>3725</v>
+        <v>3729</v>
       </c>
       <c r="D328">
         <v>11507</v>
@@ -25404,7 +25407,7 @@
         <v>3840</v>
       </c>
       <c r="C329">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="D329">
         <v>11439</v>
@@ -25422,7 +25425,7 @@
         <v>19522</v>
       </c>
       <c r="I329">
-        <v>19043</v>
+        <v>19039</v>
       </c>
       <c r="J329">
         <v>54813</v>
@@ -25517,7 +25520,7 @@
         <v>3797</v>
       </c>
       <c r="C330">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="D330">
         <v>11511</v>
@@ -25535,7 +25538,7 @@
         <v>19682</v>
       </c>
       <c r="I330">
-        <v>19187</v>
+        <v>19190</v>
       </c>
       <c r="J330">
         <v>56261</v>
@@ -25630,7 +25633,7 @@
         <v>3926</v>
       </c>
       <c r="C331">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="D331">
         <v>11550</v>
@@ -25648,7 +25651,7 @@
         <v>18593</v>
       </c>
       <c r="I331">
-        <v>18249</v>
+        <v>18248</v>
       </c>
       <c r="J331">
         <v>57509</v>
@@ -25743,7 +25746,7 @@
         <v>3857</v>
       </c>
       <c r="C332">
-        <v>3928</v>
+        <v>3924</v>
       </c>
       <c r="D332">
         <v>11290</v>
@@ -25761,7 +25764,7 @@
         <v>18299</v>
       </c>
       <c r="I332">
-        <v>18710</v>
+        <v>18711</v>
       </c>
       <c r="J332">
         <v>57808</v>
@@ -25856,7 +25859,7 @@
         <v>3974</v>
       </c>
       <c r="C333">
-        <v>4039</v>
+        <v>4044</v>
       </c>
       <c r="D333">
         <v>11146</v>
@@ -25987,7 +25990,7 @@
         <v>18606</v>
       </c>
       <c r="I334">
-        <v>18735</v>
+        <v>18733</v>
       </c>
       <c r="J334">
         <v>58568</v>
@@ -26082,7 +26085,7 @@
         <v>4119</v>
       </c>
       <c r="C335">
-        <v>4184</v>
+        <v>4177</v>
       </c>
       <c r="D335">
         <v>10968</v>
@@ -26195,7 +26198,7 @@
         <v>4151</v>
       </c>
       <c r="C336">
-        <v>4167</v>
+        <v>4169</v>
       </c>
       <c r="D336">
         <v>11386</v>
@@ -26213,7 +26216,7 @@
         <v>18824</v>
       </c>
       <c r="I336">
-        <v>19232</v>
+        <v>19233</v>
       </c>
       <c r="J336">
         <v>58864</v>
@@ -26308,7 +26311,7 @@
         <v>4480</v>
       </c>
       <c r="C337">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="D337">
         <v>12831</v>
@@ -26421,7 +26424,7 @@
         <v>4238</v>
       </c>
       <c r="C338">
-        <v>4200</v>
+        <v>4204</v>
       </c>
       <c r="D338">
         <v>12071</v>
@@ -26534,7 +26537,7 @@
         <v>4227</v>
       </c>
       <c r="C339">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="D339">
         <v>12067</v>
@@ -26552,7 +26555,7 @@
         <v>19859</v>
       </c>
       <c r="I339">
-        <v>19849</v>
+        <v>19850</v>
       </c>
       <c r="J339">
         <v>59315</v>
@@ -26647,7 +26650,7 @@
         <v>4339</v>
       </c>
       <c r="C340">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="D340">
         <v>12181</v>
@@ -26665,7 +26668,7 @@
         <v>20125</v>
       </c>
       <c r="I340">
-        <v>19812</v>
+        <v>19813</v>
       </c>
       <c r="J340">
         <v>60653</v>
@@ -26760,7 +26763,7 @@
         <v>4302</v>
       </c>
       <c r="C341">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="D341">
         <v>12262</v>
@@ -26778,7 +26781,7 @@
         <v>20023</v>
       </c>
       <c r="I341">
-        <v>19841</v>
+        <v>19836</v>
       </c>
       <c r="J341">
         <v>60557</v>
@@ -26873,7 +26876,7 @@
         <v>4433</v>
       </c>
       <c r="C342">
-        <v>4375</v>
+        <v>4382</v>
       </c>
       <c r="D342">
         <v>12775</v>
@@ -26891,7 +26894,7 @@
         <v>21102</v>
       </c>
       <c r="I342">
-        <v>20382</v>
+        <v>20386</v>
       </c>
       <c r="J342">
         <v>62068</v>
@@ -26986,7 +26989,7 @@
         <v>4451</v>
       </c>
       <c r="C343">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="D343">
         <v>12715</v>
@@ -27099,7 +27102,7 @@
         <v>4365</v>
       </c>
       <c r="C344">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="D344">
         <v>12567</v>
@@ -27117,7 +27120,7 @@
         <v>20679</v>
       </c>
       <c r="I344">
-        <v>21063</v>
+        <v>21062</v>
       </c>
       <c r="J344">
         <v>63068</v>
@@ -27212,7 +27215,7 @@
         <v>4450</v>
       </c>
       <c r="C345">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="D345">
         <v>12359</v>
@@ -27325,7 +27328,7 @@
         <v>4557</v>
       </c>
       <c r="C346">
-        <v>4627</v>
+        <v>4619</v>
       </c>
       <c r="D346">
         <v>12671</v>
@@ -27438,7 +27441,7 @@
         <v>4604</v>
       </c>
       <c r="C347">
-        <v>4683</v>
+        <v>4679</v>
       </c>
       <c r="D347">
         <v>12347</v>
@@ -27456,7 +27459,7 @@
         <v>20705</v>
       </c>
       <c r="I347">
-        <v>21667</v>
+        <v>21669</v>
       </c>
       <c r="J347">
         <v>64348</v>
@@ -27551,7 +27554,7 @@
         <v>4642</v>
       </c>
       <c r="C348">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="D348">
         <v>12725</v>
@@ -27569,7 +27572,7 @@
         <v>21224</v>
       </c>
       <c r="I348">
-        <v>21636</v>
+        <v>21635</v>
       </c>
       <c r="J348">
         <v>64481</v>
@@ -27664,7 +27667,7 @@
         <v>4985</v>
       </c>
       <c r="C349">
-        <v>4751</v>
+        <v>4745</v>
       </c>
       <c r="D349">
         <v>14185</v>
@@ -27682,7 +27685,7 @@
         <v>22784</v>
       </c>
       <c r="I349">
-        <v>21816</v>
+        <v>21817</v>
       </c>
       <c r="J349">
         <v>64533</v>
@@ -27777,7 +27780,7 @@
         <v>4820</v>
       </c>
       <c r="C350">
-        <v>4741</v>
+        <v>4745</v>
       </c>
       <c r="D350">
         <v>13490</v>
@@ -27890,7 +27893,7 @@
         <v>4819</v>
       </c>
       <c r="C351">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="D351">
         <v>13253</v>
@@ -27908,7 +27911,7 @@
         <v>22238</v>
       </c>
       <c r="I351">
-        <v>22195</v>
+        <v>22196</v>
       </c>
       <c r="J351">
         <v>65737</v>
@@ -28003,7 +28006,7 @@
         <v>4794</v>
       </c>
       <c r="C352">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="D352">
         <v>13702</v>
@@ -28021,7 +28024,7 @@
         <v>22955</v>
       </c>
       <c r="I352">
-        <v>22640</v>
+        <v>22641</v>
       </c>
       <c r="J352">
         <v>65849</v>
@@ -28116,7 +28119,7 @@
         <v>4788</v>
       </c>
       <c r="C353">
-        <v>4813</v>
+        <v>4810</v>
       </c>
       <c r="D353">
         <v>13671</v>
@@ -28134,7 +28137,7 @@
         <v>22575</v>
       </c>
       <c r="I353">
-        <v>22545</v>
+        <v>22539</v>
       </c>
       <c r="J353">
         <v>64531</v>
@@ -28229,7 +28232,7 @@
         <v>4848</v>
       </c>
       <c r="C354">
-        <v>4805</v>
+        <v>4803</v>
       </c>
       <c r="D354">
         <v>14037</v>
@@ -28247,7 +28250,7 @@
         <v>23713</v>
       </c>
       <c r="I354">
-        <v>22972</v>
+        <v>22974</v>
       </c>
       <c r="J354">
         <v>64303</v>
@@ -28342,7 +28345,7 @@
         <v>4861</v>
       </c>
       <c r="C355">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="D355">
         <v>13958</v>
@@ -28455,7 +28458,7 @@
         <v>4753</v>
       </c>
       <c r="C356">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="D356">
         <v>13824</v>
@@ -28473,7 +28476,7 @@
         <v>23025</v>
       </c>
       <c r="I356">
-        <v>23514</v>
+        <v>23513</v>
       </c>
       <c r="J356">
         <v>66329</v>
@@ -28568,7 +28571,7 @@
         <v>4815</v>
       </c>
       <c r="C357">
-        <v>4894</v>
+        <v>4891</v>
       </c>
       <c r="D357">
         <v>14005</v>
@@ -28586,7 +28589,7 @@
         <v>23395</v>
       </c>
       <c r="I357">
-        <v>23775</v>
+        <v>23776</v>
       </c>
       <c r="J357">
         <v>66170</v>
@@ -28681,7 +28684,7 @@
         <v>4827</v>
       </c>
       <c r="C358">
-        <v>4974</v>
+        <v>4967</v>
       </c>
       <c r="D358">
         <v>13989</v>
@@ -28794,7 +28797,7 @@
         <v>4925</v>
       </c>
       <c r="C359">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="D359">
         <v>13602</v>
@@ -28907,7 +28910,7 @@
         <v>5011</v>
       </c>
       <c r="C360">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="D360">
         <v>14438</v>
@@ -28925,7 +28928,7 @@
         <v>24120</v>
       </c>
       <c r="I360">
-        <v>24498</v>
+        <v>24500</v>
       </c>
       <c r="J360">
         <v>69135</v>
@@ -29020,7 +29023,7 @@
         <v>5371</v>
       </c>
       <c r="C361">
-        <v>5118</v>
+        <v>5114</v>
       </c>
       <c r="D361">
         <v>15640</v>
@@ -29038,7 +29041,7 @@
         <v>25824</v>
       </c>
       <c r="I361">
-        <v>24856</v>
+        <v>24857</v>
       </c>
       <c r="J361">
         <v>69350</v>
@@ -29151,7 +29154,7 @@
         <v>25570</v>
       </c>
       <c r="I362">
-        <v>25099</v>
+        <v>25098</v>
       </c>
       <c r="J362">
         <v>69487</v>
@@ -29246,7 +29249,7 @@
         <v>5252</v>
       </c>
       <c r="C363">
-        <v>5242</v>
+        <v>5243</v>
       </c>
       <c r="D363">
         <v>15329</v>
@@ -29264,7 +29267,7 @@
         <v>25484</v>
       </c>
       <c r="I363">
-        <v>25441</v>
+        <v>25442</v>
       </c>
       <c r="J363">
         <v>68787</v>
@@ -29359,7 +29362,7 @@
         <v>5230</v>
       </c>
       <c r="C364">
-        <v>5286</v>
+        <v>5281</v>
       </c>
       <c r="D364">
         <v>15646</v>
@@ -29377,7 +29380,7 @@
         <v>25703</v>
       </c>
       <c r="I364">
-        <v>25546</v>
+        <v>25547</v>
       </c>
       <c r="J364">
         <v>70310</v>
@@ -29472,7 +29475,7 @@
         <v>5334</v>
       </c>
       <c r="C365">
-        <v>5328</v>
+        <v>5332</v>
       </c>
       <c r="D365">
         <v>15567</v>
@@ -29490,7 +29493,7 @@
         <v>25506</v>
       </c>
       <c r="I365">
-        <v>25467</v>
+        <v>25461</v>
       </c>
       <c r="J365">
         <v>70597</v>
@@ -29585,7 +29588,7 @@
         <v>5462</v>
       </c>
       <c r="C366">
-        <v>5433</v>
+        <v>5428</v>
       </c>
       <c r="D366">
         <v>16184</v>
@@ -29603,7 +29606,7 @@
         <v>26968</v>
       </c>
       <c r="I366">
-        <v>26191</v>
+        <v>26194</v>
       </c>
       <c r="J366">
         <v>71006</v>
@@ -29698,7 +29701,7 @@
         <v>5444</v>
       </c>
       <c r="C367">
-        <v>5496</v>
+        <v>5490</v>
       </c>
       <c r="D367">
         <v>16196</v>
@@ -29811,7 +29814,7 @@
         <v>5378</v>
       </c>
       <c r="C368">
-        <v>5459</v>
+        <v>5463</v>
       </c>
       <c r="D368">
         <v>16030</v>
@@ -29829,7 +29832,7 @@
         <v>26644</v>
       </c>
       <c r="I368">
-        <v>27051</v>
+        <v>27050</v>
       </c>
       <c r="J368">
         <v>74166</v>
@@ -29924,7 +29927,7 @@
         <v>5451</v>
       </c>
       <c r="C369">
-        <v>5572</v>
+        <v>5570</v>
       </c>
       <c r="D369">
         <v>15910</v>
@@ -29942,7 +29945,7 @@
         <v>26411</v>
       </c>
       <c r="I369">
-        <v>26748</v>
+        <v>26750</v>
       </c>
       <c r="J369">
         <v>74891</v>
@@ -30055,7 +30058,7 @@
         <v>26984</v>
       </c>
       <c r="I370">
-        <v>27928</v>
+        <v>27930</v>
       </c>
       <c r="J370">
         <v>75655</v>
@@ -30150,7 +30153,7 @@
         <v>5493</v>
       </c>
       <c r="C371">
-        <v>5469</v>
+        <v>5470</v>
       </c>
       <c r="D371">
         <v>15990</v>
@@ -30281,7 +30284,7 @@
         <v>27422</v>
       </c>
       <c r="I372">
-        <v>27774</v>
+        <v>27776</v>
       </c>
       <c r="J372">
         <v>77117</v>
@@ -30376,7 +30379,7 @@
         <v>5858</v>
       </c>
       <c r="C373">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D373">
         <v>17818</v>
@@ -30394,7 +30397,7 @@
         <v>29419</v>
       </c>
       <c r="I373">
-        <v>28297</v>
+        <v>28296</v>
       </c>
       <c r="J373">
         <v>77498</v>
@@ -30489,7 +30492,7 @@
         <v>5716</v>
       </c>
       <c r="C374">
-        <v>5628</v>
+        <v>5625</v>
       </c>
       <c r="D374">
         <v>17793</v>
@@ -30602,7 +30605,7 @@
         <v>5793</v>
       </c>
       <c r="C375">
-        <v>5831</v>
+        <v>5848</v>
       </c>
       <c r="D375">
         <v>17417</v>
@@ -30620,7 +30623,7 @@
         <v>28437</v>
       </c>
       <c r="I375">
-        <v>28419</v>
+        <v>28420</v>
       </c>
       <c r="J375">
         <v>78243</v>
@@ -30715,7 +30718,7 @@
         <v>5659</v>
       </c>
       <c r="C376">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="D376">
         <v>17006</v>
@@ -30846,7 +30849,7 @@
         <v>28189</v>
       </c>
       <c r="I377">
-        <v>28078</v>
+        <v>28072</v>
       </c>
       <c r="J377">
         <v>79261</v>
@@ -30941,7 +30944,7 @@
         <v>5784</v>
       </c>
       <c r="C378">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="D378">
         <v>17484</v>
@@ -30959,7 +30962,7 @@
         <v>28274</v>
       </c>
       <c r="I378">
-        <v>27755</v>
+        <v>27759</v>
       </c>
       <c r="J378">
         <v>80550</v>
@@ -31054,7 +31057,7 @@
         <v>5743</v>
       </c>
       <c r="C379">
-        <v>5734</v>
+        <v>5740</v>
       </c>
       <c r="D379">
         <v>17030</v>
@@ -31072,7 +31075,7 @@
         <v>28201</v>
       </c>
       <c r="I379">
-        <v>28018</v>
+        <v>28017</v>
       </c>
       <c r="J379">
         <v>80916</v>
@@ -31167,7 +31170,7 @@
         <v>5771</v>
       </c>
       <c r="C380">
-        <v>5817</v>
+        <v>5816</v>
       </c>
       <c r="D380">
         <v>16784</v>
@@ -31185,7 +31188,7 @@
         <v>27812</v>
       </c>
       <c r="I380">
-        <v>28061</v>
+        <v>28059</v>
       </c>
       <c r="J380">
         <v>81173</v>
@@ -31280,7 +31283,7 @@
         <v>5714</v>
       </c>
       <c r="C381">
-        <v>5867</v>
+        <v>5864</v>
       </c>
       <c r="D381">
         <v>16753</v>
@@ -31298,7 +31301,7 @@
         <v>27588</v>
       </c>
       <c r="I381">
-        <v>28192</v>
+        <v>28194</v>
       </c>
       <c r="J381">
         <v>81743</v>
@@ -31393,7 +31396,7 @@
         <v>5885</v>
       </c>
       <c r="C382">
-        <v>5904</v>
+        <v>5912</v>
       </c>
       <c r="D382">
         <v>16696</v>
@@ -31411,7 +31414,7 @@
         <v>27602</v>
       </c>
       <c r="I382">
-        <v>28342</v>
+        <v>28345</v>
       </c>
       <c r="J382">
         <v>83417</v>
@@ -31506,7 +31509,7 @@
         <v>5946</v>
       </c>
       <c r="C383">
-        <v>5938</v>
+        <v>5928</v>
       </c>
       <c r="D383">
         <v>16665</v>
@@ -31524,7 +31527,7 @@
         <v>27583</v>
       </c>
       <c r="I383">
-        <v>28423</v>
+        <v>28424</v>
       </c>
       <c r="J383">
         <v>84346</v>
@@ -31619,7 +31622,7 @@
         <v>5875</v>
       </c>
       <c r="C384">
-        <v>5906</v>
+        <v>5908</v>
       </c>
       <c r="D384">
         <v>17594</v>
@@ -31750,7 +31753,7 @@
         <v>30319</v>
       </c>
       <c r="I385">
-        <v>29139</v>
+        <v>29140</v>
       </c>
       <c r="J385">
         <v>83851</v>
@@ -31845,7 +31848,7 @@
         <v>6050</v>
       </c>
       <c r="C386">
-        <v>6057</v>
+        <v>6052</v>
       </c>
       <c r="D386">
         <v>18233</v>
@@ -31863,7 +31866,7 @@
         <v>29536</v>
       </c>
       <c r="I386">
-        <v>29204</v>
+        <v>29207</v>
       </c>
       <c r="J386">
         <v>82224</v>
@@ -31958,7 +31961,7 @@
         <v>6017</v>
       </c>
       <c r="C387">
-        <v>6000</v>
+        <v>6006</v>
       </c>
       <c r="D387">
         <v>17881</v>
@@ -31976,7 +31979,7 @@
         <v>29361</v>
       </c>
       <c r="I387">
-        <v>29471</v>
+        <v>29473</v>
       </c>
       <c r="J387">
         <v>81816</v>
@@ -32071,7 +32074,7 @@
         <v>6050</v>
       </c>
       <c r="C388">
-        <v>6020</v>
+        <v>6031</v>
       </c>
       <c r="D388">
         <v>18505</v>
@@ -32089,7 +32092,7 @@
         <v>29789</v>
       </c>
       <c r="I388">
-        <v>29737</v>
+        <v>29738</v>
       </c>
       <c r="J388">
         <v>82627</v>
@@ -32184,7 +32187,7 @@
         <v>6115</v>
       </c>
       <c r="C389">
-        <v>6050</v>
+        <v>6047</v>
       </c>
       <c r="D389">
         <v>19255</v>
@@ -32202,7 +32205,7 @@
         <v>30230</v>
       </c>
       <c r="I389">
-        <v>30058</v>
+        <v>30051</v>
       </c>
       <c r="J389">
         <v>81448</v>
@@ -32297,7 +32300,7 @@
         <v>6071</v>
       </c>
       <c r="C390">
-        <v>6133</v>
+        <v>6138</v>
       </c>
       <c r="D390">
         <v>19381</v>
@@ -32410,7 +32413,7 @@
         <v>6119</v>
       </c>
       <c r="C391">
-        <v>6058</v>
+        <v>6065</v>
       </c>
       <c r="D391">
         <v>19194</v>
@@ -32428,7 +32431,7 @@
         <v>31099</v>
       </c>
       <c r="I391">
-        <v>30694</v>
+        <v>30692</v>
       </c>
       <c r="J391">
         <v>83373</v>
@@ -32523,7 +32526,7 @@
         <v>6143</v>
       </c>
       <c r="C392">
-        <v>6267</v>
+        <v>6263</v>
       </c>
       <c r="D392">
         <v>18836</v>
@@ -32541,7 +32544,7 @@
         <v>30671</v>
       </c>
       <c r="I392">
-        <v>30903</v>
+        <v>30894</v>
       </c>
       <c r="J392">
         <v>84037</v>
@@ -32636,7 +32639,7 @@
         <v>5989</v>
       </c>
       <c r="C393">
-        <v>6109</v>
+        <v>6110</v>
       </c>
       <c r="D393">
         <v>18659</v>
@@ -32654,7 +32657,7 @@
         <v>30865</v>
       </c>
       <c r="I393">
-        <v>31287</v>
+        <v>31291</v>
       </c>
       <c r="J393">
         <v>86945</v>
@@ -32749,7 +32752,7 @@
         <v>6125</v>
       </c>
       <c r="C394">
-        <v>6082</v>
+        <v>6086</v>
       </c>
       <c r="D394">
         <v>18779</v>
@@ -32767,7 +32770,7 @@
         <v>30890</v>
       </c>
       <c r="I394">
-        <v>31391</v>
+        <v>31395</v>
       </c>
       <c r="J394">
         <v>87209</v>
@@ -32862,7 +32865,7 @@
         <v>6050</v>
       </c>
       <c r="C395">
-        <v>6095</v>
+        <v>6085</v>
       </c>
       <c r="D395">
         <v>18562</v>
@@ -32880,7 +32883,7 @@
         <v>30753</v>
       </c>
       <c r="I395">
-        <v>31591</v>
+        <v>31596</v>
       </c>
       <c r="J395">
         <v>85099</v>
@@ -32993,7 +32996,7 @@
         <v>32076</v>
       </c>
       <c r="I396">
-        <v>32328</v>
+        <v>32326</v>
       </c>
       <c r="J396">
         <v>85838</v>
@@ -33088,7 +33091,7 @@
         <v>6528</v>
       </c>
       <c r="C397">
-        <v>6186</v>
+        <v>6179</v>
       </c>
       <c r="D397">
         <v>20424</v>
@@ -33106,7 +33109,7 @@
         <v>33566</v>
       </c>
       <c r="I397">
-        <v>32389</v>
+        <v>32394</v>
       </c>
       <c r="J397">
         <v>85719</v>
@@ -33201,7 +33204,7 @@
         <v>6307</v>
       </c>
       <c r="C398">
-        <v>6276</v>
+        <v>6274</v>
       </c>
       <c r="D398">
         <v>20497</v>
@@ -33219,7 +33222,7 @@
         <v>33339</v>
       </c>
       <c r="I398">
-        <v>33189</v>
+        <v>33192</v>
       </c>
       <c r="J398">
         <v>88660</v>
@@ -33314,7 +33317,7 @@
         <v>6277</v>
       </c>
       <c r="C399">
-        <v>6258</v>
+        <v>6268</v>
       </c>
       <c r="D399">
         <v>19951</v>
@@ -33332,7 +33335,7 @@
         <v>32865</v>
       </c>
       <c r="I399">
-        <v>33134</v>
+        <v>33136</v>
       </c>
       <c r="J399">
         <v>88182</v>
@@ -33427,7 +33430,7 @@
         <v>6353</v>
       </c>
       <c r="C400">
-        <v>6333</v>
+        <v>6337</v>
       </c>
       <c r="D400">
         <v>20688</v>
@@ -33445,7 +33448,7 @@
         <v>33747</v>
       </c>
       <c r="I400">
-        <v>33589</v>
+        <v>33586</v>
       </c>
       <c r="J400">
         <v>91499</v>
@@ -33540,7 +33543,7 @@
         <v>6391</v>
       </c>
       <c r="C401">
-        <v>6344</v>
+        <v>6349</v>
       </c>
       <c r="D401">
         <v>20798</v>
@@ -33558,7 +33561,7 @@
         <v>33832</v>
       </c>
       <c r="I401">
-        <v>33710</v>
+        <v>33701</v>
       </c>
       <c r="J401">
         <v>90165</v>
@@ -33653,7 +33656,7 @@
         <v>6294</v>
       </c>
       <c r="C402">
-        <v>6261</v>
+        <v>6277</v>
       </c>
       <c r="D402">
         <v>21771</v>
@@ -33671,7 +33674,7 @@
         <v>35200</v>
       </c>
       <c r="I402">
-        <v>34499</v>
+        <v>34495</v>
       </c>
       <c r="J402">
         <v>92220</v>
@@ -33766,7 +33769,7 @@
         <v>6345</v>
       </c>
       <c r="C403">
-        <v>6322</v>
+        <v>6329</v>
       </c>
       <c r="D403">
         <v>21425</v>
@@ -33784,7 +33787,7 @@
         <v>34887</v>
       </c>
       <c r="I403">
-        <v>34230</v>
+        <v>34222</v>
       </c>
       <c r="J403">
         <v>89908</v>
@@ -33879,7 +33882,7 @@
         <v>6288</v>
       </c>
       <c r="C404">
-        <v>6323</v>
+        <v>6320</v>
       </c>
       <c r="D404">
         <v>20668</v>
@@ -33897,7 +33900,7 @@
         <v>33665</v>
       </c>
       <c r="I404">
-        <v>33950</v>
+        <v>33933</v>
       </c>
       <c r="J404">
         <v>91666</v>
@@ -33992,7 +33995,7 @@
         <v>6357</v>
       </c>
       <c r="C405">
-        <v>6441</v>
+        <v>6430</v>
       </c>
       <c r="D405">
         <v>21213</v>
@@ -34010,7 +34013,7 @@
         <v>34626</v>
       </c>
       <c r="I405">
-        <v>34866</v>
+        <v>34883</v>
       </c>
       <c r="J405">
         <v>93918</v>
@@ -34105,7 +34108,7 @@
         <v>6412</v>
       </c>
       <c r="C406">
-        <v>6370</v>
+        <v>6364</v>
       </c>
       <c r="D406">
         <v>21125</v>
@@ -34123,7 +34126,7 @@
         <v>34554</v>
       </c>
       <c r="I406">
-        <v>34842</v>
+        <v>34853</v>
       </c>
       <c r="J406">
         <v>93121</v>
@@ -34218,7 +34221,7 @@
         <v>6458</v>
       </c>
       <c r="C407">
-        <v>6589</v>
+        <v>6571</v>
       </c>
       <c r="D407">
         <v>21107</v>
@@ -34236,7 +34239,7 @@
         <v>34565</v>
       </c>
       <c r="I407">
-        <v>35679</v>
+        <v>35687</v>
       </c>
       <c r="J407">
         <v>93368</v>
@@ -34331,7 +34334,7 @@
         <v>6454</v>
       </c>
       <c r="C408">
-        <v>6418</v>
+        <v>6413</v>
       </c>
       <c r="D408">
         <v>21522</v>
@@ -34349,7 +34352,7 @@
         <v>35215</v>
       </c>
       <c r="I408">
-        <v>35379</v>
+        <v>35378</v>
       </c>
       <c r="J408">
         <v>94636</v>
@@ -34444,7 +34447,7 @@
         <v>6740</v>
       </c>
       <c r="C409">
-        <v>6451</v>
+        <v>6448</v>
       </c>
       <c r="D409">
         <v>22634</v>
@@ -34462,7 +34465,7 @@
         <v>36856</v>
       </c>
       <c r="I409">
-        <v>35499</v>
+        <v>35508</v>
       </c>
       <c r="J409">
         <v>96004</v>
@@ -34557,7 +34560,7 @@
         <v>6503</v>
       </c>
       <c r="C410">
-        <v>6425</v>
+        <v>6432</v>
       </c>
       <c r="D410">
         <v>21875</v>
@@ -34575,7 +34578,7 @@
         <v>36169</v>
       </c>
       <c r="I410">
-        <v>35970</v>
+        <v>35973</v>
       </c>
       <c r="J410">
         <v>94519</v>
@@ -34670,7 +34673,7 @@
         <v>6509</v>
       </c>
       <c r="C411">
-        <v>6484</v>
+        <v>6498</v>
       </c>
       <c r="D411">
         <v>21721</v>
@@ -34688,7 +34691,7 @@
         <v>35902</v>
       </c>
       <c r="I411">
-        <v>36376</v>
+        <v>36378</v>
       </c>
       <c r="J411">
         <v>94252</v>
@@ -34783,7 +34786,7 @@
         <v>6531</v>
       </c>
       <c r="C412">
-        <v>6462</v>
+        <v>6465</v>
       </c>
       <c r="D412">
         <v>22552</v>
@@ -34801,7 +34804,7 @@
         <v>36803</v>
       </c>
       <c r="I412">
-        <v>36737</v>
+        <v>36736</v>
       </c>
       <c r="J412">
         <v>95405</v>
@@ -34896,7 +34899,7 @@
         <v>6520</v>
       </c>
       <c r="C413">
-        <v>6567</v>
+        <v>6570</v>
       </c>
       <c r="D413">
         <v>23278</v>
@@ -34914,7 +34917,7 @@
         <v>37392</v>
       </c>
       <c r="I413">
-        <v>37495</v>
+        <v>37479</v>
       </c>
       <c r="J413">
         <v>95245</v>
@@ -35009,7 +35012,7 @@
         <v>6628</v>
       </c>
       <c r="C414">
-        <v>6539</v>
+        <v>6562</v>
       </c>
       <c r="D414">
         <v>23560</v>
@@ -35027,7 +35030,7 @@
         <v>38075</v>
       </c>
       <c r="I414">
-        <v>36800</v>
+        <v>36790</v>
       </c>
       <c r="J414">
         <v>96786</v>
@@ -35122,7 +35125,7 @@
         <v>6614</v>
       </c>
       <c r="C415">
-        <v>6597</v>
+        <v>6607</v>
       </c>
       <c r="D415">
         <v>23301</v>
@@ -35140,7 +35143,7 @@
         <v>38159</v>
       </c>
       <c r="I415">
-        <v>37196</v>
+        <v>37180</v>
       </c>
       <c r="J415">
         <v>96166</v>
@@ -35235,7 +35238,7 @@
         <v>6557</v>
       </c>
       <c r="C416">
-        <v>6652</v>
+        <v>6666</v>
       </c>
       <c r="D416">
         <v>23476</v>
@@ -35253,7 +35256,7 @@
         <v>37901</v>
       </c>
       <c r="I416">
-        <v>37988</v>
+        <v>37955</v>
       </c>
       <c r="J416">
         <v>96547</v>
@@ -35348,7 +35351,7 @@
         <v>6645</v>
       </c>
       <c r="C417">
-        <v>6730</v>
+        <v>6695</v>
       </c>
       <c r="D417">
         <v>23754</v>
@@ -35366,7 +35369,7 @@
         <v>38583</v>
       </c>
       <c r="I417">
-        <v>38690</v>
+        <v>38724</v>
       </c>
       <c r="J417">
         <v>99054</v>
@@ -35461,7 +35464,7 @@
         <v>6776</v>
       </c>
       <c r="C418">
-        <v>6918</v>
+        <v>6900</v>
       </c>
       <c r="D418">
         <v>24490</v>
@@ -35479,7 +35482,7 @@
         <v>39372</v>
       </c>
       <c r="I418">
-        <v>39780</v>
+        <v>39801</v>
       </c>
       <c r="J418">
         <v>99435</v>
@@ -35574,7 +35577,7 @@
         <v>6974</v>
       </c>
       <c r="C419">
-        <v>7144</v>
+        <v>7127</v>
       </c>
       <c r="D419">
         <v>25327</v>
@@ -35592,7 +35595,7 @@
         <v>41034</v>
       </c>
       <c r="I419">
-        <v>42458</v>
+        <v>42477</v>
       </c>
       <c r="J419">
         <v>99214</v>
@@ -35687,7 +35690,7 @@
         <v>7241</v>
       </c>
       <c r="C420">
-        <v>7243</v>
+        <v>7226</v>
       </c>
       <c r="D420">
         <v>26029</v>
@@ -35705,7 +35708,7 @@
         <v>42245</v>
       </c>
       <c r="I420">
-        <v>42515</v>
+        <v>42513</v>
       </c>
       <c r="J420">
         <v>102085</v>
@@ -35800,7 +35803,7 @@
         <v>7575</v>
       </c>
       <c r="C421">
-        <v>7392</v>
+        <v>7373</v>
       </c>
       <c r="D421">
         <v>26853</v>
@@ -35818,7 +35821,7 @@
         <v>43633</v>
       </c>
       <c r="I421">
-        <v>42616</v>
+        <v>42631</v>
       </c>
       <c r="J421">
         <v>102259</v>
@@ -35913,7 +35916,7 @@
         <v>7389</v>
       </c>
       <c r="C422">
-        <v>7239</v>
+        <v>7244</v>
       </c>
       <c r="D422">
         <v>25798</v>
@@ -35931,7 +35934,7 @@
         <v>42621</v>
       </c>
       <c r="I422">
-        <v>42383</v>
+        <v>42388</v>
       </c>
       <c r="J422">
         <v>101396</v>
@@ -36026,7 +36029,7 @@
         <v>7457</v>
       </c>
       <c r="C423">
-        <v>7426</v>
+        <v>7458</v>
       </c>
       <c r="D423">
         <v>26307</v>
@@ -36044,7 +36047,7 @@
         <v>43378</v>
       </c>
       <c r="I423">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="J423">
         <v>101055</v>
@@ -36157,7 +36160,7 @@
         <v>46653</v>
       </c>
       <c r="I424">
-        <v>47036</v>
+        <v>47031</v>
       </c>
       <c r="J424">
         <v>101671</v>
@@ -36252,7 +36255,7 @@
         <v>8131</v>
       </c>
       <c r="C425">
-        <v>8104</v>
+        <v>8132</v>
       </c>
       <c r="D425">
         <v>30453</v>
@@ -36270,7 +36273,7 @@
         <v>48600</v>
       </c>
       <c r="I425">
-        <v>48783</v>
+        <v>48756</v>
       </c>
       <c r="J425">
         <v>98436</v>
@@ -36365,7 +36368,7 @@
         <v>8421</v>
       </c>
       <c r="C426">
-        <v>8379</v>
+        <v>8384</v>
       </c>
       <c r="D426">
         <v>33141</v>
@@ -36383,7 +36386,7 @@
         <v>51630</v>
       </c>
       <c r="I426">
-        <v>49893</v>
+        <v>49874</v>
       </c>
       <c r="J426">
         <v>96389</v>
@@ -36478,7 +36481,7 @@
         <v>8708</v>
       </c>
       <c r="C427">
-        <v>8774</v>
+        <v>8793</v>
       </c>
       <c r="D427">
         <v>34629</v>
@@ -36496,7 +36499,7 @@
         <v>52956</v>
       </c>
       <c r="I427">
-        <v>51785</v>
+        <v>51746</v>
       </c>
       <c r="J427">
         <v>92682</v>
@@ -36591,7 +36594,7 @@
         <v>9055</v>
       </c>
       <c r="C428">
-        <v>9030</v>
+        <v>9067</v>
       </c>
       <c r="D428">
         <v>34458</v>
@@ -36609,7 +36612,7 @@
         <v>53272</v>
       </c>
       <c r="I428">
-        <v>53154</v>
+        <v>53098</v>
       </c>
       <c r="J428">
         <v>87779</v>
@@ -36704,7 +36707,7 @@
         <v>10708</v>
       </c>
       <c r="C429">
-        <v>10981</v>
+        <v>10895</v>
       </c>
       <c r="D429">
         <v>37205</v>
@@ -36722,7 +36725,7 @@
         <v>62300</v>
       </c>
       <c r="I429">
-        <v>62370</v>
+        <v>62454</v>
       </c>
       <c r="J429">
         <v>82380</v>
@@ -36817,7 +36820,7 @@
         <v>11257</v>
       </c>
       <c r="C430">
-        <v>11613</v>
+        <v>11603</v>
       </c>
       <c r="D430">
         <v>37542</v>
@@ -36835,7 +36838,7 @@
         <v>63423</v>
       </c>
       <c r="I430">
-        <v>65179</v>
+        <v>65228</v>
       </c>
       <c r="J430">
         <v>80015</v>
@@ -36930,7 +36933,7 @@
         <v>11356</v>
       </c>
       <c r="C431">
-        <v>11381</v>
+        <v>11361</v>
       </c>
       <c r="D431">
         <v>37603</v>
@@ -36948,7 +36951,7 @@
         <v>62478</v>
       </c>
       <c r="I431">
-        <v>63985</v>
+        <v>64018</v>
       </c>
       <c r="J431">
         <v>79174</v>
@@ -37043,7 +37046,7 @@
         <v>11368</v>
       </c>
       <c r="C432">
-        <v>11440</v>
+        <v>11406</v>
       </c>
       <c r="D432">
         <v>37774</v>
@@ -37061,7 +37064,7 @@
         <v>62397</v>
       </c>
       <c r="I432">
-        <v>63005</v>
+        <v>63014</v>
       </c>
       <c r="J432">
         <v>78345</v>
@@ -37156,7 +37159,7 @@
         <v>12180</v>
       </c>
       <c r="C433">
-        <v>11880</v>
+        <v>11875</v>
       </c>
       <c r="D433">
         <v>39185</v>
@@ -37174,7 +37177,7 @@
         <v>68573</v>
       </c>
       <c r="I433">
-        <v>67340</v>
+        <v>67359</v>
       </c>
       <c r="J433">
         <v>77447</v>
@@ -37269,7 +37272,7 @@
         <v>12586</v>
       </c>
       <c r="C434">
-        <v>12367</v>
+        <v>12356</v>
       </c>
       <c r="D434">
         <v>39406</v>
@@ -37287,7 +37290,7 @@
         <v>68803</v>
       </c>
       <c r="I434">
-        <v>68492</v>
+        <v>68499</v>
       </c>
       <c r="J434">
         <v>76229</v>
@@ -37382,7 +37385,7 @@
         <v>12618</v>
       </c>
       <c r="C435">
-        <v>12536</v>
+        <v>12559</v>
       </c>
       <c r="D435">
         <v>39843</v>
@@ -37400,7 +37403,7 @@
         <v>68709</v>
       </c>
       <c r="I435">
-        <v>70073</v>
+        <v>70069</v>
       </c>
       <c r="J435">
         <v>75169</v>
@@ -37495,7 +37498,7 @@
         <v>12555</v>
       </c>
       <c r="C436">
-        <v>12765</v>
+        <v>12782</v>
       </c>
       <c r="D436">
         <v>41127</v>
@@ -37513,7 +37516,7 @@
         <v>70044</v>
       </c>
       <c r="I436">
-        <v>71096</v>
+        <v>71079</v>
       </c>
       <c r="J436">
         <v>75403</v>
@@ -37608,7 +37611,7 @@
         <v>12636</v>
       </c>
       <c r="C437">
-        <v>12510</v>
+        <v>12554</v>
       </c>
       <c r="D437">
         <v>41461</v>
@@ -37626,7 +37629,7 @@
         <v>70433</v>
       </c>
       <c r="I437">
-        <v>70497</v>
+        <v>70456</v>
       </c>
       <c r="J437">
         <v>75780</v>
@@ -37721,7 +37724,7 @@
         <v>14224</v>
       </c>
       <c r="C438">
-        <v>14372</v>
+        <v>14393</v>
       </c>
       <c r="D438">
         <v>46153</v>
@@ -37739,7 +37742,7 @@
         <v>81242</v>
       </c>
       <c r="I438">
-        <v>78477</v>
+        <v>78435</v>
       </c>
       <c r="J438">
         <v>70546</v>
@@ -37834,7 +37837,7 @@
         <v>14547</v>
       </c>
       <c r="C439">
-        <v>14575</v>
+        <v>14632</v>
       </c>
       <c r="D439">
         <v>45981</v>
@@ -37852,7 +37855,7 @@
         <v>80610</v>
       </c>
       <c r="I439">
-        <v>78973</v>
+        <v>78902</v>
       </c>
       <c r="J439">
         <v>70843</v>
@@ -37927,16 +37930,16 @@
         <v>25228</v>
       </c>
       <c r="AH439">
-        <v>3421</v>
+        <v>3699</v>
       </c>
       <c r="AI439">
         <v>17611</v>
       </c>
       <c r="AJ439">
-        <v>1318</v>
+        <v>1366</v>
       </c>
       <c r="AK439">
-        <v>282263</v>
+        <v>282493</v>
       </c>
     </row>
     <row r="440" spans="1:37">
@@ -37947,7 +37950,7 @@
         <v>14804</v>
       </c>
       <c r="C440">
-        <v>14813</v>
+        <v>14876</v>
       </c>
       <c r="D440">
         <v>46517</v>
@@ -37965,7 +37968,7 @@
         <v>81330</v>
       </c>
       <c r="I440">
-        <v>80721</v>
+        <v>80617</v>
       </c>
       <c r="J440">
         <v>71852</v>
@@ -37989,19 +37992,19 @@
         <v>10768</v>
       </c>
       <c r="Q440">
-        <v>22201</v>
+        <v>26036</v>
       </c>
       <c r="R440">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="S440">
-        <v>15503</v>
+        <v>16177</v>
       </c>
       <c r="T440">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U440">
-        <v>171942</v>
+        <v>175128</v>
       </c>
       <c r="V440">
         <v>26878</v>
@@ -38031,25 +38034,138 @@
         <v>213</v>
       </c>
       <c r="AE440">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="AF440">
-        <v>31306</v>
+        <v>30855</v>
       </c>
       <c r="AG440">
-        <v>25694</v>
+        <v>25214</v>
       </c>
       <c r="AH440">
-        <v>3459</v>
+        <v>3552</v>
       </c>
       <c r="AI440">
-        <v>18312</v>
+        <v>19168</v>
       </c>
       <c r="AJ440">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="AK440">
-        <v>288035</v>
+        <v>289489</v>
+      </c>
+    </row>
+    <row r="441" spans="1:37">
+      <c r="A441" t="s">
+        <v>476</v>
+      </c>
+      <c r="B441">
+        <v>14967</v>
+      </c>
+      <c r="C441">
+        <v>15358</v>
+      </c>
+      <c r="D441">
+        <v>46192</v>
+      </c>
+      <c r="E441">
+        <v>26937</v>
+      </c>
+      <c r="F441">
+        <v>19256</v>
+      </c>
+      <c r="G441">
+        <v>19430</v>
+      </c>
+      <c r="H441">
+        <v>80589</v>
+      </c>
+      <c r="I441">
+        <v>81438</v>
+      </c>
+      <c r="J441">
+        <v>71141</v>
+      </c>
+      <c r="K441">
+        <v>44480</v>
+      </c>
+      <c r="L441">
+        <v>39492</v>
+      </c>
+      <c r="M441">
+        <v>4989</v>
+      </c>
+      <c r="N441">
+        <v>26081</v>
+      </c>
+      <c r="O441">
+        <v>580</v>
+      </c>
+      <c r="P441">
+        <v>11018</v>
+      </c>
+      <c r="Q441">
+        <v>22605</v>
+      </c>
+      <c r="R441">
+        <v>1414</v>
+      </c>
+      <c r="S441">
+        <v>14932</v>
+      </c>
+      <c r="T441">
+        <v>90</v>
+      </c>
+      <c r="U441">
+        <v>171746</v>
+      </c>
+      <c r="V441">
+        <v>28266</v>
+      </c>
+      <c r="W441">
+        <v>15608</v>
+      </c>
+      <c r="X441">
+        <v>15336</v>
+      </c>
+      <c r="Y441">
+        <v>272</v>
+      </c>
+      <c r="Z441">
+        <v>0</v>
+      </c>
+      <c r="AA441">
+        <v>36238</v>
+      </c>
+      <c r="AB441">
+        <v>17467</v>
+      </c>
+      <c r="AC441">
+        <v>18771</v>
+      </c>
+      <c r="AD441">
+        <v>114</v>
+      </c>
+      <c r="AE441">
+        <v>325</v>
+      </c>
+      <c r="AF441">
+        <v>30945</v>
+      </c>
+      <c r="AG441">
+        <v>25395</v>
+      </c>
+      <c r="AH441">
+        <v>3636</v>
+      </c>
+      <c r="AI441">
+        <v>18213</v>
+      </c>
+      <c r="AJ441">
+        <v>1359</v>
+      </c>
+      <c r="AK441">
+        <v>292702</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
   <si>
     <t>Serie</t>
   </si>
@@ -1445,6 +1445,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK441"/>
+  <dimension ref="A1:AK442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3069,7 +3072,7 @@
         <v>112</v>
       </c>
       <c r="C32">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32">
         <v>83</v>
@@ -3924,7 +3927,7 @@
         <v>154</v>
       </c>
       <c r="C47">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47">
         <v>162</v>
@@ -5610,7 +5613,7 @@
         <v>731</v>
       </c>
       <c r="I74">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J74">
         <v>1723</v>
@@ -5979,7 +5982,7 @@
         <v>686</v>
       </c>
       <c r="I80">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J80">
         <v>2074</v>
@@ -7206,7 +7209,7 @@
         <v>496</v>
       </c>
       <c r="C101">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D101">
         <v>970</v>
@@ -7218,7 +7221,7 @@
         <v>1553</v>
       </c>
       <c r="I101">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="J101">
         <v>3374</v>
@@ -7336,7 +7339,7 @@
         <v>1480</v>
       </c>
       <c r="I103">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="J103">
         <v>3686</v>
@@ -7690,7 +7693,7 @@
         <v>1738</v>
       </c>
       <c r="I109">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J109">
         <v>4026</v>
@@ -7926,7 +7929,7 @@
         <v>1756</v>
       </c>
       <c r="I113">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="J113">
         <v>4372</v>
@@ -8752,7 +8755,7 @@
         <v>2237</v>
       </c>
       <c r="I127">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="J127">
         <v>5591</v>
@@ -9047,7 +9050,7 @@
         <v>2229</v>
       </c>
       <c r="I132">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="J132">
         <v>6028</v>
@@ -9283,7 +9286,7 @@
         <v>2522</v>
       </c>
       <c r="I136">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="J136">
         <v>6817</v>
@@ -9637,7 +9640,7 @@
         <v>2470</v>
       </c>
       <c r="I142">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="J142">
         <v>7610</v>
@@ -9814,7 +9817,7 @@
         <v>2860</v>
       </c>
       <c r="I145">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="J145">
         <v>7954</v>
@@ -10168,7 +10171,7 @@
         <v>2991</v>
       </c>
       <c r="I151">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="J151">
         <v>8756</v>
@@ -10345,7 +10348,7 @@
         <v>3001</v>
       </c>
       <c r="I154">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="J154">
         <v>9322</v>
@@ -10404,7 +10407,7 @@
         <v>2931</v>
       </c>
       <c r="I155">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="J155">
         <v>9681</v>
@@ -10699,7 +10702,7 @@
         <v>3128</v>
       </c>
       <c r="I160">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="J160">
         <v>10480</v>
@@ -10817,7 +10820,7 @@
         <v>3203</v>
       </c>
       <c r="I162">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="J162">
         <v>10910</v>
@@ -10876,7 +10879,7 @@
         <v>3171</v>
       </c>
       <c r="I163">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="J163">
         <v>10968</v>
@@ -11053,7 +11056,7 @@
         <v>2781</v>
       </c>
       <c r="I166">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="J166">
         <v>11576</v>
@@ -11112,7 +11115,7 @@
         <v>2836</v>
       </c>
       <c r="I167">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="J167">
         <v>11718</v>
@@ -11230,7 +11233,7 @@
         <v>3149</v>
       </c>
       <c r="I169">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J169">
         <v>11691</v>
@@ -11584,7 +11587,7 @@
         <v>3343</v>
       </c>
       <c r="I175">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="J175">
         <v>12368</v>
@@ -11749,7 +11752,7 @@
         <v>886</v>
       </c>
       <c r="C178">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D178">
         <v>1806</v>
@@ -11761,7 +11764,7 @@
         <v>3221</v>
       </c>
       <c r="I178">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="J178">
         <v>12537</v>
@@ -12006,7 +12009,7 @@
         <v>3677</v>
       </c>
       <c r="I182">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="J182">
         <v>12640</v>
@@ -12228,7 +12231,7 @@
         <v>3548</v>
       </c>
       <c r="I185">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="J185">
         <v>13028</v>
@@ -12290,7 +12293,7 @@
         <v>965</v>
       </c>
       <c r="C186">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D186">
         <v>1987</v>
@@ -12376,7 +12379,7 @@
         <v>3412</v>
       </c>
       <c r="I187">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="J187">
         <v>13357</v>
@@ -12450,7 +12453,7 @@
         <v>3367</v>
       </c>
       <c r="I188">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="J188">
         <v>13313</v>
@@ -12598,7 +12601,7 @@
         <v>3396</v>
       </c>
       <c r="I190">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="J190">
         <v>13336</v>
@@ -12672,7 +12675,7 @@
         <v>3313</v>
       </c>
       <c r="I191">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="J191">
         <v>13578</v>
@@ -12746,7 +12749,7 @@
         <v>3442</v>
       </c>
       <c r="I192">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="J192">
         <v>13576</v>
@@ -12820,7 +12823,7 @@
         <v>4145</v>
       </c>
       <c r="I193">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="J193">
         <v>13861</v>
@@ -12882,7 +12885,7 @@
         <v>1014</v>
       </c>
       <c r="C194">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D194">
         <v>2145</v>
@@ -12968,7 +12971,7 @@
         <v>3706</v>
       </c>
       <c r="I195">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="J195">
         <v>13830</v>
@@ -13042,7 +13045,7 @@
         <v>3978</v>
       </c>
       <c r="I196">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="J196">
         <v>13738</v>
@@ -13116,7 +13119,7 @@
         <v>4063</v>
       </c>
       <c r="I197">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="J197">
         <v>13962</v>
@@ -13190,7 +13193,7 @@
         <v>3881</v>
       </c>
       <c r="I198">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="J198">
         <v>14200</v>
@@ -13264,7 +13267,7 @@
         <v>4179</v>
       </c>
       <c r="I199">
-        <v>4101</v>
+        <v>4105</v>
       </c>
       <c r="J199">
         <v>14085</v>
@@ -13338,7 +13341,7 @@
         <v>3850</v>
       </c>
       <c r="I200">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="J200">
         <v>14110</v>
@@ -13486,7 +13489,7 @@
         <v>3813</v>
       </c>
       <c r="I202">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="J202">
         <v>14053</v>
@@ -13560,7 +13563,7 @@
         <v>3885</v>
       </c>
       <c r="I203">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="J203">
         <v>14092</v>
@@ -13930,7 +13933,7 @@
         <v>4287</v>
       </c>
       <c r="I208">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="J208">
         <v>14624</v>
@@ -13992,7 +13995,7 @@
         <v>1117</v>
       </c>
       <c r="C209">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D209">
         <v>2405</v>
@@ -14004,7 +14007,7 @@
         <v>4399</v>
       </c>
       <c r="I209">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="J209">
         <v>14565</v>
@@ -14078,7 +14081,7 @@
         <v>4405</v>
       </c>
       <c r="I210">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="J210">
         <v>14566</v>
@@ -14152,7 +14155,7 @@
         <v>4456</v>
       </c>
       <c r="I211">
-        <v>4366</v>
+        <v>4369</v>
       </c>
       <c r="J211">
         <v>14611</v>
@@ -14374,7 +14377,7 @@
         <v>4748</v>
       </c>
       <c r="I214">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="J214">
         <v>14753</v>
@@ -14448,7 +14451,7 @@
         <v>4533</v>
       </c>
       <c r="I215">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="J215">
         <v>14838</v>
@@ -14599,7 +14602,7 @@
         <v>5063</v>
       </c>
       <c r="I217">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="J217">
         <v>14693</v>
@@ -14907,7 +14910,7 @@
         <v>5464</v>
       </c>
       <c r="I221">
-        <v>5248</v>
+        <v>5245</v>
       </c>
       <c r="J221">
         <v>14089</v>
@@ -14984,7 +14987,7 @@
         <v>5362</v>
       </c>
       <c r="I222">
-        <v>5274</v>
+        <v>5275</v>
       </c>
       <c r="J222">
         <v>13655</v>
@@ -15061,7 +15064,7 @@
         <v>5441</v>
       </c>
       <c r="I223">
-        <v>5334</v>
+        <v>5338</v>
       </c>
       <c r="J223">
         <v>13865</v>
@@ -15138,7 +15141,7 @@
         <v>5074</v>
       </c>
       <c r="I224">
-        <v>5257</v>
+        <v>5258</v>
       </c>
       <c r="J224">
         <v>13782</v>
@@ -15203,7 +15206,7 @@
         <v>1236</v>
       </c>
       <c r="C225">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D225">
         <v>2810</v>
@@ -15292,7 +15295,7 @@
         <v>5222</v>
       </c>
       <c r="I226">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="J226">
         <v>13861</v>
@@ -15369,7 +15372,7 @@
         <v>5178</v>
       </c>
       <c r="I227">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="J227">
         <v>13905</v>
@@ -15523,7 +15526,7 @@
         <v>5792</v>
       </c>
       <c r="I229">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="J229">
         <v>14008</v>
@@ -15754,7 +15757,7 @@
         <v>5970</v>
       </c>
       <c r="I232">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="J232">
         <v>14728</v>
@@ -15831,7 +15834,7 @@
         <v>6474</v>
       </c>
       <c r="I233">
-        <v>6141</v>
+        <v>6138</v>
       </c>
       <c r="J233">
         <v>14756</v>
@@ -15908,7 +15911,7 @@
         <v>6360</v>
       </c>
       <c r="I234">
-        <v>6274</v>
+        <v>6275</v>
       </c>
       <c r="J234">
         <v>14718</v>
@@ -15985,7 +15988,7 @@
         <v>6480</v>
       </c>
       <c r="I235">
-        <v>6434</v>
+        <v>6438</v>
       </c>
       <c r="J235">
         <v>14978</v>
@@ -16062,7 +16065,7 @@
         <v>6497</v>
       </c>
       <c r="I236">
-        <v>6633</v>
+        <v>6634</v>
       </c>
       <c r="J236">
         <v>15673</v>
@@ -16204,7 +16207,7 @@
         <v>1373</v>
       </c>
       <c r="C238">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D238">
         <v>3417</v>
@@ -16293,7 +16296,7 @@
         <v>6794</v>
       </c>
       <c r="I239">
-        <v>7017</v>
+        <v>7014</v>
       </c>
       <c r="J239">
         <v>16713</v>
@@ -16447,7 +16450,7 @@
         <v>7149</v>
       </c>
       <c r="I241">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="J241">
         <v>17229</v>
@@ -16524,7 +16527,7 @@
         <v>7337</v>
       </c>
       <c r="I242">
-        <v>7121</v>
+        <v>7122</v>
       </c>
       <c r="J242">
         <v>17503</v>
@@ -16601,7 +16604,7 @@
         <v>7179</v>
       </c>
       <c r="I243">
-        <v>7197</v>
+        <v>7198</v>
       </c>
       <c r="J243">
         <v>17760</v>
@@ -16743,7 +16746,7 @@
         <v>1592</v>
       </c>
       <c r="C245">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D245">
         <v>4153</v>
@@ -16755,7 +16758,7 @@
         <v>7752</v>
       </c>
       <c r="I245">
-        <v>7351</v>
+        <v>7347</v>
       </c>
       <c r="J245">
         <v>18857</v>
@@ -16832,7 +16835,7 @@
         <v>7294</v>
       </c>
       <c r="I246">
-        <v>7234</v>
+        <v>7235</v>
       </c>
       <c r="J246">
         <v>19516</v>
@@ -16909,7 +16912,7 @@
         <v>7413</v>
       </c>
       <c r="I247">
-        <v>7359</v>
+        <v>7364</v>
       </c>
       <c r="J247">
         <v>19853</v>
@@ -16986,7 +16989,7 @@
         <v>7236</v>
       </c>
       <c r="I248">
-        <v>7342</v>
+        <v>7343</v>
       </c>
       <c r="J248">
         <v>20274</v>
@@ -17051,7 +17054,7 @@
         <v>1560</v>
       </c>
       <c r="C249">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D249">
         <v>3898</v>
@@ -17063,7 +17066,7 @@
         <v>7056</v>
       </c>
       <c r="I249">
-        <v>7326</v>
+        <v>7327</v>
       </c>
       <c r="J249">
         <v>20036</v>
@@ -17140,7 +17143,7 @@
         <v>7185</v>
       </c>
       <c r="I250">
-        <v>7413</v>
+        <v>7414</v>
       </c>
       <c r="J250">
         <v>20371</v>
@@ -17217,7 +17220,7 @@
         <v>7272</v>
       </c>
       <c r="I251">
-        <v>7497</v>
+        <v>7494</v>
       </c>
       <c r="J251">
         <v>21163</v>
@@ -17294,7 +17297,7 @@
         <v>7349</v>
       </c>
       <c r="I252">
-        <v>7571</v>
+        <v>7573</v>
       </c>
       <c r="J252">
         <v>21571</v>
@@ -17371,7 +17374,7 @@
         <v>7914</v>
       </c>
       <c r="I253">
-        <v>7648</v>
+        <v>7643</v>
       </c>
       <c r="J253">
         <v>23040</v>
@@ -17448,7 +17451,7 @@
         <v>7883</v>
       </c>
       <c r="I254">
-        <v>7731</v>
+        <v>7732</v>
       </c>
       <c r="J254">
         <v>23222</v>
@@ -17540,7 +17543,7 @@
         <v>7714</v>
       </c>
       <c r="I255">
-        <v>7742</v>
+        <v>7743</v>
       </c>
       <c r="J255">
         <v>23656</v>
@@ -17632,7 +17635,7 @@
         <v>7862</v>
       </c>
       <c r="I256">
-        <v>7849</v>
+        <v>7851</v>
       </c>
       <c r="J256">
         <v>24239</v>
@@ -17724,7 +17727,7 @@
         <v>8377</v>
       </c>
       <c r="I257">
-        <v>7932</v>
+        <v>7927</v>
       </c>
       <c r="J257">
         <v>24462</v>
@@ -17816,7 +17819,7 @@
         <v>8071</v>
       </c>
       <c r="I258">
-        <v>8034</v>
+        <v>8035</v>
       </c>
       <c r="J258">
         <v>24982</v>
@@ -17908,7 +17911,7 @@
         <v>8098</v>
       </c>
       <c r="I259">
-        <v>8013</v>
+        <v>8018</v>
       </c>
       <c r="J259">
         <v>24967</v>
@@ -18092,7 +18095,7 @@
         <v>8070</v>
       </c>
       <c r="I261">
-        <v>8330</v>
+        <v>8332</v>
       </c>
       <c r="J261">
         <v>25841</v>
@@ -18184,7 +18187,7 @@
         <v>8224</v>
       </c>
       <c r="I262">
-        <v>8383</v>
+        <v>8384</v>
       </c>
       <c r="J262">
         <v>26181</v>
@@ -18276,7 +18279,7 @@
         <v>7965</v>
       </c>
       <c r="I263">
-        <v>8260</v>
+        <v>8258</v>
       </c>
       <c r="J263">
         <v>26507</v>
@@ -18368,7 +18371,7 @@
         <v>8425</v>
       </c>
       <c r="I264">
-        <v>8638</v>
+        <v>8639</v>
       </c>
       <c r="J264">
         <v>27015</v>
@@ -18460,7 +18463,7 @@
         <v>9221</v>
       </c>
       <c r="I265">
-        <v>8912</v>
+        <v>8905</v>
       </c>
       <c r="J265">
         <v>27764</v>
@@ -18552,7 +18555,7 @@
         <v>9008</v>
       </c>
       <c r="I266">
-        <v>8894</v>
+        <v>8895</v>
       </c>
       <c r="J266">
         <v>28404</v>
@@ -18644,7 +18647,7 @@
         <v>9015</v>
       </c>
       <c r="I267">
-        <v>9050</v>
+        <v>9051</v>
       </c>
       <c r="J267">
         <v>28770</v>
@@ -18724,7 +18727,7 @@
         <v>2068</v>
       </c>
       <c r="C268">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D268">
         <v>5413</v>
@@ -18828,7 +18831,7 @@
         <v>10132</v>
       </c>
       <c r="I269">
-        <v>9631</v>
+        <v>9628</v>
       </c>
       <c r="J269">
         <v>29613</v>
@@ -18920,7 +18923,7 @@
         <v>9540</v>
       </c>
       <c r="I270">
-        <v>9397</v>
+        <v>9398</v>
       </c>
       <c r="J270">
         <v>30382</v>
@@ -19012,7 +19015,7 @@
         <v>9548</v>
       </c>
       <c r="I271">
-        <v>9452</v>
+        <v>9458</v>
       </c>
       <c r="J271">
         <v>30928</v>
@@ -19104,7 +19107,7 @@
         <v>9486</v>
       </c>
       <c r="I272">
-        <v>9657</v>
+        <v>9656</v>
       </c>
       <c r="J272">
         <v>31217</v>
@@ -19196,7 +19199,7 @@
         <v>9502</v>
       </c>
       <c r="I273">
-        <v>9748</v>
+        <v>9749</v>
       </c>
       <c r="J273">
         <v>31039</v>
@@ -19288,7 +19291,7 @@
         <v>9744</v>
       </c>
       <c r="I274">
-        <v>9844</v>
+        <v>9843</v>
       </c>
       <c r="J274">
         <v>31750</v>
@@ -19380,7 +19383,7 @@
         <v>9590</v>
       </c>
       <c r="I275">
-        <v>9980</v>
+        <v>9979</v>
       </c>
       <c r="J275">
         <v>32634</v>
@@ -19472,7 +19475,7 @@
         <v>9985</v>
       </c>
       <c r="I276">
-        <v>10202</v>
+        <v>10204</v>
       </c>
       <c r="J276">
         <v>33809</v>
@@ -19552,7 +19555,7 @@
         <v>2429</v>
       </c>
       <c r="C277">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D277">
         <v>6101</v>
@@ -19564,7 +19567,7 @@
         <v>10797</v>
       </c>
       <c r="I277">
-        <v>10384</v>
+        <v>10377</v>
       </c>
       <c r="J277">
         <v>34802</v>
@@ -19662,7 +19665,7 @@
         <v>10613</v>
       </c>
       <c r="I278">
-        <v>10456</v>
+        <v>10458</v>
       </c>
       <c r="J278">
         <v>35412</v>
@@ -19757,7 +19760,7 @@
         <v>2340</v>
       </c>
       <c r="C279">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D279">
         <v>5935</v>
@@ -19775,7 +19778,7 @@
         <v>10387</v>
       </c>
       <c r="I279">
-        <v>10659</v>
+        <v>10660</v>
       </c>
       <c r="J279">
         <v>35658</v>
@@ -20001,7 +20004,7 @@
         <v>10922</v>
       </c>
       <c r="I281">
-        <v>10578</v>
+        <v>10576</v>
       </c>
       <c r="J281">
         <v>36937</v>
@@ -20227,7 +20230,7 @@
         <v>10819</v>
       </c>
       <c r="I283">
-        <v>10683</v>
+        <v>10689</v>
       </c>
       <c r="J283">
         <v>36963</v>
@@ -20453,7 +20456,7 @@
         <v>10459</v>
       </c>
       <c r="I285">
-        <v>10680</v>
+        <v>10679</v>
       </c>
       <c r="J285">
         <v>37319</v>
@@ -20566,7 +20569,7 @@
         <v>10733</v>
       </c>
       <c r="I286">
-        <v>11001</v>
+        <v>11000</v>
       </c>
       <c r="J286">
         <v>38169</v>
@@ -20661,7 +20664,7 @@
         <v>2441</v>
       </c>
       <c r="C287">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="D287">
         <v>6101</v>
@@ -20679,7 +20682,7 @@
         <v>10669</v>
       </c>
       <c r="I287">
-        <v>11053</v>
+        <v>11054</v>
       </c>
       <c r="J287">
         <v>40117</v>
@@ -20905,7 +20908,7 @@
         <v>11093</v>
       </c>
       <c r="I289">
-        <v>10866</v>
+        <v>10860</v>
       </c>
       <c r="J289">
         <v>41172</v>
@@ -21244,7 +21247,7 @@
         <v>11203</v>
       </c>
       <c r="I292">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="J292">
         <v>39427</v>
@@ -21357,7 +21360,7 @@
         <v>11917</v>
       </c>
       <c r="I293">
-        <v>11519</v>
+        <v>11520</v>
       </c>
       <c r="J293">
         <v>39760</v>
@@ -21470,7 +21473,7 @@
         <v>12249</v>
       </c>
       <c r="I294">
-        <v>11841</v>
+        <v>11840</v>
       </c>
       <c r="J294">
         <v>38966</v>
@@ -21583,7 +21586,7 @@
         <v>12150</v>
       </c>
       <c r="I295">
-        <v>12043</v>
+        <v>12044</v>
       </c>
       <c r="J295">
         <v>38937</v>
@@ -21696,7 +21699,7 @@
         <v>11955</v>
       </c>
       <c r="I296">
-        <v>12217</v>
+        <v>12219</v>
       </c>
       <c r="J296">
         <v>39124</v>
@@ -21809,7 +21812,7 @@
         <v>12442</v>
       </c>
       <c r="I297">
-        <v>12689</v>
+        <v>12690</v>
       </c>
       <c r="J297">
         <v>38720</v>
@@ -22130,7 +22133,7 @@
         <v>2690</v>
       </c>
       <c r="C300">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="D300">
         <v>7720</v>
@@ -22148,7 +22151,7 @@
         <v>13023</v>
       </c>
       <c r="I300">
-        <v>13312</v>
+        <v>13313</v>
       </c>
       <c r="J300">
         <v>36888</v>
@@ -22261,7 +22264,7 @@
         <v>14205</v>
       </c>
       <c r="I301">
-        <v>13874</v>
+        <v>13870</v>
       </c>
       <c r="J301">
         <v>37759</v>
@@ -22356,7 +22359,7 @@
         <v>2854</v>
       </c>
       <c r="C302">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D302">
         <v>8640</v>
@@ -22600,7 +22603,7 @@
         <v>14744</v>
       </c>
       <c r="I304">
-        <v>14821</v>
+        <v>14823</v>
       </c>
       <c r="J304">
         <v>38162</v>
@@ -22713,7 +22716,7 @@
         <v>15711</v>
       </c>
       <c r="I305">
-        <v>15190</v>
+        <v>15191</v>
       </c>
       <c r="J305">
         <v>38583</v>
@@ -22826,7 +22829,7 @@
         <v>16220</v>
       </c>
       <c r="I306">
-        <v>15678</v>
+        <v>15679</v>
       </c>
       <c r="J306">
         <v>38917</v>
@@ -23034,7 +23037,7 @@
         <v>3083</v>
       </c>
       <c r="C308">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D308">
         <v>9334</v>
@@ -23052,7 +23055,7 @@
         <v>15584</v>
       </c>
       <c r="I308">
-        <v>15915</v>
+        <v>15914</v>
       </c>
       <c r="J308">
         <v>38162</v>
@@ -23278,7 +23281,7 @@
         <v>15774</v>
       </c>
       <c r="I310">
-        <v>16151</v>
+        <v>16152</v>
       </c>
       <c r="J310">
         <v>38242</v>
@@ -23391,7 +23394,7 @@
         <v>15868</v>
       </c>
       <c r="I311">
-        <v>16351</v>
+        <v>16350</v>
       </c>
       <c r="J311">
         <v>39254</v>
@@ -23486,7 +23489,7 @@
         <v>3092</v>
       </c>
       <c r="C312">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="D312">
         <v>9465</v>
@@ -23504,7 +23507,7 @@
         <v>15882</v>
       </c>
       <c r="I312">
-        <v>16352</v>
+        <v>16350</v>
       </c>
       <c r="J312">
         <v>39802</v>
@@ -23599,7 +23602,7 @@
         <v>3423</v>
       </c>
       <c r="C313">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D313">
         <v>10026</v>
@@ -23617,7 +23620,7 @@
         <v>16888</v>
       </c>
       <c r="I313">
-        <v>16382</v>
+        <v>16383</v>
       </c>
       <c r="J313">
         <v>40248</v>
@@ -23938,7 +23941,7 @@
         <v>3205</v>
       </c>
       <c r="C316">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D316">
         <v>10226</v>
@@ -23956,7 +23959,7 @@
         <v>16806</v>
       </c>
       <c r="I316">
-        <v>16898</v>
+        <v>16899</v>
       </c>
       <c r="J316">
         <v>42109</v>
@@ -24069,7 +24072,7 @@
         <v>17499</v>
       </c>
       <c r="I317">
-        <v>16978</v>
+        <v>16977</v>
       </c>
       <c r="J317">
         <v>42930</v>
@@ -24164,7 +24167,7 @@
         <v>3330</v>
       </c>
       <c r="C318">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="D318">
         <v>10620</v>
@@ -24182,7 +24185,7 @@
         <v>17341</v>
       </c>
       <c r="I318">
-        <v>16887</v>
+        <v>16889</v>
       </c>
       <c r="J318">
         <v>44374</v>
@@ -24295,7 +24298,7 @@
         <v>17425</v>
       </c>
       <c r="I319">
-        <v>17189</v>
+        <v>17191</v>
       </c>
       <c r="J319">
         <v>44742</v>
@@ -24390,7 +24393,7 @@
         <v>3355</v>
       </c>
       <c r="C320">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="D320">
         <v>10176</v>
@@ -24408,7 +24411,7 @@
         <v>16882</v>
       </c>
       <c r="I320">
-        <v>17190</v>
+        <v>17191</v>
       </c>
       <c r="J320">
         <v>46218</v>
@@ -24634,7 +24637,7 @@
         <v>17410</v>
       </c>
       <c r="I322">
-        <v>17800</v>
+        <v>17802</v>
       </c>
       <c r="J322">
         <v>48852</v>
@@ -24747,7 +24750,7 @@
         <v>17278</v>
       </c>
       <c r="I323">
-        <v>17812</v>
+        <v>17811</v>
       </c>
       <c r="J323">
         <v>49957</v>
@@ -24860,7 +24863,7 @@
         <v>17516</v>
       </c>
       <c r="I324">
-        <v>17990</v>
+        <v>17992</v>
       </c>
       <c r="J324">
         <v>50908</v>
@@ -24973,7 +24976,7 @@
         <v>18839</v>
       </c>
       <c r="I325">
-        <v>18175</v>
+        <v>18174</v>
       </c>
       <c r="J325">
         <v>51828</v>
@@ -25086,7 +25089,7 @@
         <v>18496</v>
       </c>
       <c r="I326">
-        <v>18317</v>
+        <v>18316</v>
       </c>
       <c r="J326">
         <v>51654</v>
@@ -25181,7 +25184,7 @@
         <v>3657</v>
       </c>
       <c r="C327">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="D327">
         <v>11005</v>
@@ -25199,7 +25202,7 @@
         <v>18314</v>
       </c>
       <c r="I327">
-        <v>18419</v>
+        <v>18420</v>
       </c>
       <c r="J327">
         <v>52248</v>
@@ -25312,7 +25315,7 @@
         <v>18902</v>
       </c>
       <c r="I328">
-        <v>18736</v>
+        <v>18737</v>
       </c>
       <c r="J328">
         <v>53128</v>
@@ -25425,7 +25428,7 @@
         <v>19522</v>
       </c>
       <c r="I329">
-        <v>19039</v>
+        <v>19038</v>
       </c>
       <c r="J329">
         <v>54813</v>
@@ -25520,7 +25523,7 @@
         <v>3797</v>
       </c>
       <c r="C330">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="D330">
         <v>11511</v>
@@ -25538,7 +25541,7 @@
         <v>19682</v>
       </c>
       <c r="I330">
-        <v>19190</v>
+        <v>19191</v>
       </c>
       <c r="J330">
         <v>56261</v>
@@ -25651,7 +25654,7 @@
         <v>18593</v>
       </c>
       <c r="I331">
-        <v>18248</v>
+        <v>18249</v>
       </c>
       <c r="J331">
         <v>57509</v>
@@ -25764,7 +25767,7 @@
         <v>18299</v>
       </c>
       <c r="I332">
-        <v>18711</v>
+        <v>18707</v>
       </c>
       <c r="J332">
         <v>57808</v>
@@ -25877,7 +25880,7 @@
         <v>18436</v>
       </c>
       <c r="I333">
-        <v>18858</v>
+        <v>18859</v>
       </c>
       <c r="J333">
         <v>58188</v>
@@ -25972,7 +25975,7 @@
         <v>4007</v>
       </c>
       <c r="C334">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="D334">
         <v>11121</v>
@@ -25990,7 +25993,7 @@
         <v>18606</v>
       </c>
       <c r="I334">
-        <v>18733</v>
+        <v>18732</v>
       </c>
       <c r="J334">
         <v>58568</v>
@@ -26085,7 +26088,7 @@
         <v>4119</v>
       </c>
       <c r="C335">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="D335">
         <v>10968</v>
@@ -26103,7 +26106,7 @@
         <v>18285</v>
       </c>
       <c r="I335">
-        <v>19027</v>
+        <v>19025</v>
       </c>
       <c r="J335">
         <v>58897</v>
@@ -26216,7 +26219,7 @@
         <v>18824</v>
       </c>
       <c r="I336">
-        <v>19233</v>
+        <v>19234</v>
       </c>
       <c r="J336">
         <v>58864</v>
@@ -26311,7 +26314,7 @@
         <v>4480</v>
       </c>
       <c r="C337">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D337">
         <v>12831</v>
@@ -26329,7 +26332,7 @@
         <v>20560</v>
       </c>
       <c r="I337">
-        <v>19563</v>
+        <v>19566</v>
       </c>
       <c r="J337">
         <v>58201</v>
@@ -26442,7 +26445,7 @@
         <v>19745</v>
       </c>
       <c r="I338">
-        <v>19538</v>
+        <v>19539</v>
       </c>
       <c r="J338">
         <v>59056</v>
@@ -26555,7 +26558,7 @@
         <v>19859</v>
       </c>
       <c r="I339">
-        <v>19850</v>
+        <v>19849</v>
       </c>
       <c r="J339">
         <v>59315</v>
@@ -26763,7 +26766,7 @@
         <v>4302</v>
       </c>
       <c r="C341">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="D341">
         <v>12262</v>
@@ -26781,7 +26784,7 @@
         <v>20023</v>
       </c>
       <c r="I341">
-        <v>19836</v>
+        <v>19833</v>
       </c>
       <c r="J341">
         <v>60557</v>
@@ -26876,7 +26879,7 @@
         <v>4433</v>
       </c>
       <c r="C342">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="D342">
         <v>12775</v>
@@ -26894,7 +26897,7 @@
         <v>21102</v>
       </c>
       <c r="I342">
-        <v>20386</v>
+        <v>20389</v>
       </c>
       <c r="J342">
         <v>62068</v>
@@ -27007,7 +27010,7 @@
         <v>21266</v>
       </c>
       <c r="I343">
-        <v>20892</v>
+        <v>20893</v>
       </c>
       <c r="J343">
         <v>62591</v>
@@ -27120,7 +27123,7 @@
         <v>20679</v>
       </c>
       <c r="I344">
-        <v>21062</v>
+        <v>21065</v>
       </c>
       <c r="J344">
         <v>63068</v>
@@ -27215,7 +27218,7 @@
         <v>4450</v>
       </c>
       <c r="C345">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="D345">
         <v>12359</v>
@@ -27233,7 +27236,7 @@
         <v>20624</v>
       </c>
       <c r="I345">
-        <v>21019</v>
+        <v>21018</v>
       </c>
       <c r="J345">
         <v>63931</v>
@@ -27328,7 +27331,7 @@
         <v>4557</v>
       </c>
       <c r="C346">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="D346">
         <v>12671</v>
@@ -27346,7 +27349,7 @@
         <v>21250</v>
       </c>
       <c r="I346">
-        <v>21523</v>
+        <v>21521</v>
       </c>
       <c r="J346">
         <v>63718</v>
@@ -27441,7 +27444,7 @@
         <v>4604</v>
       </c>
       <c r="C347">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="D347">
         <v>12347</v>
@@ -27459,7 +27462,7 @@
         <v>20705</v>
       </c>
       <c r="I347">
-        <v>21669</v>
+        <v>21670</v>
       </c>
       <c r="J347">
         <v>64348</v>
@@ -27572,7 +27575,7 @@
         <v>21224</v>
       </c>
       <c r="I348">
-        <v>21635</v>
+        <v>21633</v>
       </c>
       <c r="J348">
         <v>64481</v>
@@ -27667,7 +27670,7 @@
         <v>4985</v>
       </c>
       <c r="C349">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="D349">
         <v>14185</v>
@@ -27685,7 +27688,7 @@
         <v>22784</v>
       </c>
       <c r="I349">
-        <v>21817</v>
+        <v>21814</v>
       </c>
       <c r="J349">
         <v>64533</v>
@@ -27798,7 +27801,7 @@
         <v>22293</v>
       </c>
       <c r="I350">
-        <v>21952</v>
+        <v>21954</v>
       </c>
       <c r="J350">
         <v>65829</v>
@@ -28137,7 +28140,7 @@
         <v>22575</v>
       </c>
       <c r="I353">
-        <v>22539</v>
+        <v>22537</v>
       </c>
       <c r="J353">
         <v>64531</v>
@@ -28232,7 +28235,7 @@
         <v>4848</v>
       </c>
       <c r="C354">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="D354">
         <v>14037</v>
@@ -28250,7 +28253,7 @@
         <v>23713</v>
       </c>
       <c r="I354">
-        <v>22974</v>
+        <v>22970</v>
       </c>
       <c r="J354">
         <v>64303</v>
@@ -28345,7 +28348,7 @@
         <v>4861</v>
       </c>
       <c r="C355">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="D355">
         <v>13958</v>
@@ -28363,7 +28366,7 @@
         <v>23164</v>
       </c>
       <c r="I355">
-        <v>22827</v>
+        <v>22830</v>
       </c>
       <c r="J355">
         <v>64741</v>
@@ -28458,7 +28461,7 @@
         <v>4753</v>
       </c>
       <c r="C356">
-        <v>4902</v>
+        <v>4901</v>
       </c>
       <c r="D356">
         <v>13824</v>
@@ -28476,7 +28479,7 @@
         <v>23025</v>
       </c>
       <c r="I356">
-        <v>23513</v>
+        <v>23509</v>
       </c>
       <c r="J356">
         <v>66329</v>
@@ -28589,7 +28592,7 @@
         <v>23395</v>
       </c>
       <c r="I357">
-        <v>23776</v>
+        <v>23773</v>
       </c>
       <c r="J357">
         <v>66170</v>
@@ -28684,7 +28687,7 @@
         <v>4827</v>
       </c>
       <c r="C358">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="D358">
         <v>13989</v>
@@ -28702,7 +28705,7 @@
         <v>23309</v>
       </c>
       <c r="I358">
-        <v>23936</v>
+        <v>23934</v>
       </c>
       <c r="J358">
         <v>66362</v>
@@ -28815,7 +28818,7 @@
         <v>23063</v>
       </c>
       <c r="I359">
-        <v>24054</v>
+        <v>24057</v>
       </c>
       <c r="J359">
         <v>67314</v>
@@ -29154,7 +29157,7 @@
         <v>25570</v>
       </c>
       <c r="I362">
-        <v>25098</v>
+        <v>25099</v>
       </c>
       <c r="J362">
         <v>69487</v>
@@ -29380,7 +29383,7 @@
         <v>25703</v>
       </c>
       <c r="I364">
-        <v>25547</v>
+        <v>25546</v>
       </c>
       <c r="J364">
         <v>70310</v>
@@ -29493,7 +29496,7 @@
         <v>25506</v>
       </c>
       <c r="I365">
-        <v>25461</v>
+        <v>25462</v>
       </c>
       <c r="J365">
         <v>70597</v>
@@ -29606,7 +29609,7 @@
         <v>26968</v>
       </c>
       <c r="I366">
-        <v>26194</v>
+        <v>26190</v>
       </c>
       <c r="J366">
         <v>71006</v>
@@ -29719,7 +29722,7 @@
         <v>26774</v>
       </c>
       <c r="I367">
-        <v>26606</v>
+        <v>26604</v>
       </c>
       <c r="J367">
         <v>71588</v>
@@ -29945,7 +29948,7 @@
         <v>26411</v>
       </c>
       <c r="I369">
-        <v>26750</v>
+        <v>26751</v>
       </c>
       <c r="J369">
         <v>74891</v>
@@ -30040,7 +30043,7 @@
         <v>5402</v>
       </c>
       <c r="C370">
-        <v>5557</v>
+        <v>5558</v>
       </c>
       <c r="D370">
         <v>16084</v>
@@ -30058,7 +30061,7 @@
         <v>26984</v>
       </c>
       <c r="I370">
-        <v>27930</v>
+        <v>27932</v>
       </c>
       <c r="J370">
         <v>75655</v>
@@ -30171,7 +30174,7 @@
         <v>26713</v>
       </c>
       <c r="I371">
-        <v>27672</v>
+        <v>27674</v>
       </c>
       <c r="J371">
         <v>76943</v>
@@ -30284,7 +30287,7 @@
         <v>27422</v>
       </c>
       <c r="I372">
-        <v>27776</v>
+        <v>27779</v>
       </c>
       <c r="J372">
         <v>77117</v>
@@ -30379,7 +30382,7 @@
         <v>5858</v>
       </c>
       <c r="C373">
-        <v>5623</v>
+        <v>5624</v>
       </c>
       <c r="D373">
         <v>17818</v>
@@ -30397,7 +30400,7 @@
         <v>29419</v>
       </c>
       <c r="I373">
-        <v>28296</v>
+        <v>28298</v>
       </c>
       <c r="J373">
         <v>77498</v>
@@ -30623,7 +30626,7 @@
         <v>28437</v>
       </c>
       <c r="I375">
-        <v>28420</v>
+        <v>28423</v>
       </c>
       <c r="J375">
         <v>78243</v>
@@ -30849,7 +30852,7 @@
         <v>28189</v>
       </c>
       <c r="I377">
-        <v>28072</v>
+        <v>28068</v>
       </c>
       <c r="J377">
         <v>79261</v>
@@ -30944,7 +30947,7 @@
         <v>5784</v>
       </c>
       <c r="C378">
-        <v>5861</v>
+        <v>5860</v>
       </c>
       <c r="D378">
         <v>17484</v>
@@ -30962,7 +30965,7 @@
         <v>28274</v>
       </c>
       <c r="I378">
-        <v>27759</v>
+        <v>27758</v>
       </c>
       <c r="J378">
         <v>80550</v>
@@ -31075,7 +31078,7 @@
         <v>28201</v>
       </c>
       <c r="I379">
-        <v>28017</v>
+        <v>28020</v>
       </c>
       <c r="J379">
         <v>80916</v>
@@ -31188,7 +31191,7 @@
         <v>27812</v>
       </c>
       <c r="I380">
-        <v>28059</v>
+        <v>28052</v>
       </c>
       <c r="J380">
         <v>81173</v>
@@ -31414,7 +31417,7 @@
         <v>27602</v>
       </c>
       <c r="I382">
-        <v>28345</v>
+        <v>28350</v>
       </c>
       <c r="J382">
         <v>83417</v>
@@ -31527,7 +31530,7 @@
         <v>27583</v>
       </c>
       <c r="I383">
-        <v>28424</v>
+        <v>28423</v>
       </c>
       <c r="J383">
         <v>84346</v>
@@ -31622,7 +31625,7 @@
         <v>5875</v>
       </c>
       <c r="C384">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="D384">
         <v>17594</v>
@@ -31640,7 +31643,7 @@
         <v>28965</v>
       </c>
       <c r="I384">
-        <v>29344</v>
+        <v>29350</v>
       </c>
       <c r="J384">
         <v>83442</v>
@@ -31753,7 +31756,7 @@
         <v>30319</v>
       </c>
       <c r="I385">
-        <v>29140</v>
+        <v>29144</v>
       </c>
       <c r="J385">
         <v>83851</v>
@@ -31848,7 +31851,7 @@
         <v>6050</v>
       </c>
       <c r="C386">
-        <v>6052</v>
+        <v>6053</v>
       </c>
       <c r="D386">
         <v>18233</v>
@@ -31866,7 +31869,7 @@
         <v>29536</v>
       </c>
       <c r="I386">
-        <v>29207</v>
+        <v>29209</v>
       </c>
       <c r="J386">
         <v>82224</v>
@@ -31961,7 +31964,7 @@
         <v>6017</v>
       </c>
       <c r="C387">
-        <v>6006</v>
+        <v>6007</v>
       </c>
       <c r="D387">
         <v>17881</v>
@@ -31979,7 +31982,7 @@
         <v>29361</v>
       </c>
       <c r="I387">
-        <v>29473</v>
+        <v>29476</v>
       </c>
       <c r="J387">
         <v>81816</v>
@@ -32074,7 +32077,7 @@
         <v>6050</v>
       </c>
       <c r="C388">
-        <v>6031</v>
+        <v>6032</v>
       </c>
       <c r="D388">
         <v>18505</v>
@@ -32092,7 +32095,7 @@
         <v>29789</v>
       </c>
       <c r="I388">
-        <v>29738</v>
+        <v>29745</v>
       </c>
       <c r="J388">
         <v>82627</v>
@@ -32187,7 +32190,7 @@
         <v>6115</v>
       </c>
       <c r="C389">
-        <v>6047</v>
+        <v>6046</v>
       </c>
       <c r="D389">
         <v>19255</v>
@@ -32205,7 +32208,7 @@
         <v>30230</v>
       </c>
       <c r="I389">
-        <v>30051</v>
+        <v>30038</v>
       </c>
       <c r="J389">
         <v>81448</v>
@@ -32300,7 +32303,7 @@
         <v>6071</v>
       </c>
       <c r="C390">
-        <v>6138</v>
+        <v>6137</v>
       </c>
       <c r="D390">
         <v>19381</v>
@@ -32318,7 +32321,7 @@
         <v>30764</v>
       </c>
       <c r="I390">
-        <v>30343</v>
+        <v>30338</v>
       </c>
       <c r="J390">
         <v>83364</v>
@@ -32413,7 +32416,7 @@
         <v>6119</v>
       </c>
       <c r="C391">
-        <v>6065</v>
+        <v>6064</v>
       </c>
       <c r="D391">
         <v>19194</v>
@@ -32431,7 +32434,7 @@
         <v>31099</v>
       </c>
       <c r="I391">
-        <v>30692</v>
+        <v>30689</v>
       </c>
       <c r="J391">
         <v>83373</v>
@@ -32526,7 +32529,7 @@
         <v>6143</v>
       </c>
       <c r="C392">
-        <v>6263</v>
+        <v>6261</v>
       </c>
       <c r="D392">
         <v>18836</v>
@@ -32544,7 +32547,7 @@
         <v>30671</v>
       </c>
       <c r="I392">
-        <v>30894</v>
+        <v>30876</v>
       </c>
       <c r="J392">
         <v>84037</v>
@@ -32657,7 +32660,7 @@
         <v>30865</v>
       </c>
       <c r="I393">
-        <v>31291</v>
+        <v>31294</v>
       </c>
       <c r="J393">
         <v>86945</v>
@@ -32752,7 +32755,7 @@
         <v>6125</v>
       </c>
       <c r="C394">
-        <v>6086</v>
+        <v>6087</v>
       </c>
       <c r="D394">
         <v>18779</v>
@@ -32770,7 +32773,7 @@
         <v>30890</v>
       </c>
       <c r="I394">
-        <v>31395</v>
+        <v>31409</v>
       </c>
       <c r="J394">
         <v>87209</v>
@@ -32865,7 +32868,7 @@
         <v>6050</v>
       </c>
       <c r="C395">
-        <v>6085</v>
+        <v>6086</v>
       </c>
       <c r="D395">
         <v>18562</v>
@@ -32883,7 +32886,7 @@
         <v>30753</v>
       </c>
       <c r="I395">
-        <v>31596</v>
+        <v>31604</v>
       </c>
       <c r="J395">
         <v>85099</v>
@@ -32978,7 +32981,7 @@
         <v>6323</v>
       </c>
       <c r="C396">
-        <v>6348</v>
+        <v>6349</v>
       </c>
       <c r="D396">
         <v>19041</v>
@@ -32996,7 +32999,7 @@
         <v>32076</v>
       </c>
       <c r="I396">
-        <v>32326</v>
+        <v>32332</v>
       </c>
       <c r="J396">
         <v>85838</v>
@@ -33109,7 +33112,7 @@
         <v>33566</v>
       </c>
       <c r="I397">
-        <v>32394</v>
+        <v>32398</v>
       </c>
       <c r="J397">
         <v>85719</v>
@@ -33204,7 +33207,7 @@
         <v>6307</v>
       </c>
       <c r="C398">
-        <v>6274</v>
+        <v>6276</v>
       </c>
       <c r="D398">
         <v>20497</v>
@@ -33222,7 +33225,7 @@
         <v>33339</v>
       </c>
       <c r="I398">
-        <v>33192</v>
+        <v>33200</v>
       </c>
       <c r="J398">
         <v>88660</v>
@@ -33317,7 +33320,7 @@
         <v>6277</v>
       </c>
       <c r="C399">
-        <v>6268</v>
+        <v>6270</v>
       </c>
       <c r="D399">
         <v>19951</v>
@@ -33335,7 +33338,7 @@
         <v>32865</v>
       </c>
       <c r="I399">
-        <v>33136</v>
+        <v>33144</v>
       </c>
       <c r="J399">
         <v>88182</v>
@@ -33430,7 +33433,7 @@
         <v>6353</v>
       </c>
       <c r="C400">
-        <v>6337</v>
+        <v>6336</v>
       </c>
       <c r="D400">
         <v>20688</v>
@@ -33448,7 +33451,7 @@
         <v>33747</v>
       </c>
       <c r="I400">
-        <v>33586</v>
+        <v>33588</v>
       </c>
       <c r="J400">
         <v>91499</v>
@@ -33561,7 +33564,7 @@
         <v>33832</v>
       </c>
       <c r="I401">
-        <v>33701</v>
+        <v>33682</v>
       </c>
       <c r="J401">
         <v>90165</v>
@@ -33656,7 +33659,7 @@
         <v>6294</v>
       </c>
       <c r="C402">
-        <v>6277</v>
+        <v>6276</v>
       </c>
       <c r="D402">
         <v>21771</v>
@@ -33674,7 +33677,7 @@
         <v>35200</v>
       </c>
       <c r="I402">
-        <v>34495</v>
+        <v>34485</v>
       </c>
       <c r="J402">
         <v>92220</v>
@@ -33769,7 +33772,7 @@
         <v>6345</v>
       </c>
       <c r="C403">
-        <v>6329</v>
+        <v>6327</v>
       </c>
       <c r="D403">
         <v>21425</v>
@@ -33787,7 +33790,7 @@
         <v>34887</v>
       </c>
       <c r="I403">
-        <v>34222</v>
+        <v>34208</v>
       </c>
       <c r="J403">
         <v>89908</v>
@@ -33882,7 +33885,7 @@
         <v>6288</v>
       </c>
       <c r="C404">
-        <v>6320</v>
+        <v>6315</v>
       </c>
       <c r="D404">
         <v>20668</v>
@@ -33900,7 +33903,7 @@
         <v>33665</v>
       </c>
       <c r="I404">
-        <v>33933</v>
+        <v>33894</v>
       </c>
       <c r="J404">
         <v>91666</v>
@@ -33995,7 +33998,7 @@
         <v>6357</v>
       </c>
       <c r="C405">
-        <v>6430</v>
+        <v>6427</v>
       </c>
       <c r="D405">
         <v>21213</v>
@@ -34013,7 +34016,7 @@
         <v>34626</v>
       </c>
       <c r="I405">
-        <v>34883</v>
+        <v>34868</v>
       </c>
       <c r="J405">
         <v>93918</v>
@@ -34108,7 +34111,7 @@
         <v>6412</v>
       </c>
       <c r="C406">
-        <v>6364</v>
+        <v>6368</v>
       </c>
       <c r="D406">
         <v>21125</v>
@@ -34126,7 +34129,7 @@
         <v>34554</v>
       </c>
       <c r="I406">
-        <v>34853</v>
+        <v>34892</v>
       </c>
       <c r="J406">
         <v>93121</v>
@@ -34221,7 +34224,7 @@
         <v>6458</v>
       </c>
       <c r="C407">
-        <v>6571</v>
+        <v>6572</v>
       </c>
       <c r="D407">
         <v>21107</v>
@@ -34239,7 +34242,7 @@
         <v>34565</v>
       </c>
       <c r="I407">
-        <v>35687</v>
+        <v>35702</v>
       </c>
       <c r="J407">
         <v>93368</v>
@@ -34334,7 +34337,7 @@
         <v>6454</v>
       </c>
       <c r="C408">
-        <v>6413</v>
+        <v>6415</v>
       </c>
       <c r="D408">
         <v>21522</v>
@@ -34352,7 +34355,7 @@
         <v>35215</v>
       </c>
       <c r="I408">
-        <v>35378</v>
+        <v>35394</v>
       </c>
       <c r="J408">
         <v>94636</v>
@@ -34447,7 +34450,7 @@
         <v>6740</v>
       </c>
       <c r="C409">
-        <v>6448</v>
+        <v>6450</v>
       </c>
       <c r="D409">
         <v>22634</v>
@@ -34465,7 +34468,7 @@
         <v>36856</v>
       </c>
       <c r="I409">
-        <v>35508</v>
+        <v>35528</v>
       </c>
       <c r="J409">
         <v>96004</v>
@@ -34560,7 +34563,7 @@
         <v>6503</v>
       </c>
       <c r="C410">
-        <v>6432</v>
+        <v>6434</v>
       </c>
       <c r="D410">
         <v>21875</v>
@@ -34578,7 +34581,7 @@
         <v>36169</v>
       </c>
       <c r="I410">
-        <v>35973</v>
+        <v>35989</v>
       </c>
       <c r="J410">
         <v>94519</v>
@@ -34673,7 +34676,7 @@
         <v>6509</v>
       </c>
       <c r="C411">
-        <v>6498</v>
+        <v>6500</v>
       </c>
       <c r="D411">
         <v>21721</v>
@@ -34691,7 +34694,7 @@
         <v>35902</v>
       </c>
       <c r="I411">
-        <v>36378</v>
+        <v>36389</v>
       </c>
       <c r="J411">
         <v>94252</v>
@@ -34786,7 +34789,7 @@
         <v>6531</v>
       </c>
       <c r="C412">
-        <v>6465</v>
+        <v>6464</v>
       </c>
       <c r="D412">
         <v>22552</v>
@@ -34804,7 +34807,7 @@
         <v>36803</v>
       </c>
       <c r="I412">
-        <v>36736</v>
+        <v>36738</v>
       </c>
       <c r="J412">
         <v>95405</v>
@@ -34899,7 +34902,7 @@
         <v>6520</v>
       </c>
       <c r="C413">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="D413">
         <v>23278</v>
@@ -34917,7 +34920,7 @@
         <v>37392</v>
       </c>
       <c r="I413">
-        <v>37479</v>
+        <v>37446</v>
       </c>
       <c r="J413">
         <v>95245</v>
@@ -35012,7 +35015,7 @@
         <v>6628</v>
       </c>
       <c r="C414">
-        <v>6562</v>
+        <v>6560</v>
       </c>
       <c r="D414">
         <v>23560</v>
@@ -35030,7 +35033,7 @@
         <v>38075</v>
       </c>
       <c r="I414">
-        <v>36790</v>
+        <v>36776</v>
       </c>
       <c r="J414">
         <v>96786</v>
@@ -35125,7 +35128,7 @@
         <v>6614</v>
       </c>
       <c r="C415">
-        <v>6607</v>
+        <v>6604</v>
       </c>
       <c r="D415">
         <v>23301</v>
@@ -35143,7 +35146,7 @@
         <v>38159</v>
       </c>
       <c r="I415">
-        <v>37180</v>
+        <v>37151</v>
       </c>
       <c r="J415">
         <v>96166</v>
@@ -35238,7 +35241,7 @@
         <v>6557</v>
       </c>
       <c r="C416">
-        <v>6666</v>
+        <v>6661</v>
       </c>
       <c r="D416">
         <v>23476</v>
@@ -35256,7 +35259,7 @@
         <v>37901</v>
       </c>
       <c r="I416">
-        <v>37955</v>
+        <v>37906</v>
       </c>
       <c r="J416">
         <v>96547</v>
@@ -35351,7 +35354,7 @@
         <v>6645</v>
       </c>
       <c r="C417">
-        <v>6695</v>
+        <v>6688</v>
       </c>
       <c r="D417">
         <v>23754</v>
@@ -35369,7 +35372,7 @@
         <v>38583</v>
       </c>
       <c r="I417">
-        <v>38724</v>
+        <v>38682</v>
       </c>
       <c r="J417">
         <v>99054</v>
@@ -35464,7 +35467,7 @@
         <v>6776</v>
       </c>
       <c r="C418">
-        <v>6900</v>
+        <v>6910</v>
       </c>
       <c r="D418">
         <v>24490</v>
@@ -35482,7 +35485,7 @@
         <v>39372</v>
       </c>
       <c r="I418">
-        <v>39801</v>
+        <v>39888</v>
       </c>
       <c r="J418">
         <v>99435</v>
@@ -35577,7 +35580,7 @@
         <v>6974</v>
       </c>
       <c r="C419">
-        <v>7127</v>
+        <v>7130</v>
       </c>
       <c r="D419">
         <v>25327</v>
@@ -35595,7 +35598,7 @@
         <v>41034</v>
       </c>
       <c r="I419">
-        <v>42477</v>
+        <v>42518</v>
       </c>
       <c r="J419">
         <v>99214</v>
@@ -35690,7 +35693,7 @@
         <v>7241</v>
       </c>
       <c r="C420">
-        <v>7226</v>
+        <v>7228</v>
       </c>
       <c r="D420">
         <v>26029</v>
@@ -35708,7 +35711,7 @@
         <v>42245</v>
       </c>
       <c r="I420">
-        <v>42513</v>
+        <v>42535</v>
       </c>
       <c r="J420">
         <v>102085</v>
@@ -35803,7 +35806,7 @@
         <v>7575</v>
       </c>
       <c r="C421">
-        <v>7373</v>
+        <v>7375</v>
       </c>
       <c r="D421">
         <v>26853</v>
@@ -35821,7 +35824,7 @@
         <v>43633</v>
       </c>
       <c r="I421">
-        <v>42631</v>
+        <v>42651</v>
       </c>
       <c r="J421">
         <v>102259</v>
@@ -35916,7 +35919,7 @@
         <v>7389</v>
       </c>
       <c r="C422">
-        <v>7244</v>
+        <v>7247</v>
       </c>
       <c r="D422">
         <v>25798</v>
@@ -35934,7 +35937,7 @@
         <v>42621</v>
       </c>
       <c r="I422">
-        <v>42388</v>
+        <v>42411</v>
       </c>
       <c r="J422">
         <v>101396</v>
@@ -36029,7 +36032,7 @@
         <v>7457</v>
       </c>
       <c r="C423">
-        <v>7458</v>
+        <v>7461</v>
       </c>
       <c r="D423">
         <v>26307</v>
@@ -36047,7 +36050,7 @@
         <v>43378</v>
       </c>
       <c r="I423">
-        <v>44100</v>
+        <v>44111</v>
       </c>
       <c r="J423">
         <v>101055</v>
@@ -36142,7 +36145,7 @@
         <v>7734</v>
       </c>
       <c r="C424">
-        <v>7828</v>
+        <v>7827</v>
       </c>
       <c r="D424">
         <v>29536</v>
@@ -36160,7 +36163,7 @@
         <v>46653</v>
       </c>
       <c r="I424">
-        <v>47031</v>
+        <v>47029</v>
       </c>
       <c r="J424">
         <v>101671</v>
@@ -36255,7 +36258,7 @@
         <v>8131</v>
       </c>
       <c r="C425">
-        <v>8132</v>
+        <v>8130</v>
       </c>
       <c r="D425">
         <v>30453</v>
@@ -36273,7 +36276,7 @@
         <v>48600</v>
       </c>
       <c r="I425">
-        <v>48756</v>
+        <v>48712</v>
       </c>
       <c r="J425">
         <v>98436</v>
@@ -36368,7 +36371,7 @@
         <v>8421</v>
       </c>
       <c r="C426">
-        <v>8384</v>
+        <v>8379</v>
       </c>
       <c r="D426">
         <v>33141</v>
@@ -36386,7 +36389,7 @@
         <v>51630</v>
       </c>
       <c r="I426">
-        <v>49874</v>
+        <v>49830</v>
       </c>
       <c r="J426">
         <v>96389</v>
@@ -36481,7 +36484,7 @@
         <v>8708</v>
       </c>
       <c r="C427">
-        <v>8793</v>
+        <v>8786</v>
       </c>
       <c r="D427">
         <v>34629</v>
@@ -36499,7 +36502,7 @@
         <v>52956</v>
       </c>
       <c r="I427">
-        <v>51746</v>
+        <v>51682</v>
       </c>
       <c r="J427">
         <v>92682</v>
@@ -36594,7 +36597,7 @@
         <v>9055</v>
       </c>
       <c r="C428">
-        <v>9067</v>
+        <v>9056</v>
       </c>
       <c r="D428">
         <v>34458</v>
@@ -36612,7 +36615,7 @@
         <v>53272</v>
       </c>
       <c r="I428">
-        <v>53098</v>
+        <v>53008</v>
       </c>
       <c r="J428">
         <v>87779</v>
@@ -36707,7 +36710,7 @@
         <v>10708</v>
       </c>
       <c r="C429">
-        <v>10895</v>
+        <v>10879</v>
       </c>
       <c r="D429">
         <v>37205</v>
@@ -36725,7 +36728,7 @@
         <v>62300</v>
       </c>
       <c r="I429">
-        <v>62454</v>
+        <v>62346</v>
       </c>
       <c r="J429">
         <v>82380</v>
@@ -36820,7 +36823,7 @@
         <v>11257</v>
       </c>
       <c r="C430">
-        <v>11603</v>
+        <v>11632</v>
       </c>
       <c r="D430">
         <v>37542</v>
@@ -36838,7 +36841,7 @@
         <v>63423</v>
       </c>
       <c r="I430">
-        <v>65228</v>
+        <v>65450</v>
       </c>
       <c r="J430">
         <v>80015</v>
@@ -36933,7 +36936,7 @@
         <v>11356</v>
       </c>
       <c r="C431">
-        <v>11361</v>
+        <v>11366</v>
       </c>
       <c r="D431">
         <v>37603</v>
@@ -36951,7 +36954,7 @@
         <v>62478</v>
       </c>
       <c r="I431">
-        <v>64018</v>
+        <v>64103</v>
       </c>
       <c r="J431">
         <v>79174</v>
@@ -37046,7 +37049,7 @@
         <v>11368</v>
       </c>
       <c r="C432">
-        <v>11406</v>
+        <v>11413</v>
       </c>
       <c r="D432">
         <v>37774</v>
@@ -37064,7 +37067,7 @@
         <v>62397</v>
       </c>
       <c r="I432">
-        <v>63014</v>
+        <v>63073</v>
       </c>
       <c r="J432">
         <v>78345</v>
@@ -37159,7 +37162,7 @@
         <v>12180</v>
       </c>
       <c r="C433">
-        <v>11875</v>
+        <v>11883</v>
       </c>
       <c r="D433">
         <v>39185</v>
@@ -37177,7 +37180,7 @@
         <v>68573</v>
       </c>
       <c r="I433">
-        <v>67359</v>
+        <v>67414</v>
       </c>
       <c r="J433">
         <v>77447</v>
@@ -37272,7 +37275,7 @@
         <v>12586</v>
       </c>
       <c r="C434">
-        <v>12356</v>
+        <v>12361</v>
       </c>
       <c r="D434">
         <v>39406</v>
@@ -37290,7 +37293,7 @@
         <v>68803</v>
       </c>
       <c r="I434">
-        <v>68499</v>
+        <v>68531</v>
       </c>
       <c r="J434">
         <v>76229</v>
@@ -37385,7 +37388,7 @@
         <v>12618</v>
       </c>
       <c r="C435">
-        <v>12559</v>
+        <v>12563</v>
       </c>
       <c r="D435">
         <v>39843</v>
@@ -37403,7 +37406,7 @@
         <v>68709</v>
       </c>
       <c r="I435">
-        <v>70069</v>
+        <v>70089</v>
       </c>
       <c r="J435">
         <v>75169</v>
@@ -37498,7 +37501,7 @@
         <v>12555</v>
       </c>
       <c r="C436">
-        <v>12782</v>
+        <v>12780</v>
       </c>
       <c r="D436">
         <v>41127</v>
@@ -37516,7 +37519,7 @@
         <v>70044</v>
       </c>
       <c r="I436">
-        <v>71079</v>
+        <v>71073</v>
       </c>
       <c r="J436">
         <v>75403</v>
@@ -37611,7 +37614,7 @@
         <v>12636</v>
       </c>
       <c r="C437">
-        <v>12554</v>
+        <v>12551</v>
       </c>
       <c r="D437">
         <v>41461</v>
@@ -37629,7 +37632,7 @@
         <v>70433</v>
       </c>
       <c r="I437">
-        <v>70456</v>
+        <v>70389</v>
       </c>
       <c r="J437">
         <v>75780</v>
@@ -37724,7 +37727,7 @@
         <v>14224</v>
       </c>
       <c r="C438">
-        <v>14393</v>
+        <v>14383</v>
       </c>
       <c r="D438">
         <v>46153</v>
@@ -37742,7 +37745,7 @@
         <v>81242</v>
       </c>
       <c r="I438">
-        <v>78435</v>
+        <v>78353</v>
       </c>
       <c r="J438">
         <v>70546</v>
@@ -37837,7 +37840,7 @@
         <v>14547</v>
       </c>
       <c r="C439">
-        <v>14632</v>
+        <v>14620</v>
       </c>
       <c r="D439">
         <v>45981</v>
@@ -37855,7 +37858,7 @@
         <v>80610</v>
       </c>
       <c r="I439">
-        <v>78902</v>
+        <v>78786</v>
       </c>
       <c r="J439">
         <v>70843</v>
@@ -37950,7 +37953,7 @@
         <v>14804</v>
       </c>
       <c r="C440">
-        <v>14876</v>
+        <v>14851</v>
       </c>
       <c r="D440">
         <v>46517</v>
@@ -37968,7 +37971,7 @@
         <v>81330</v>
       </c>
       <c r="I440">
-        <v>80617</v>
+        <v>80442</v>
       </c>
       <c r="J440">
         <v>71852</v>
@@ -38043,16 +38046,16 @@
         <v>25214</v>
       </c>
       <c r="AH440">
-        <v>3552</v>
+        <v>3742</v>
       </c>
       <c r="AI440">
         <v>19168</v>
       </c>
       <c r="AJ440">
-        <v>1342</v>
+        <v>1384</v>
       </c>
       <c r="AK440">
-        <v>289489</v>
+        <v>289636</v>
       </c>
     </row>
     <row r="441" spans="1:37">
@@ -38063,7 +38066,7 @@
         <v>14967</v>
       </c>
       <c r="C441">
-        <v>15358</v>
+        <v>15330</v>
       </c>
       <c r="D441">
         <v>46192</v>
@@ -38081,10 +38084,10 @@
         <v>80589</v>
       </c>
       <c r="I441">
-        <v>81438</v>
+        <v>81260</v>
       </c>
       <c r="J441">
-        <v>71141</v>
+        <v>71850</v>
       </c>
       <c r="K441">
         <v>44480</v>
@@ -38096,7 +38099,7 @@
         <v>4989</v>
       </c>
       <c r="N441">
-        <v>26081</v>
+        <v>26790</v>
       </c>
       <c r="O441">
         <v>580</v>
@@ -38105,19 +38108,19 @@
         <v>11018</v>
       </c>
       <c r="Q441">
-        <v>22605</v>
+        <v>21309</v>
       </c>
       <c r="R441">
-        <v>1414</v>
+        <v>1424</v>
       </c>
       <c r="S441">
-        <v>14932</v>
+        <v>12013</v>
       </c>
       <c r="T441">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="U441">
-        <v>171746</v>
+        <v>174073</v>
       </c>
       <c r="V441">
         <v>28266</v>
@@ -38147,25 +38150,138 @@
         <v>114</v>
       </c>
       <c r="AE441">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="AF441">
-        <v>30945</v>
+        <v>30871</v>
       </c>
       <c r="AG441">
-        <v>25395</v>
+        <v>26041</v>
       </c>
       <c r="AH441">
-        <v>3636</v>
+        <v>3700</v>
       </c>
       <c r="AI441">
-        <v>18213</v>
+        <v>18069</v>
       </c>
       <c r="AJ441">
-        <v>1359</v>
+        <v>1373</v>
       </c>
       <c r="AK441">
-        <v>292702</v>
+        <v>295667</v>
+      </c>
+    </row>
+    <row r="442" spans="1:37">
+      <c r="A442" t="s">
+        <v>477</v>
+      </c>
+      <c r="B442">
+        <v>15093</v>
+      </c>
+      <c r="C442">
+        <v>15446</v>
+      </c>
+      <c r="D442">
+        <v>45735</v>
+      </c>
+      <c r="E442">
+        <v>26433</v>
+      </c>
+      <c r="F442">
+        <v>19302</v>
+      </c>
+      <c r="G442">
+        <v>19017</v>
+      </c>
+      <c r="H442">
+        <v>79845</v>
+      </c>
+      <c r="I442">
+        <v>81944</v>
+      </c>
+      <c r="J442">
+        <v>73052</v>
+      </c>
+      <c r="K442">
+        <v>44918</v>
+      </c>
+      <c r="L442">
+        <v>39607</v>
+      </c>
+      <c r="M442">
+        <v>5312</v>
+      </c>
+      <c r="N442">
+        <v>27554</v>
+      </c>
+      <c r="O442">
+        <v>579</v>
+      </c>
+      <c r="P442">
+        <v>11241</v>
+      </c>
+      <c r="Q442">
+        <v>22586</v>
+      </c>
+      <c r="R442">
+        <v>1451</v>
+      </c>
+      <c r="S442">
+        <v>13944</v>
+      </c>
+      <c r="T442">
+        <v>102</v>
+      </c>
+      <c r="U442">
+        <v>174127</v>
+      </c>
+      <c r="V442">
+        <v>30114</v>
+      </c>
+      <c r="W442">
+        <v>15358</v>
+      </c>
+      <c r="X442">
+        <v>15088</v>
+      </c>
+      <c r="Y442">
+        <v>271</v>
+      </c>
+      <c r="Z442">
+        <v>0</v>
+      </c>
+      <c r="AA442">
+        <v>37008</v>
+      </c>
+      <c r="AB442">
+        <v>17850</v>
+      </c>
+      <c r="AC442">
+        <v>19158</v>
+      </c>
+      <c r="AD442">
+        <v>115</v>
+      </c>
+      <c r="AE442">
+        <v>323</v>
+      </c>
+      <c r="AF442">
+        <v>30794</v>
+      </c>
+      <c r="AG442">
+        <v>25494</v>
+      </c>
+      <c r="AH442">
+        <v>3713</v>
+      </c>
+      <c r="AI442">
+        <v>18283</v>
+      </c>
+      <c r="AJ442">
+        <v>1374</v>
+      </c>
+      <c r="AK442">
+        <v>297390</v>
       </c>
     </row>
   </sheetData>
